--- a/Code/Results/Cases/Case_0_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9542593970641778</v>
+        <v>0.9542593970641788</v>
       </c>
       <c r="D2">
-        <v>0.9669271486154298</v>
+        <v>0.9669271486154305</v>
       </c>
       <c r="E2">
-        <v>0.9668281240742855</v>
+        <v>0.9668281240742863</v>
       </c>
       <c r="F2">
-        <v>0.9701719179994603</v>
+        <v>0.9701719179994613</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.039033286481309</v>
       </c>
       <c r="J2">
-        <v>0.9778999161991137</v>
+        <v>0.9778999161991144</v>
       </c>
       <c r="K2">
-        <v>0.9788673144309031</v>
+        <v>0.9788673144309037</v>
       </c>
       <c r="L2">
-        <v>0.9787697924961817</v>
+        <v>0.9787697924961822</v>
       </c>
       <c r="M2">
-        <v>0.9820630634733762</v>
+        <v>0.9820630634733771</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9646061390548235</v>
+        <v>0.9646061390548244</v>
       </c>
       <c r="D3">
-        <v>0.9760141816014205</v>
+        <v>0.9760141816014214</v>
       </c>
       <c r="E3">
-        <v>0.9754314912278031</v>
+        <v>0.9754314912278039</v>
       </c>
       <c r="F3">
-        <v>0.9804642389569432</v>
+        <v>0.9804642389569442</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.041481740275324</v>
       </c>
       <c r="J3">
-        <v>0.9861104923655959</v>
+        <v>0.9861104923655969</v>
       </c>
       <c r="K3">
-        <v>0.9869634522184425</v>
+        <v>0.9869634522184434</v>
       </c>
       <c r="L3">
-        <v>0.9863886915471756</v>
+        <v>0.9863886915471765</v>
       </c>
       <c r="M3">
-        <v>0.9913533404689012</v>
+        <v>0.9913533404689021</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9710062024018565</v>
+        <v>0.971006202401857</v>
       </c>
       <c r="D4">
-        <v>0.9816413442154234</v>
+        <v>0.9816413442154236</v>
       </c>
       <c r="E4">
-        <v>0.9807627347119071</v>
+        <v>0.9807627347119076</v>
       </c>
       <c r="F4">
         <v>0.986823494338993</v>
@@ -515,16 +515,16 @@
         <v>1.042963657375241</v>
       </c>
       <c r="J4">
-        <v>0.9911818198502031</v>
+        <v>0.9911818198502033</v>
       </c>
       <c r="K4">
-        <v>0.991966511231169</v>
+        <v>0.9919665112311692</v>
       </c>
       <c r="L4">
-        <v>0.9910990187942152</v>
+        <v>0.9910990187942157</v>
       </c>
       <c r="M4">
-        <v>0.9970835933937029</v>
+        <v>0.9970835933937031</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9736317977202896</v>
+        <v>0.9736317977202884</v>
       </c>
       <c r="D5">
-        <v>0.9839512051374587</v>
+        <v>0.9839512051374575</v>
       </c>
       <c r="E5">
-        <v>0.9829519548708501</v>
+        <v>0.9829519548708487</v>
       </c>
       <c r="F5">
-        <v>0.9894304758960182</v>
+        <v>0.9894304758960168</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04356355582849</v>
+        <v>1.043563555828489</v>
       </c>
       <c r="J5">
-        <v>0.9932604116346129</v>
+        <v>0.9932604116346117</v>
       </c>
       <c r="K5">
-        <v>0.9940176905942131</v>
+        <v>0.9940176905942117</v>
       </c>
       <c r="L5">
-        <v>0.9930306947446274</v>
+        <v>0.9930306947446261</v>
       </c>
       <c r="M5">
-        <v>0.9994303120817937</v>
+        <v>0.9994303120817924</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9740689855980192</v>
+        <v>0.9740689855980205</v>
       </c>
       <c r="D6">
-        <v>0.9843358946813612</v>
+        <v>0.9843358946813624</v>
       </c>
       <c r="E6">
-        <v>0.9833166005694327</v>
+        <v>0.983316600569434</v>
       </c>
       <c r="F6">
-        <v>0.9898644498595123</v>
+        <v>0.9898644498595134</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.043662964613046</v>
       </c>
       <c r="J6">
-        <v>0.9936064030230768</v>
+        <v>0.9936064030230781</v>
       </c>
       <c r="K6">
-        <v>0.994359152266495</v>
+        <v>0.9943591522664964</v>
       </c>
       <c r="L6">
-        <v>0.9933522924415669</v>
+        <v>0.9933522924415681</v>
       </c>
       <c r="M6">
-        <v>0.9998208187148413</v>
+        <v>0.9998208187148423</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9710415342165822</v>
+        <v>0.9710415342165809</v>
       </c>
       <c r="D7">
-        <v>0.9816724221624279</v>
+        <v>0.9816724221624269</v>
       </c>
       <c r="E7">
-        <v>0.9807921862500457</v>
+        <v>0.9807921862500445</v>
       </c>
       <c r="F7">
-        <v>0.9868585833063969</v>
+        <v>0.9868585833063963</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.042971762277422</v>
       </c>
       <c r="J7">
-        <v>0.9912097984897276</v>
+        <v>0.9912097984897263</v>
       </c>
       <c r="K7">
-        <v>0.9919941186425995</v>
+        <v>0.9919941186425986</v>
       </c>
       <c r="L7">
-        <v>0.991125015754142</v>
+        <v>0.9911250157541409</v>
       </c>
       <c r="M7">
-        <v>0.9971151889086588</v>
+        <v>0.9971151889086584</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9578208353371738</v>
+        <v>0.9578208353371735</v>
       </c>
       <c r="D8">
-        <v>0.9700535290913149</v>
+        <v>0.9700535290913145</v>
       </c>
       <c r="E8">
-        <v>0.9697873130805881</v>
+        <v>0.9697873130805879</v>
       </c>
       <c r="F8">
-        <v>0.9737160440151013</v>
+        <v>0.9737160440151008</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03988286700754</v>
+        <v>1.039882867007539</v>
       </c>
       <c r="J8">
-        <v>0.980727563667485</v>
+        <v>0.9807275636674848</v>
       </c>
       <c r="K8">
-        <v>0.9816550276003062</v>
+        <v>0.9816550276003058</v>
       </c>
       <c r="L8">
-        <v>0.9813927069747639</v>
+        <v>0.9813927069747634</v>
       </c>
       <c r="M8">
-        <v>0.9852642251719298</v>
+        <v>0.9852642251719295</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9319643959711377</v>
+        <v>0.9319643959711369</v>
       </c>
       <c r="D9">
-        <v>0.9473923843267743</v>
+        <v>0.9473923843267734</v>
       </c>
       <c r="E9">
-        <v>0.9483557148397268</v>
+        <v>0.9483557148397256</v>
       </c>
       <c r="F9">
-        <v>0.9479613082969204</v>
+        <v>0.9479613082969192</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.033580295345579</v>
       </c>
       <c r="J9">
-        <v>0.9601716733991533</v>
+        <v>0.9601716733991522</v>
       </c>
       <c r="K9">
-        <v>0.9614008327479795</v>
+        <v>0.9614008327479785</v>
       </c>
       <c r="L9">
-        <v>0.9623462104644417</v>
+        <v>0.9623462104644407</v>
       </c>
       <c r="M9">
-        <v>0.9619591483954978</v>
+        <v>0.9619591483954967</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9124848681496865</v>
+        <v>0.9124848681496882</v>
       </c>
       <c r="D10">
-        <v>0.9303804119373638</v>
+        <v>0.9303804119373652</v>
       </c>
       <c r="E10">
-        <v>0.9322922619817462</v>
+        <v>0.9322922619817474</v>
       </c>
       <c r="F10">
-        <v>0.9285383504957879</v>
+        <v>0.9285383504957887</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.028671183321617</v>
       </c>
       <c r="J10">
-        <v>0.9446591536515631</v>
+        <v>0.9446591536515646</v>
       </c>
       <c r="K10">
-        <v>0.9461317371228682</v>
+        <v>0.9461317371228697</v>
       </c>
       <c r="L10">
-        <v>0.9480019723423865</v>
+        <v>0.9480019723423876</v>
       </c>
       <c r="M10">
-        <v>0.944329986920049</v>
+        <v>0.94432998692005</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9033613739604713</v>
+        <v>0.9033613739604718</v>
       </c>
       <c r="D11">
-        <v>0.9224320662329584</v>
+        <v>0.922432066232959</v>
       </c>
       <c r="E11">
-        <v>0.9247941566985949</v>
+        <v>0.9247941566985955</v>
       </c>
       <c r="F11">
-        <v>0.919441124817554</v>
+        <v>0.9194411248175548</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.026339119814904</v>
       </c>
       <c r="J11">
-        <v>0.9373909325558966</v>
+        <v>0.9373909325558969</v>
       </c>
       <c r="K11">
-        <v>0.9389816998800092</v>
+        <v>0.9389816998800099</v>
       </c>
       <c r="L11">
-        <v>0.9412888276800655</v>
+        <v>0.9412888276800662</v>
       </c>
       <c r="M11">
-        <v>0.9360608966199016</v>
+        <v>0.9360608966199019</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8998514032280435</v>
+        <v>0.899851403228046</v>
       </c>
       <c r="D12">
-        <v>0.9193776690066272</v>
+        <v>0.9193776690066295</v>
       </c>
       <c r="E12">
-        <v>0.9219139479713061</v>
+        <v>0.9219139479713082</v>
       </c>
       <c r="F12">
-        <v>0.915941730331248</v>
+        <v>0.91594173033125</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025437592022672</v>
+        <v>1.025437592022673</v>
       </c>
       <c r="J12">
-        <v>0.9345946996095986</v>
+        <v>0.9345946996096008</v>
       </c>
       <c r="K12">
-        <v>0.9362315962399043</v>
+        <v>0.9362315962399066</v>
       </c>
       <c r="L12">
-        <v>0.9387073781740849</v>
+        <v>0.938707378174087</v>
       </c>
       <c r="M12">
-        <v>0.9328783321217118</v>
+        <v>0.9328783321217138</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9006101170242971</v>
+        <v>0.9006101170242975</v>
       </c>
       <c r="D13">
-        <v>0.9200377396784919</v>
+        <v>0.9200377396784921</v>
       </c>
       <c r="E13">
-        <v>0.9225363210094811</v>
+        <v>0.9225363210094816</v>
       </c>
       <c r="F13">
-        <v>0.9166981273884975</v>
+        <v>0.916698127388498</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.025632650562684</v>
       </c>
       <c r="J13">
-        <v>0.9351991257141334</v>
+        <v>0.9351991257141338</v>
       </c>
       <c r="K13">
-        <v>0.9368260206235781</v>
+        <v>0.9368260206235783</v>
       </c>
       <c r="L13">
-        <v>0.9392653202760199</v>
+        <v>0.9392653202760202</v>
       </c>
       <c r="M13">
-        <v>0.9335663222490963</v>
+        <v>0.9335663222490966</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.903073827331294</v>
+        <v>0.9030738273312938</v>
       </c>
       <c r="D14">
-        <v>0.922181767815959</v>
+        <v>0.9221817678159591</v>
       </c>
       <c r="E14">
-        <v>0.9245581082015923</v>
+        <v>0.924558108201592</v>
       </c>
       <c r="F14">
-        <v>0.9191544318169664</v>
+        <v>0.9191544318169663</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,13 +895,13 @@
         <v>1.02626534787907</v>
       </c>
       <c r="J14">
-        <v>0.9371618551330786</v>
+        <v>0.9371618551330787</v>
       </c>
       <c r="K14">
         <v>0.9387563879269064</v>
       </c>
       <c r="L14">
-        <v>0.9410773206872581</v>
+        <v>0.9410773206872578</v>
       </c>
       <c r="M14">
         <v>0.9358001946352033</v>
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9045751494649723</v>
+        <v>0.9045751494649727</v>
       </c>
       <c r="D15">
-        <v>0.923488755461905</v>
+        <v>0.9234887554619051</v>
       </c>
       <c r="E15">
-        <v>0.9257907347143577</v>
+        <v>0.9257907347143582</v>
       </c>
       <c r="F15">
-        <v>0.9206513193094576</v>
+        <v>0.920651319309458</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.026650350285819</v>
       </c>
       <c r="J15">
-        <v>0.9383579029570109</v>
+        <v>0.9383579029570112</v>
       </c>
       <c r="K15">
-        <v>0.9399328026330419</v>
+        <v>0.939932802633042</v>
       </c>
       <c r="L15">
-        <v>0.9421816809662741</v>
+        <v>0.9421816809662743</v>
       </c>
       <c r="M15">
-        <v>0.9371613081758627</v>
+        <v>0.937161308175863</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9130744478867346</v>
+        <v>0.9130744478867342</v>
       </c>
       <c r="D16">
-        <v>0.9308944903460845</v>
+        <v>0.9308944903460842</v>
       </c>
       <c r="E16">
-        <v>0.9327773727348402</v>
+        <v>0.9327773727348397</v>
       </c>
       <c r="F16">
-        <v>0.9291262671998108</v>
+        <v>0.9291262671998104</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.028821263396636</v>
       </c>
       <c r="J16">
-        <v>0.9451288164158463</v>
+        <v>0.9451288164158461</v>
       </c>
       <c r="K16">
-        <v>0.9465938504000324</v>
+        <v>0.9465938504000321</v>
       </c>
       <c r="L16">
-        <v>0.948435929741939</v>
+        <v>0.9484359297419385</v>
       </c>
       <c r="M16">
-        <v>0.9448641456363469</v>
+        <v>0.9448641456363465</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9182103115592621</v>
+        <v>0.9182103115592616</v>
       </c>
       <c r="D17">
-        <v>0.9353748609568789</v>
+        <v>0.9353748609568783</v>
       </c>
       <c r="E17">
-        <v>0.9370060744557646</v>
+        <v>0.9370060744557639</v>
       </c>
       <c r="F17">
-        <v>0.9342476657085679</v>
+        <v>0.9342476657085677</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.030125044440692</v>
       </c>
       <c r="J17">
-        <v>0.9492198107513355</v>
+        <v>0.9492198107513352</v>
       </c>
       <c r="K17">
-        <v>0.9506195459765356</v>
+        <v>0.9506195459765351</v>
       </c>
       <c r="L17">
-        <v>0.9522167714636609</v>
+        <v>0.9522167714636603</v>
       </c>
       <c r="M17">
-        <v>0.9495159287004903</v>
+        <v>0.9495159287004901</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1032,13 +1032,13 @@
         <v>0.9211409125755741</v>
       </c>
       <c r="D18">
-        <v>0.9379331751490889</v>
+        <v>0.9379331751490886</v>
       </c>
       <c r="E18">
-        <v>0.9394213281300192</v>
+        <v>0.9394213281300191</v>
       </c>
       <c r="F18">
-        <v>0.9371699550197767</v>
+        <v>0.9371699550197768</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.030865941499534</v>
       </c>
       <c r="J18">
-        <v>0.9515539142799646</v>
+        <v>0.9515539142799645</v>
       </c>
       <c r="K18">
-        <v>0.9529167703090524</v>
+        <v>0.9529167703090523</v>
       </c>
       <c r="L18">
-        <v>0.9543746199310501</v>
+        <v>0.95437461993105</v>
       </c>
       <c r="M18">
-        <v>0.9521691409179213</v>
+        <v>0.9521691409179215</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,13 +1067,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9221296027112522</v>
+        <v>0.9221296027112519</v>
       </c>
       <c r="D19">
-        <v>0.9387965500756914</v>
+        <v>0.9387965500756907</v>
       </c>
       <c r="E19">
-        <v>0.9402365297051569</v>
+        <v>0.9402365297051567</v>
       </c>
       <c r="F19">
         <v>0.9381558185103654</v>
@@ -1085,13 +1085,13 @@
         <v>1.031115361896596</v>
       </c>
       <c r="J19">
-        <v>0.9523413081269919</v>
+        <v>0.9523413081269914</v>
       </c>
       <c r="K19">
-        <v>0.9536917860856347</v>
+        <v>0.9536917860856341</v>
       </c>
       <c r="L19">
-        <v>0.9551026723273385</v>
+        <v>0.955102672327338</v>
       </c>
       <c r="M19">
         <v>0.9530640377049917</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9176661250886776</v>
+        <v>0.9176661250886785</v>
       </c>
       <c r="D20">
-        <v>0.9348999435865402</v>
+        <v>0.934899943586541</v>
       </c>
       <c r="E20">
-        <v>0.9365577660821396</v>
+        <v>0.9365577660821404</v>
       </c>
       <c r="F20">
-        <v>0.9337050148217</v>
+        <v>0.9337050148217009</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.029987213696397</v>
       </c>
       <c r="J20">
-        <v>0.9487863633770056</v>
+        <v>0.9487863633770068</v>
       </c>
       <c r="K20">
-        <v>0.9501929775491186</v>
+        <v>0.9501929775491196</v>
       </c>
       <c r="L20">
-        <v>0.9518161115848605</v>
+        <v>0.9518161115848613</v>
       </c>
       <c r="M20">
-        <v>0.9490231526742265</v>
+        <v>0.9490231526742274</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9023518334236452</v>
+        <v>0.9023518334236464</v>
       </c>
       <c r="D21">
-        <v>0.9215533572508487</v>
+        <v>0.9215533572508494</v>
       </c>
       <c r="E21">
-        <v>0.9239654932688904</v>
+        <v>0.923965493268891</v>
       </c>
       <c r="F21">
-        <v>0.9184345907242168</v>
+        <v>0.9184345907242177</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.026080048406717</v>
       </c>
       <c r="J21">
-        <v>0.9365866713398797</v>
+        <v>0.9365866713398806</v>
       </c>
       <c r="K21">
-        <v>0.938190669489077</v>
+        <v>0.9381906694890777</v>
       </c>
       <c r="L21">
-        <v>0.9405462740299996</v>
+        <v>0.9405462740300002</v>
       </c>
       <c r="M21">
-        <v>0.9351455855866762</v>
+        <v>0.9351455855866769</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8920100682773096</v>
+        <v>0.8920100682773111</v>
       </c>
       <c r="D22">
-        <v>0.9125612915139238</v>
+        <v>0.9125612915139255</v>
       </c>
       <c r="E22">
-        <v>0.9154886151702781</v>
+        <v>0.9154886151702794</v>
       </c>
       <c r="F22">
-        <v>0.9081255812655084</v>
+        <v>0.9081255812655095</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.02341626602295</v>
       </c>
       <c r="J22">
-        <v>0.9283483604802937</v>
+        <v>0.928348360480295</v>
       </c>
       <c r="K22">
-        <v>0.9300895874995768</v>
+        <v>0.9300895874995785</v>
       </c>
       <c r="L22">
-        <v>0.9329432301967938</v>
+        <v>0.9329432301967949</v>
       </c>
       <c r="M22">
-        <v>0.9257667489777105</v>
+        <v>0.9257667489777116</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8975671971032964</v>
+        <v>0.8975671971032966</v>
       </c>
       <c r="D23">
-        <v>0.9173910004019384</v>
+        <v>0.9173910004019386</v>
       </c>
       <c r="E23">
-        <v>0.9200409221742488</v>
+        <v>0.9200409221742487</v>
       </c>
       <c r="F23">
-        <v>0.9136646143443924</v>
+        <v>0.9136646143443928</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024849758898791</v>
+        <v>1.024849758898792</v>
       </c>
       <c r="J23">
         <v>0.9327750295934611</v>
       </c>
       <c r="K23">
-        <v>0.9344421379054718</v>
+        <v>0.9344421379054717</v>
       </c>
       <c r="L23">
         <v>0.9370278398383627</v>
       </c>
       <c r="M23">
-        <v>0.9308069080865535</v>
+        <v>0.9308069080865538</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9179122193042013</v>
+        <v>0.9179122193042023</v>
       </c>
       <c r="D24">
-        <v>0.935114707237609</v>
+        <v>0.9351147072376099</v>
       </c>
       <c r="E24">
-        <v>0.9367604948084942</v>
+        <v>0.9367604948084953</v>
       </c>
       <c r="F24">
-        <v>0.9339504148245075</v>
+        <v>0.9339504148245089</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030049553660172</v>
+        <v>1.030049553660173</v>
       </c>
       <c r="J24">
-        <v>0.94898237960734</v>
+        <v>0.9489823796073411</v>
       </c>
       <c r="K24">
-        <v>0.9503858817675838</v>
+        <v>0.9503858817675849</v>
       </c>
       <c r="L24">
-        <v>0.9519972982704932</v>
+        <v>0.9519972982704942</v>
       </c>
       <c r="M24">
-        <v>0.949246001521425</v>
+        <v>0.9492460015214261</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9389996393423931</v>
+        <v>0.9389996393423906</v>
       </c>
       <c r="D25">
-        <v>0.9535495702437702</v>
+        <v>0.9535495702437677</v>
       </c>
       <c r="E25">
-        <v>0.9541748593639643</v>
+        <v>0.9541748593639618</v>
       </c>
       <c r="F25">
-        <v>0.9549734092952686</v>
+        <v>0.954973409295266</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035323351997566</v>
+        <v>1.035323351997565</v>
       </c>
       <c r="J25">
-        <v>0.9657699920251336</v>
+        <v>0.9657699920251311</v>
       </c>
       <c r="K25">
-        <v>0.966914475529999</v>
+        <v>0.9669144755299965</v>
       </c>
       <c r="L25">
-        <v>0.967528803244084</v>
+        <v>0.9675288032440815</v>
       </c>
       <c r="M25">
-        <v>0.9683133815165912</v>
+        <v>0.9683133815165885</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9542593970641788</v>
+        <v>0.9542593970641778</v>
       </c>
       <c r="D2">
-        <v>0.9669271486154305</v>
+        <v>0.9669271486154298</v>
       </c>
       <c r="E2">
-        <v>0.9668281240742863</v>
+        <v>0.9668281240742855</v>
       </c>
       <c r="F2">
-        <v>0.9701719179994613</v>
+        <v>0.9701719179994603</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.039033286481309</v>
       </c>
       <c r="J2">
-        <v>0.9778999161991144</v>
+        <v>0.9778999161991137</v>
       </c>
       <c r="K2">
-        <v>0.9788673144309037</v>
+        <v>0.9788673144309031</v>
       </c>
       <c r="L2">
-        <v>0.9787697924961822</v>
+        <v>0.9787697924961817</v>
       </c>
       <c r="M2">
-        <v>0.9820630634733771</v>
+        <v>0.9820630634733762</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9646061390548244</v>
+        <v>0.9646061390548235</v>
       </c>
       <c r="D3">
-        <v>0.9760141816014214</v>
+        <v>0.9760141816014205</v>
       </c>
       <c r="E3">
-        <v>0.9754314912278039</v>
+        <v>0.9754314912278031</v>
       </c>
       <c r="F3">
-        <v>0.9804642389569442</v>
+        <v>0.9804642389569432</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.041481740275324</v>
       </c>
       <c r="J3">
-        <v>0.9861104923655969</v>
+        <v>0.9861104923655959</v>
       </c>
       <c r="K3">
-        <v>0.9869634522184434</v>
+        <v>0.9869634522184425</v>
       </c>
       <c r="L3">
-        <v>0.9863886915471765</v>
+        <v>0.9863886915471756</v>
       </c>
       <c r="M3">
-        <v>0.9913533404689021</v>
+        <v>0.9913533404689012</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.971006202401857</v>
+        <v>0.9710062024018565</v>
       </c>
       <c r="D4">
-        <v>0.9816413442154236</v>
+        <v>0.9816413442154234</v>
       </c>
       <c r="E4">
-        <v>0.9807627347119076</v>
+        <v>0.9807627347119071</v>
       </c>
       <c r="F4">
         <v>0.986823494338993</v>
@@ -515,16 +515,16 @@
         <v>1.042963657375241</v>
       </c>
       <c r="J4">
-        <v>0.9911818198502033</v>
+        <v>0.9911818198502031</v>
       </c>
       <c r="K4">
-        <v>0.9919665112311692</v>
+        <v>0.991966511231169</v>
       </c>
       <c r="L4">
-        <v>0.9910990187942157</v>
+        <v>0.9910990187942152</v>
       </c>
       <c r="M4">
-        <v>0.9970835933937031</v>
+        <v>0.9970835933937029</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9736317977202884</v>
+        <v>0.9736317977202896</v>
       </c>
       <c r="D5">
-        <v>0.9839512051374575</v>
+        <v>0.9839512051374587</v>
       </c>
       <c r="E5">
-        <v>0.9829519548708487</v>
+        <v>0.9829519548708501</v>
       </c>
       <c r="F5">
-        <v>0.9894304758960168</v>
+        <v>0.9894304758960182</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043563555828489</v>
+        <v>1.04356355582849</v>
       </c>
       <c r="J5">
-        <v>0.9932604116346117</v>
+        <v>0.9932604116346129</v>
       </c>
       <c r="K5">
-        <v>0.9940176905942117</v>
+        <v>0.9940176905942131</v>
       </c>
       <c r="L5">
-        <v>0.9930306947446261</v>
+        <v>0.9930306947446274</v>
       </c>
       <c r="M5">
-        <v>0.9994303120817924</v>
+        <v>0.9994303120817937</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9740689855980205</v>
+        <v>0.9740689855980192</v>
       </c>
       <c r="D6">
-        <v>0.9843358946813624</v>
+        <v>0.9843358946813612</v>
       </c>
       <c r="E6">
-        <v>0.983316600569434</v>
+        <v>0.9833166005694327</v>
       </c>
       <c r="F6">
-        <v>0.9898644498595134</v>
+        <v>0.9898644498595123</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.043662964613046</v>
       </c>
       <c r="J6">
-        <v>0.9936064030230781</v>
+        <v>0.9936064030230768</v>
       </c>
       <c r="K6">
-        <v>0.9943591522664964</v>
+        <v>0.994359152266495</v>
       </c>
       <c r="L6">
-        <v>0.9933522924415681</v>
+        <v>0.9933522924415669</v>
       </c>
       <c r="M6">
-        <v>0.9998208187148423</v>
+        <v>0.9998208187148413</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9710415342165809</v>
+        <v>0.9710415342165822</v>
       </c>
       <c r="D7">
-        <v>0.9816724221624269</v>
+        <v>0.9816724221624279</v>
       </c>
       <c r="E7">
-        <v>0.9807921862500445</v>
+        <v>0.9807921862500457</v>
       </c>
       <c r="F7">
-        <v>0.9868585833063963</v>
+        <v>0.9868585833063969</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.042971762277422</v>
       </c>
       <c r="J7">
-        <v>0.9912097984897263</v>
+        <v>0.9912097984897276</v>
       </c>
       <c r="K7">
-        <v>0.9919941186425986</v>
+        <v>0.9919941186425995</v>
       </c>
       <c r="L7">
-        <v>0.9911250157541409</v>
+        <v>0.991125015754142</v>
       </c>
       <c r="M7">
-        <v>0.9971151889086584</v>
+        <v>0.9971151889086588</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9578208353371735</v>
+        <v>0.9578208353371738</v>
       </c>
       <c r="D8">
-        <v>0.9700535290913145</v>
+        <v>0.9700535290913149</v>
       </c>
       <c r="E8">
-        <v>0.9697873130805879</v>
+        <v>0.9697873130805881</v>
       </c>
       <c r="F8">
-        <v>0.9737160440151008</v>
+        <v>0.9737160440151013</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039882867007539</v>
+        <v>1.03988286700754</v>
       </c>
       <c r="J8">
-        <v>0.9807275636674848</v>
+        <v>0.980727563667485</v>
       </c>
       <c r="K8">
-        <v>0.9816550276003058</v>
+        <v>0.9816550276003062</v>
       </c>
       <c r="L8">
-        <v>0.9813927069747634</v>
+        <v>0.9813927069747639</v>
       </c>
       <c r="M8">
-        <v>0.9852642251719295</v>
+        <v>0.9852642251719298</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9319643959711369</v>
+        <v>0.9319643959711377</v>
       </c>
       <c r="D9">
-        <v>0.9473923843267734</v>
+        <v>0.9473923843267743</v>
       </c>
       <c r="E9">
-        <v>0.9483557148397256</v>
+        <v>0.9483557148397268</v>
       </c>
       <c r="F9">
-        <v>0.9479613082969192</v>
+        <v>0.9479613082969204</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.033580295345579</v>
       </c>
       <c r="J9">
-        <v>0.9601716733991522</v>
+        <v>0.9601716733991533</v>
       </c>
       <c r="K9">
-        <v>0.9614008327479785</v>
+        <v>0.9614008327479795</v>
       </c>
       <c r="L9">
-        <v>0.9623462104644407</v>
+        <v>0.9623462104644417</v>
       </c>
       <c r="M9">
-        <v>0.9619591483954967</v>
+        <v>0.9619591483954978</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9124848681496882</v>
+        <v>0.9124848681496865</v>
       </c>
       <c r="D10">
-        <v>0.9303804119373652</v>
+        <v>0.9303804119373638</v>
       </c>
       <c r="E10">
-        <v>0.9322922619817474</v>
+        <v>0.9322922619817462</v>
       </c>
       <c r="F10">
-        <v>0.9285383504957887</v>
+        <v>0.9285383504957879</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.028671183321617</v>
       </c>
       <c r="J10">
-        <v>0.9446591536515646</v>
+        <v>0.9446591536515631</v>
       </c>
       <c r="K10">
-        <v>0.9461317371228697</v>
+        <v>0.9461317371228682</v>
       </c>
       <c r="L10">
-        <v>0.9480019723423876</v>
+        <v>0.9480019723423865</v>
       </c>
       <c r="M10">
-        <v>0.94432998692005</v>
+        <v>0.944329986920049</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9033613739604718</v>
+        <v>0.9033613739604713</v>
       </c>
       <c r="D11">
-        <v>0.922432066232959</v>
+        <v>0.9224320662329584</v>
       </c>
       <c r="E11">
-        <v>0.9247941566985955</v>
+        <v>0.9247941566985949</v>
       </c>
       <c r="F11">
-        <v>0.9194411248175548</v>
+        <v>0.919441124817554</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.026339119814904</v>
       </c>
       <c r="J11">
-        <v>0.9373909325558969</v>
+        <v>0.9373909325558966</v>
       </c>
       <c r="K11">
-        <v>0.9389816998800099</v>
+        <v>0.9389816998800092</v>
       </c>
       <c r="L11">
-        <v>0.9412888276800662</v>
+        <v>0.9412888276800655</v>
       </c>
       <c r="M11">
-        <v>0.9360608966199019</v>
+        <v>0.9360608966199016</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.899851403228046</v>
+        <v>0.8998514032280435</v>
       </c>
       <c r="D12">
-        <v>0.9193776690066295</v>
+        <v>0.9193776690066272</v>
       </c>
       <c r="E12">
-        <v>0.9219139479713082</v>
+        <v>0.9219139479713061</v>
       </c>
       <c r="F12">
-        <v>0.91594173033125</v>
+        <v>0.915941730331248</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025437592022673</v>
+        <v>1.025437592022672</v>
       </c>
       <c r="J12">
-        <v>0.9345946996096008</v>
+        <v>0.9345946996095986</v>
       </c>
       <c r="K12">
-        <v>0.9362315962399066</v>
+        <v>0.9362315962399043</v>
       </c>
       <c r="L12">
-        <v>0.938707378174087</v>
+        <v>0.9387073781740849</v>
       </c>
       <c r="M12">
-        <v>0.9328783321217138</v>
+        <v>0.9328783321217118</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9006101170242975</v>
+        <v>0.9006101170242971</v>
       </c>
       <c r="D13">
-        <v>0.9200377396784921</v>
+        <v>0.9200377396784919</v>
       </c>
       <c r="E13">
-        <v>0.9225363210094816</v>
+        <v>0.9225363210094811</v>
       </c>
       <c r="F13">
-        <v>0.916698127388498</v>
+        <v>0.9166981273884975</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.025632650562684</v>
       </c>
       <c r="J13">
-        <v>0.9351991257141338</v>
+        <v>0.9351991257141334</v>
       </c>
       <c r="K13">
-        <v>0.9368260206235783</v>
+        <v>0.9368260206235781</v>
       </c>
       <c r="L13">
-        <v>0.9392653202760202</v>
+        <v>0.9392653202760199</v>
       </c>
       <c r="M13">
-        <v>0.9335663222490966</v>
+        <v>0.9335663222490963</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9030738273312938</v>
+        <v>0.903073827331294</v>
       </c>
       <c r="D14">
-        <v>0.9221817678159591</v>
+        <v>0.922181767815959</v>
       </c>
       <c r="E14">
-        <v>0.924558108201592</v>
+        <v>0.9245581082015923</v>
       </c>
       <c r="F14">
-        <v>0.9191544318169663</v>
+        <v>0.9191544318169664</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,13 +895,13 @@
         <v>1.02626534787907</v>
       </c>
       <c r="J14">
-        <v>0.9371618551330787</v>
+        <v>0.9371618551330786</v>
       </c>
       <c r="K14">
         <v>0.9387563879269064</v>
       </c>
       <c r="L14">
-        <v>0.9410773206872578</v>
+        <v>0.9410773206872581</v>
       </c>
       <c r="M14">
         <v>0.9358001946352033</v>
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9045751494649727</v>
+        <v>0.9045751494649723</v>
       </c>
       <c r="D15">
-        <v>0.9234887554619051</v>
+        <v>0.923488755461905</v>
       </c>
       <c r="E15">
-        <v>0.9257907347143582</v>
+        <v>0.9257907347143577</v>
       </c>
       <c r="F15">
-        <v>0.920651319309458</v>
+        <v>0.9206513193094576</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.026650350285819</v>
       </c>
       <c r="J15">
-        <v>0.9383579029570112</v>
+        <v>0.9383579029570109</v>
       </c>
       <c r="K15">
-        <v>0.939932802633042</v>
+        <v>0.9399328026330419</v>
       </c>
       <c r="L15">
-        <v>0.9421816809662743</v>
+        <v>0.9421816809662741</v>
       </c>
       <c r="M15">
-        <v>0.937161308175863</v>
+        <v>0.9371613081758627</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9130744478867342</v>
+        <v>0.9130744478867346</v>
       </c>
       <c r="D16">
-        <v>0.9308944903460842</v>
+        <v>0.9308944903460845</v>
       </c>
       <c r="E16">
-        <v>0.9327773727348397</v>
+        <v>0.9327773727348402</v>
       </c>
       <c r="F16">
-        <v>0.9291262671998104</v>
+        <v>0.9291262671998108</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.028821263396636</v>
       </c>
       <c r="J16">
-        <v>0.9451288164158461</v>
+        <v>0.9451288164158463</v>
       </c>
       <c r="K16">
-        <v>0.9465938504000321</v>
+        <v>0.9465938504000324</v>
       </c>
       <c r="L16">
-        <v>0.9484359297419385</v>
+        <v>0.948435929741939</v>
       </c>
       <c r="M16">
-        <v>0.9448641456363465</v>
+        <v>0.9448641456363469</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9182103115592616</v>
+        <v>0.9182103115592621</v>
       </c>
       <c r="D17">
-        <v>0.9353748609568783</v>
+        <v>0.9353748609568789</v>
       </c>
       <c r="E17">
-        <v>0.9370060744557639</v>
+        <v>0.9370060744557646</v>
       </c>
       <c r="F17">
-        <v>0.9342476657085677</v>
+        <v>0.9342476657085679</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.030125044440692</v>
       </c>
       <c r="J17">
-        <v>0.9492198107513352</v>
+        <v>0.9492198107513355</v>
       </c>
       <c r="K17">
-        <v>0.9506195459765351</v>
+        <v>0.9506195459765356</v>
       </c>
       <c r="L17">
-        <v>0.9522167714636603</v>
+        <v>0.9522167714636609</v>
       </c>
       <c r="M17">
-        <v>0.9495159287004901</v>
+        <v>0.9495159287004903</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1032,13 +1032,13 @@
         <v>0.9211409125755741</v>
       </c>
       <c r="D18">
-        <v>0.9379331751490886</v>
+        <v>0.9379331751490889</v>
       </c>
       <c r="E18">
-        <v>0.9394213281300191</v>
+        <v>0.9394213281300192</v>
       </c>
       <c r="F18">
-        <v>0.9371699550197768</v>
+        <v>0.9371699550197767</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.030865941499534</v>
       </c>
       <c r="J18">
-        <v>0.9515539142799645</v>
+        <v>0.9515539142799646</v>
       </c>
       <c r="K18">
-        <v>0.9529167703090523</v>
+        <v>0.9529167703090524</v>
       </c>
       <c r="L18">
-        <v>0.95437461993105</v>
+        <v>0.9543746199310501</v>
       </c>
       <c r="M18">
-        <v>0.9521691409179215</v>
+        <v>0.9521691409179213</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,13 +1067,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9221296027112519</v>
+        <v>0.9221296027112522</v>
       </c>
       <c r="D19">
-        <v>0.9387965500756907</v>
+        <v>0.9387965500756914</v>
       </c>
       <c r="E19">
-        <v>0.9402365297051567</v>
+        <v>0.9402365297051569</v>
       </c>
       <c r="F19">
         <v>0.9381558185103654</v>
@@ -1085,13 +1085,13 @@
         <v>1.031115361896596</v>
       </c>
       <c r="J19">
-        <v>0.9523413081269914</v>
+        <v>0.9523413081269919</v>
       </c>
       <c r="K19">
-        <v>0.9536917860856341</v>
+        <v>0.9536917860856347</v>
       </c>
       <c r="L19">
-        <v>0.955102672327338</v>
+        <v>0.9551026723273385</v>
       </c>
       <c r="M19">
         <v>0.9530640377049917</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9176661250886785</v>
+        <v>0.9176661250886776</v>
       </c>
       <c r="D20">
-        <v>0.934899943586541</v>
+        <v>0.9348999435865402</v>
       </c>
       <c r="E20">
-        <v>0.9365577660821404</v>
+        <v>0.9365577660821396</v>
       </c>
       <c r="F20">
-        <v>0.9337050148217009</v>
+        <v>0.9337050148217</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.029987213696397</v>
       </c>
       <c r="J20">
-        <v>0.9487863633770068</v>
+        <v>0.9487863633770056</v>
       </c>
       <c r="K20">
-        <v>0.9501929775491196</v>
+        <v>0.9501929775491186</v>
       </c>
       <c r="L20">
-        <v>0.9518161115848613</v>
+        <v>0.9518161115848605</v>
       </c>
       <c r="M20">
-        <v>0.9490231526742274</v>
+        <v>0.9490231526742265</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9023518334236464</v>
+        <v>0.9023518334236452</v>
       </c>
       <c r="D21">
-        <v>0.9215533572508494</v>
+        <v>0.9215533572508487</v>
       </c>
       <c r="E21">
-        <v>0.923965493268891</v>
+        <v>0.9239654932688904</v>
       </c>
       <c r="F21">
-        <v>0.9184345907242177</v>
+        <v>0.9184345907242168</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.026080048406717</v>
       </c>
       <c r="J21">
-        <v>0.9365866713398806</v>
+        <v>0.9365866713398797</v>
       </c>
       <c r="K21">
-        <v>0.9381906694890777</v>
+        <v>0.938190669489077</v>
       </c>
       <c r="L21">
-        <v>0.9405462740300002</v>
+        <v>0.9405462740299996</v>
       </c>
       <c r="M21">
-        <v>0.9351455855866769</v>
+        <v>0.9351455855866762</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8920100682773111</v>
+        <v>0.8920100682773096</v>
       </c>
       <c r="D22">
-        <v>0.9125612915139255</v>
+        <v>0.9125612915139238</v>
       </c>
       <c r="E22">
-        <v>0.9154886151702794</v>
+        <v>0.9154886151702781</v>
       </c>
       <c r="F22">
-        <v>0.9081255812655095</v>
+        <v>0.9081255812655084</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.02341626602295</v>
       </c>
       <c r="J22">
-        <v>0.928348360480295</v>
+        <v>0.9283483604802937</v>
       </c>
       <c r="K22">
-        <v>0.9300895874995785</v>
+        <v>0.9300895874995768</v>
       </c>
       <c r="L22">
-        <v>0.9329432301967949</v>
+        <v>0.9329432301967938</v>
       </c>
       <c r="M22">
-        <v>0.9257667489777116</v>
+        <v>0.9257667489777105</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8975671971032966</v>
+        <v>0.8975671971032964</v>
       </c>
       <c r="D23">
-        <v>0.9173910004019386</v>
+        <v>0.9173910004019384</v>
       </c>
       <c r="E23">
-        <v>0.9200409221742487</v>
+        <v>0.9200409221742488</v>
       </c>
       <c r="F23">
-        <v>0.9136646143443928</v>
+        <v>0.9136646143443924</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024849758898792</v>
+        <v>1.024849758898791</v>
       </c>
       <c r="J23">
         <v>0.9327750295934611</v>
       </c>
       <c r="K23">
-        <v>0.9344421379054717</v>
+        <v>0.9344421379054718</v>
       </c>
       <c r="L23">
         <v>0.9370278398383627</v>
       </c>
       <c r="M23">
-        <v>0.9308069080865538</v>
+        <v>0.9308069080865535</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9179122193042023</v>
+        <v>0.9179122193042013</v>
       </c>
       <c r="D24">
-        <v>0.9351147072376099</v>
+        <v>0.935114707237609</v>
       </c>
       <c r="E24">
-        <v>0.9367604948084953</v>
+        <v>0.9367604948084942</v>
       </c>
       <c r="F24">
-        <v>0.9339504148245089</v>
+        <v>0.9339504148245075</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030049553660173</v>
+        <v>1.030049553660172</v>
       </c>
       <c r="J24">
-        <v>0.9489823796073411</v>
+        <v>0.94898237960734</v>
       </c>
       <c r="K24">
-        <v>0.9503858817675849</v>
+        <v>0.9503858817675838</v>
       </c>
       <c r="L24">
-        <v>0.9519972982704942</v>
+        <v>0.9519972982704932</v>
       </c>
       <c r="M24">
-        <v>0.9492460015214261</v>
+        <v>0.949246001521425</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9389996393423906</v>
+        <v>0.9389996393423931</v>
       </c>
       <c r="D25">
-        <v>0.9535495702437677</v>
+        <v>0.9535495702437702</v>
       </c>
       <c r="E25">
-        <v>0.9541748593639618</v>
+        <v>0.9541748593639643</v>
       </c>
       <c r="F25">
-        <v>0.954973409295266</v>
+        <v>0.9549734092952686</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035323351997565</v>
+        <v>1.035323351997566</v>
       </c>
       <c r="J25">
-        <v>0.9657699920251311</v>
+        <v>0.9657699920251336</v>
       </c>
       <c r="K25">
-        <v>0.9669144755299965</v>
+        <v>0.966914475529999</v>
       </c>
       <c r="L25">
-        <v>0.9675288032440815</v>
+        <v>0.967528803244084</v>
       </c>
       <c r="M25">
-        <v>0.9683133815165885</v>
+        <v>0.9683133815165912</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9542593970641778</v>
+        <v>0.9542913498746984</v>
       </c>
       <c r="D2">
-        <v>0.9669271486154298</v>
+        <v>0.9669565849115969</v>
       </c>
       <c r="E2">
-        <v>0.9668281240742855</v>
+        <v>0.9668561539403385</v>
       </c>
       <c r="F2">
-        <v>0.9701719179994603</v>
+        <v>0.9701982723027731</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039033286481309</v>
+        <v>1.039039762847854</v>
       </c>
       <c r="J2">
-        <v>0.9778999161991137</v>
+        <v>0.9779307810287409</v>
       </c>
       <c r="K2">
-        <v>0.9788673144309031</v>
+        <v>0.9788963041339429</v>
       </c>
       <c r="L2">
-        <v>0.9787697924961817</v>
+        <v>0.9787973969949721</v>
       </c>
       <c r="M2">
-        <v>0.9820630634733762</v>
+        <v>0.9820890213381789</v>
+      </c>
+      <c r="N2">
+        <v>0.9873772733554323</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9646061390548235</v>
+        <v>0.9646309299443109</v>
       </c>
       <c r="D3">
-        <v>0.9760141816014205</v>
+        <v>0.976037085967409</v>
       </c>
       <c r="E3">
-        <v>0.9754314912278031</v>
+        <v>0.9754533292112201</v>
       </c>
       <c r="F3">
-        <v>0.9804642389569432</v>
+        <v>0.9804846423589579</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041481740275324</v>
+        <v>1.041486758511075</v>
       </c>
       <c r="J3">
-        <v>0.9861104923655959</v>
+        <v>0.9861345373752748</v>
       </c>
       <c r="K3">
-        <v>0.9869634522184425</v>
+        <v>0.9869860451274458</v>
       </c>
       <c r="L3">
-        <v>0.9863886915471756</v>
+        <v>0.986410232127312</v>
       </c>
       <c r="M3">
-        <v>0.9913533404689012</v>
+        <v>0.9913734695779943</v>
+      </c>
+      <c r="N3">
+        <v>0.9929489203891055</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9710062024018565</v>
+        <v>0.9710267012246264</v>
       </c>
       <c r="D4">
-        <v>0.9816413442154234</v>
+        <v>0.9816603232256061</v>
       </c>
       <c r="E4">
-        <v>0.9807627347119071</v>
+        <v>0.9807808508527014</v>
       </c>
       <c r="F4">
-        <v>0.986823494338993</v>
+        <v>0.9868403452570191</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042963657375241</v>
+        <v>1.042967804242814</v>
       </c>
       <c r="J4">
-        <v>0.9911818198502031</v>
+        <v>0.991201750698485</v>
       </c>
       <c r="K4">
-        <v>0.991966511231169</v>
+        <v>0.9919852503735267</v>
       </c>
       <c r="L4">
-        <v>0.9910990187942152</v>
+        <v>0.991116905460009</v>
       </c>
       <c r="M4">
-        <v>0.9970835933937029</v>
+        <v>0.9971002341178798</v>
+      </c>
+      <c r="N4">
+        <v>0.9963894431447702</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9736317977202896</v>
+        <v>0.973650564089502</v>
       </c>
       <c r="D5">
-        <v>0.9839512051374587</v>
+        <v>0.9839685974690083</v>
       </c>
       <c r="E5">
-        <v>0.9829519548708501</v>
+        <v>0.9829685664503194</v>
       </c>
       <c r="F5">
-        <v>0.9894304758960182</v>
+        <v>0.9894458957997577</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04356355582849</v>
+        <v>1.043567351453266</v>
       </c>
       <c r="J5">
-        <v>0.9932604116346129</v>
+        <v>0.9932786760534482</v>
       </c>
       <c r="K5">
-        <v>0.9940176905942131</v>
+        <v>0.9940348699070213</v>
       </c>
       <c r="L5">
-        <v>0.9930306947446274</v>
+        <v>0.9930471023528192</v>
       </c>
       <c r="M5">
-        <v>0.9994303120817937</v>
+        <v>0.9994455457128367</v>
+      </c>
+      <c r="N5">
+        <v>0.9977993939280714</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9740689855980192</v>
+        <v>0.9740874650410858</v>
       </c>
       <c r="D6">
-        <v>0.9843358946813612</v>
+        <v>0.984353024106899</v>
       </c>
       <c r="E6">
-        <v>0.9833166005694327</v>
+        <v>0.9833329628422877</v>
       </c>
       <c r="F6">
-        <v>0.9898644498595123</v>
+        <v>0.989879632921701</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043662964613046</v>
+        <v>1.043666702090401</v>
       </c>
       <c r="J6">
-        <v>0.9936064030230768</v>
+        <v>0.9936243911288919</v>
       </c>
       <c r="K6">
-        <v>0.994359152266495</v>
+        <v>0.9943760730049881</v>
       </c>
       <c r="L6">
-        <v>0.9933522924415669</v>
+        <v>0.9933684548592854</v>
       </c>
       <c r="M6">
-        <v>0.9998208187148413</v>
+        <v>0.9998358193572862</v>
+      </c>
+      <c r="N6">
+        <v>0.9980340734087033</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9710415342165822</v>
+        <v>0.9710620096194609</v>
       </c>
       <c r="D7">
-        <v>0.9816724221624279</v>
+        <v>0.9816913797318823</v>
       </c>
       <c r="E7">
-        <v>0.9807921862500457</v>
+        <v>0.9808102820602707</v>
       </c>
       <c r="F7">
-        <v>0.9868585833063969</v>
+        <v>0.9868754148683622</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042971762277422</v>
+        <v>1.042975904395023</v>
       </c>
       <c r="J7">
-        <v>0.9912097984897276</v>
+        <v>0.9912297068328672</v>
       </c>
       <c r="K7">
-        <v>0.9919941186425995</v>
+        <v>0.9920128367150985</v>
       </c>
       <c r="L7">
-        <v>0.991125015754142</v>
+        <v>0.9911428824415462</v>
       </c>
       <c r="M7">
-        <v>0.9971151889086588</v>
+        <v>0.9971318106076572</v>
+      </c>
+      <c r="N7">
+        <v>0.9964084225195077</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9578208353371738</v>
+        <v>0.9578502902753386</v>
       </c>
       <c r="D8">
-        <v>0.9700535290913149</v>
+        <v>0.9700806898429931</v>
       </c>
       <c r="E8">
-        <v>0.9697873130805881</v>
+        <v>0.9698131860860829</v>
       </c>
       <c r="F8">
-        <v>0.9737160440151013</v>
+        <v>0.9737403195285927</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03988286700754</v>
+        <v>1.039888834203999</v>
       </c>
       <c r="J8">
-        <v>0.980727563667485</v>
+        <v>0.9807560563360568</v>
       </c>
       <c r="K8">
-        <v>0.9816550276003062</v>
+        <v>0.9816817910769118</v>
       </c>
       <c r="L8">
-        <v>0.9813927069747639</v>
+        <v>0.9814182012764374</v>
       </c>
       <c r="M8">
-        <v>0.9852642251719298</v>
+        <v>0.9852881489888473</v>
+      </c>
+      <c r="N8">
+        <v>0.9892962676393106</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9319643959711377</v>
+        <v>0.9320128679942947</v>
       </c>
       <c r="D9">
-        <v>0.9473923843267743</v>
+        <v>0.9474367974630027</v>
       </c>
       <c r="E9">
-        <v>0.9483557148397268</v>
+        <v>0.9483979332147673</v>
       </c>
       <c r="F9">
-        <v>0.9479613082969204</v>
+        <v>0.9480014982506404</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033580295345579</v>
+        <v>1.033590156689019</v>
       </c>
       <c r="J9">
-        <v>0.9601716733991533</v>
+        <v>0.9602180566485419</v>
       </c>
       <c r="K9">
-        <v>0.9614008327479795</v>
+        <v>0.9614444171455974</v>
       </c>
       <c r="L9">
-        <v>0.9623462104644417</v>
+        <v>0.9623876431387212</v>
       </c>
       <c r="M9">
-        <v>0.9619591483954978</v>
+        <v>0.9619985895838347</v>
+      </c>
+      <c r="N9">
+        <v>0.9753430062695816</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9124848681496865</v>
+        <v>0.9125492544400899</v>
       </c>
       <c r="D10">
-        <v>0.9303804119373638</v>
+        <v>0.9304391330862825</v>
       </c>
       <c r="E10">
-        <v>0.9322922619817462</v>
+        <v>0.9323480212900065</v>
       </c>
       <c r="F10">
-        <v>0.9285383504957879</v>
+        <v>0.9285920092473672</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028671183321617</v>
+        <v>1.028684334913651</v>
       </c>
       <c r="J10">
-        <v>0.9446591536515631</v>
+        <v>0.9447202186703293</v>
       </c>
       <c r="K10">
-        <v>0.9461317371228682</v>
+        <v>0.9461891767193786</v>
       </c>
       <c r="L10">
-        <v>0.9480019723423865</v>
+        <v>0.948056521350399</v>
       </c>
       <c r="M10">
-        <v>0.944329986920049</v>
+        <v>0.9443824684099499</v>
+      </c>
+      <c r="N10">
+        <v>0.9648106084900505</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9033613739604713</v>
+        <v>0.9034337900366393</v>
       </c>
       <c r="D11">
-        <v>0.9224320662329584</v>
+        <v>0.9224979619047861</v>
       </c>
       <c r="E11">
-        <v>0.9247941566985949</v>
+        <v>0.9248567000879165</v>
       </c>
       <c r="F11">
-        <v>0.919441124817554</v>
+        <v>0.9195016285225194</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026339119814904</v>
+        <v>1.026353941809288</v>
       </c>
       <c r="J11">
-        <v>0.9373909325558966</v>
+        <v>0.9374593107337205</v>
       </c>
       <c r="K11">
-        <v>0.9389816998800092</v>
+        <v>0.9390460571393765</v>
       </c>
       <c r="L11">
-        <v>0.9412888276800655</v>
+        <v>0.9413499208718125</v>
       </c>
       <c r="M11">
-        <v>0.9360608966199016</v>
+        <v>0.9361199754424161</v>
+      </c>
+      <c r="N11">
+        <v>0.9598756687792687</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8998514032280435</v>
+        <v>0.8999270194039363</v>
       </c>
       <c r="D12">
-        <v>0.9193776690066272</v>
+        <v>0.9194464156515991</v>
       </c>
       <c r="E12">
-        <v>0.9219139479713061</v>
+        <v>0.9219791860539851</v>
       </c>
       <c r="F12">
-        <v>0.915941730331248</v>
+        <v>0.9160049706580092</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025437592022672</v>
+        <v>1.025453081502906</v>
       </c>
       <c r="J12">
-        <v>0.9345946996095986</v>
+        <v>0.9346659753117995</v>
       </c>
       <c r="K12">
-        <v>0.9362315962399043</v>
+        <v>0.9362986971862727</v>
       </c>
       <c r="L12">
-        <v>0.9387073781740849</v>
+        <v>0.9387710660429497</v>
       </c>
       <c r="M12">
-        <v>0.9328783321217118</v>
+        <v>0.9329400432485879</v>
+      </c>
+      <c r="N12">
+        <v>0.9579771379561882</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9006101170242971</v>
+        <v>0.9006850359949603</v>
       </c>
       <c r="D13">
-        <v>0.9200377396784919</v>
+        <v>0.9201058655818473</v>
       </c>
       <c r="E13">
-        <v>0.9225363210094811</v>
+        <v>0.9226009724326297</v>
       </c>
       <c r="F13">
-        <v>0.9166981273884975</v>
+        <v>0.9167607710740817</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025632650562684</v>
+        <v>1.02564799453421</v>
       </c>
       <c r="J13">
-        <v>0.9351991257141334</v>
+        <v>0.9352697709432828</v>
       </c>
       <c r="K13">
-        <v>0.9368260206235781</v>
+        <v>0.9368925244345645</v>
       </c>
       <c r="L13">
-        <v>0.9392653202760199</v>
+        <v>0.9393284434829973</v>
       </c>
       <c r="M13">
-        <v>0.9335663222490963</v>
+        <v>0.9336274597313354</v>
+      </c>
+      <c r="N13">
+        <v>0.9583875163134444</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.903073827331294</v>
+        <v>0.9031465031632049</v>
       </c>
       <c r="D14">
-        <v>0.922181767815959</v>
+        <v>0.9222478950796263</v>
       </c>
       <c r="E14">
-        <v>0.9245581082015923</v>
+        <v>0.924620870511935</v>
       </c>
       <c r="F14">
-        <v>0.9191544318169664</v>
+        <v>0.9192151574746534</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02626534787907</v>
+        <v>1.026280224017144</v>
       </c>
       <c r="J14">
-        <v>0.9371618551330786</v>
+        <v>0.9372304688621909</v>
       </c>
       <c r="K14">
-        <v>0.9387563879269064</v>
+        <v>0.9388209681716934</v>
       </c>
       <c r="L14">
-        <v>0.9410773206872581</v>
+        <v>0.941138624772895</v>
       </c>
       <c r="M14">
-        <v>0.9358001946352033</v>
+        <v>0.9358594870610101</v>
+      </c>
+      <c r="N14">
+        <v>0.959720133131528</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9045751494649723</v>
+        <v>0.904646473715994</v>
       </c>
       <c r="D15">
-        <v>0.923488755461905</v>
+        <v>0.9235536773499992</v>
       </c>
       <c r="E15">
-        <v>0.9257907347143577</v>
+        <v>0.9258523575508772</v>
       </c>
       <c r="F15">
-        <v>0.9206513193094576</v>
+        <v>0.9207108904406417</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026650350285819</v>
+        <v>1.026664944771621</v>
       </c>
       <c r="J15">
-        <v>0.9383579029570109</v>
+        <v>0.9384252903550303</v>
       </c>
       <c r="K15">
-        <v>0.9399328026330419</v>
+        <v>0.9399962220841027</v>
       </c>
       <c r="L15">
-        <v>0.9421816809662741</v>
+        <v>0.9422418871666539</v>
       </c>
       <c r="M15">
-        <v>0.9371613081758627</v>
+        <v>0.9372194892896998</v>
+      </c>
+      <c r="N15">
+        <v>0.9605322102683624</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9130744478867346</v>
+        <v>0.9131383288595497</v>
       </c>
       <c r="D16">
-        <v>0.9308944903460845</v>
+        <v>0.9309527589994581</v>
       </c>
       <c r="E16">
-        <v>0.9327773727348402</v>
+        <v>0.9328327040386436</v>
       </c>
       <c r="F16">
-        <v>0.9291262671998108</v>
+        <v>0.929179496266167</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028821263396636</v>
+        <v>1.028834310091179</v>
       </c>
       <c r="J16">
-        <v>0.9451288164158463</v>
+        <v>0.9451894191379292</v>
       </c>
       <c r="K16">
-        <v>0.9465938504000324</v>
+        <v>0.9466508530550729</v>
       </c>
       <c r="L16">
-        <v>0.948435929741939</v>
+        <v>0.948490065293367</v>
       </c>
       <c r="M16">
-        <v>0.9448641456363469</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.94491621233517</v>
+      </c>
+      <c r="N16">
+        <v>0.9651295000438185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9182103115592621</v>
+        <v>0.9182698564533616</v>
       </c>
       <c r="D17">
-        <v>0.9353748609568789</v>
+        <v>0.9354292418985297</v>
       </c>
       <c r="E17">
-        <v>0.9370060744557646</v>
+        <v>0.9370577278276496</v>
       </c>
       <c r="F17">
-        <v>0.9342476657085679</v>
+        <v>0.9342972130276108</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030125044440692</v>
+        <v>1.030137192136789</v>
       </c>
       <c r="J17">
-        <v>0.9492198107513355</v>
+        <v>0.9492764362416876</v>
       </c>
       <c r="K17">
-        <v>0.9506195459765356</v>
+        <v>0.9506727913105549</v>
       </c>
       <c r="L17">
-        <v>0.9522167714636609</v>
+        <v>0.9522673511379306</v>
       </c>
       <c r="M17">
-        <v>0.9495159287004903</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9495644380386595</v>
+      </c>
+      <c r="N17">
+        <v>0.9679071969188132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9211409125755741</v>
+        <v>0.9211980343624155</v>
       </c>
       <c r="D18">
-        <v>0.9379331751490889</v>
+        <v>0.9379853797158558</v>
       </c>
       <c r="E18">
-        <v>0.9394213281300192</v>
+        <v>0.9394709220701503</v>
       </c>
       <c r="F18">
-        <v>0.9371699550197767</v>
+        <v>0.9372174491061769</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030865941499534</v>
+        <v>1.030877587699012</v>
       </c>
       <c r="J18">
-        <v>0.9515539142799646</v>
+        <v>0.9516083090642444</v>
       </c>
       <c r="K18">
-        <v>0.9529167703090524</v>
+        <v>0.9529679096852051</v>
       </c>
       <c r="L18">
-        <v>0.9543746199310501</v>
+        <v>0.9544232061646504</v>
       </c>
       <c r="M18">
-        <v>0.9521691409179213</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.952215663838175</v>
+      </c>
+      <c r="N18">
+        <v>0.9694919895426597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9221296027112522</v>
+        <v>0.9221859151096392</v>
       </c>
       <c r="D19">
-        <v>0.9387965500756914</v>
+        <v>0.9388480270575621</v>
       </c>
       <c r="E19">
-        <v>0.9402365297051569</v>
+        <v>0.9402854350780887</v>
       </c>
       <c r="F19">
-        <v>0.9381558185103654</v>
+        <v>0.9382026274397095</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031115361896596</v>
+        <v>1.031126840725388</v>
       </c>
       <c r="J19">
-        <v>0.9523413081269919</v>
+        <v>0.952394956477302</v>
       </c>
       <c r="K19">
-        <v>0.9536917860856347</v>
+        <v>0.9537422209991109</v>
       </c>
       <c r="L19">
-        <v>0.9551026723273385</v>
+        <v>0.9551505916746329</v>
       </c>
       <c r="M19">
-        <v>0.9530640377049917</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9531098973509612</v>
+      </c>
+      <c r="N19">
+        <v>0.9700266048020049</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9176661250886776</v>
+        <v>0.917726123948628</v>
       </c>
       <c r="D20">
-        <v>0.9348999435865402</v>
+        <v>0.9349547319636458</v>
       </c>
       <c r="E20">
-        <v>0.9365577660821396</v>
+        <v>0.9366098049577343</v>
       </c>
       <c r="F20">
-        <v>0.9337050148217</v>
+        <v>0.9337549471497195</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029987213696397</v>
+        <v>1.029999455418454</v>
       </c>
       <c r="J20">
-        <v>0.9487863633770056</v>
+        <v>0.9488434061350077</v>
       </c>
       <c r="K20">
-        <v>0.9501929775491186</v>
+        <v>0.9502466169287639</v>
       </c>
       <c r="L20">
-        <v>0.9518161115848605</v>
+        <v>0.9518670642207233</v>
       </c>
       <c r="M20">
-        <v>0.9490231526742265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9490720342875546</v>
+      </c>
+      <c r="N20">
+        <v>0.9676128965427437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9023518334236452</v>
+        <v>0.9024251633430195</v>
       </c>
       <c r="D21">
-        <v>0.9215533572508487</v>
+        <v>0.9216200675455941</v>
       </c>
       <c r="E21">
-        <v>0.9239654932688904</v>
+        <v>0.92402880669271</v>
       </c>
       <c r="F21">
-        <v>0.9184345907242168</v>
+        <v>0.9184958754212039</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026080048406717</v>
+        <v>1.026095060912388</v>
       </c>
       <c r="J21">
-        <v>0.9365866713398797</v>
+        <v>0.9366558779279166</v>
       </c>
       <c r="K21">
-        <v>0.938190669489077</v>
+        <v>0.9382558110127887</v>
       </c>
       <c r="L21">
-        <v>0.9405462740299996</v>
+        <v>0.9406081089441315</v>
       </c>
       <c r="M21">
-        <v>0.9351455855866762</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9352054159343969</v>
+      </c>
+      <c r="N21">
+        <v>0.9593296041017062</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8920100682773096</v>
+        <v>0.8920930753217864</v>
       </c>
       <c r="D22">
-        <v>0.9125612915139238</v>
+        <v>0.912636604880895</v>
       </c>
       <c r="E22">
-        <v>0.9154886151702781</v>
+        <v>0.9155600575222664</v>
       </c>
       <c r="F22">
-        <v>0.9081255812655084</v>
+        <v>0.9081951602607383</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02341626602295</v>
+        <v>1.02343330076012</v>
       </c>
       <c r="J22">
-        <v>0.9283483604802937</v>
+        <v>0.9284262923933911</v>
       </c>
       <c r="K22">
-        <v>0.9300895874995768</v>
+        <v>0.9301629972229518</v>
       </c>
       <c r="L22">
-        <v>0.9329432301967938</v>
+        <v>0.9330128822851315</v>
       </c>
       <c r="M22">
-        <v>0.9257667489777105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9258345459432948</v>
+      </c>
+      <c r="N22">
+        <v>0.953736274887</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8975671971032964</v>
+        <v>0.8976449309632851</v>
       </c>
       <c r="D23">
-        <v>0.9173910004019384</v>
+        <v>0.9174616311217222</v>
       </c>
       <c r="E23">
-        <v>0.9200409221742488</v>
+        <v>0.9201079406962223</v>
       </c>
       <c r="F23">
-        <v>0.9136646143443924</v>
+        <v>0.91372966830039</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024849758898791</v>
+        <v>1.024865690626341</v>
       </c>
       <c r="J23">
-        <v>0.9327750295934611</v>
+        <v>0.9328482175457566</v>
       </c>
       <c r="K23">
-        <v>0.9344421379054718</v>
+        <v>0.934511050445464</v>
       </c>
       <c r="L23">
-        <v>0.9370278398383627</v>
+        <v>0.9370932406354848</v>
       </c>
       <c r="M23">
-        <v>0.9308069080865535</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9308703620826638</v>
+      </c>
+      <c r="N23">
+        <v>0.9567416743858113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9179122193042013</v>
+        <v>0.9179720127120939</v>
       </c>
       <c r="D24">
-        <v>0.935114707237609</v>
+        <v>0.935169311232926</v>
       </c>
       <c r="E24">
-        <v>0.9367604948084942</v>
+        <v>0.9368123592288772</v>
       </c>
       <c r="F24">
-        <v>0.9339504148245075</v>
+        <v>0.9340001728952151</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030049553660172</v>
+        <v>1.03006175282598</v>
       </c>
       <c r="J24">
-        <v>0.94898237960734</v>
+        <v>0.9490392335472426</v>
       </c>
       <c r="K24">
-        <v>0.9503858817675838</v>
+        <v>0.9504393428329544</v>
       </c>
       <c r="L24">
-        <v>0.9519972982704932</v>
+        <v>0.9520480821342834</v>
       </c>
       <c r="M24">
-        <v>0.949246001521425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9492947146488235</v>
+      </c>
+      <c r="N24">
+        <v>0.9677459869094545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9389996393423931</v>
+        <v>0.9390427225217342</v>
       </c>
       <c r="D25">
-        <v>0.9535495702437702</v>
+        <v>0.9535891115832286</v>
       </c>
       <c r="E25">
-        <v>0.9541748593639643</v>
+        <v>0.9542124638720398</v>
       </c>
       <c r="F25">
-        <v>0.9549734092952686</v>
+        <v>0.9550090691820265</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035323351997566</v>
+        <v>1.035332105672876</v>
       </c>
       <c r="J25">
-        <v>0.9657699920251336</v>
+        <v>0.9658113448565931</v>
       </c>
       <c r="K25">
-        <v>0.966914475529999</v>
+        <v>0.9669533231524999</v>
       </c>
       <c r="L25">
-        <v>0.967528803244084</v>
+        <v>0.9675657491331507</v>
       </c>
       <c r="M25">
-        <v>0.9683133815165912</v>
+        <v>0.9683484181936242</v>
+      </c>
+      <c r="N25">
+        <v>0.9791436826333003</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9542913498746984</v>
+        <v>0.9695233342813475</v>
       </c>
       <c r="D2">
-        <v>0.9669565849115969</v>
+        <v>0.9782313069519828</v>
       </c>
       <c r="E2">
-        <v>0.9668561539403385</v>
+        <v>0.987048585343496</v>
       </c>
       <c r="F2">
-        <v>0.9701982723027731</v>
+        <v>0.9939624632540802</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039039762847854</v>
+        <v>1.040278652864915</v>
       </c>
       <c r="J2">
-        <v>0.9779307810287409</v>
+        <v>0.9926554429770692</v>
       </c>
       <c r="K2">
-        <v>0.9788963041339429</v>
+        <v>0.99000248240181</v>
       </c>
       <c r="L2">
-        <v>0.9787973969949721</v>
+        <v>0.9986913522948908</v>
       </c>
       <c r="M2">
-        <v>0.9820890213381789</v>
+        <v>1.00550655636379</v>
       </c>
       <c r="N2">
-        <v>0.9873772733554323</v>
+        <v>0.9940651275652675</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9646309299443109</v>
+        <v>0.9817839650717294</v>
       </c>
       <c r="D3">
-        <v>0.976037085967409</v>
+        <v>0.9897308908583947</v>
       </c>
       <c r="E3">
-        <v>0.9754533292112201</v>
+        <v>0.9976403843674496</v>
       </c>
       <c r="F3">
-        <v>0.9804846423589579</v>
+        <v>1.004853986917221</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041486758511075</v>
+        <v>1.042020657666349</v>
       </c>
       <c r="J3">
-        <v>0.9861345373752748</v>
+        <v>1.002783843594276</v>
       </c>
       <c r="K3">
-        <v>0.9869860451274458</v>
+        <v>1.00049687528458</v>
       </c>
       <c r="L3">
-        <v>0.986410232127312</v>
+        <v>1.008303546215153</v>
       </c>
       <c r="M3">
-        <v>0.9913734695779943</v>
+        <v>1.015425134545314</v>
       </c>
       <c r="N3">
-        <v>0.9929489203891055</v>
+        <v>1.004207911673094</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9710267012246264</v>
+        <v>0.9893468012219443</v>
       </c>
       <c r="D4">
-        <v>0.9816603232256061</v>
+        <v>0.9968318203682665</v>
       </c>
       <c r="E4">
-        <v>0.9807808508527014</v>
+        <v>1.004181904889299</v>
       </c>
       <c r="F4">
-        <v>0.9868403452570191</v>
+        <v>1.011580994534719</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042967804242814</v>
+        <v>1.043077116684305</v>
       </c>
       <c r="J4">
-        <v>0.991201750698485</v>
+        <v>1.009026999235822</v>
       </c>
       <c r="K4">
-        <v>0.9919852503735267</v>
+        <v>1.006968633524546</v>
       </c>
       <c r="L4">
-        <v>0.991116905460009</v>
+        <v>1.014230118678799</v>
       </c>
       <c r="M4">
-        <v>0.9971002341178798</v>
+        <v>1.021541627999003</v>
       </c>
       <c r="N4">
-        <v>0.9963894431447702</v>
+        <v>1.010459933311751</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.973650564089502</v>
+        <v>0.9924454693704948</v>
       </c>
       <c r="D5">
-        <v>0.9839685974690083</v>
+        <v>0.9997428597645358</v>
       </c>
       <c r="E5">
-        <v>0.9829685664503194</v>
+        <v>1.006863795804058</v>
       </c>
       <c r="F5">
-        <v>0.9894458957997577</v>
+        <v>1.014338970133764</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043567351453266</v>
+        <v>1.043505461650609</v>
       </c>
       <c r="J5">
-        <v>0.9932786760534482</v>
+        <v>1.011583735151497</v>
       </c>
       <c r="K5">
-        <v>0.9940348699070213</v>
+        <v>1.009619711093245</v>
       </c>
       <c r="L5">
-        <v>0.9930471023528192</v>
+        <v>1.016657540724682</v>
       </c>
       <c r="M5">
-        <v>0.9994455457128367</v>
+        <v>1.024047022860326</v>
       </c>
       <c r="N5">
-        <v>0.9977993939280714</v>
+        <v>1.013020300085689</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9740874650410858</v>
+        <v>0.992961224748735</v>
       </c>
       <c r="D6">
-        <v>0.984353024106899</v>
+        <v>1.000227476190783</v>
       </c>
       <c r="E6">
-        <v>0.9833329628422877</v>
+        <v>1.007310272927967</v>
       </c>
       <c r="F6">
-        <v>0.989879632921701</v>
+        <v>1.014798114610863</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043666702090401</v>
+        <v>1.043576486940076</v>
       </c>
       <c r="J6">
-        <v>0.9936243911288919</v>
+        <v>1.012009212347296</v>
       </c>
       <c r="K6">
-        <v>0.9943760730049881</v>
+        <v>1.010060930694769</v>
       </c>
       <c r="L6">
-        <v>0.9933684548592854</v>
+        <v>1.0170615166501</v>
       </c>
       <c r="M6">
-        <v>0.9998358193572862</v>
+        <v>1.024463984428859</v>
       </c>
       <c r="N6">
-        <v>0.9980340734087033</v>
+        <v>1.013446381507908</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9710620096194609</v>
+        <v>0.989388513383042</v>
       </c>
       <c r="D7">
-        <v>0.9816913797318823</v>
+        <v>0.9968710005702258</v>
       </c>
       <c r="E7">
-        <v>0.9808102820602707</v>
+        <v>1.004218000329837</v>
       </c>
       <c r="F7">
-        <v>0.9868754148683622</v>
+        <v>1.011618113905538</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042975904395023</v>
+        <v>1.043082900905032</v>
       </c>
       <c r="J7">
-        <v>0.9912297068328672</v>
+        <v>1.0090614213559</v>
       </c>
       <c r="K7">
-        <v>0.9920128367150985</v>
+        <v>1.007004322920885</v>
       </c>
       <c r="L7">
-        <v>0.9911428824415462</v>
+        <v>1.014262798536645</v>
       </c>
       <c r="M7">
-        <v>0.9971318106076572</v>
+        <v>1.021575356928545</v>
       </c>
       <c r="N7">
-        <v>0.9964084225195077</v>
+        <v>1.010494404315188</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9578502902753386</v>
+        <v>0.9737488055970267</v>
       </c>
       <c r="D8">
-        <v>0.9700806898429931</v>
+        <v>0.9821927601235428</v>
       </c>
       <c r="E8">
-        <v>0.9698131860860829</v>
+        <v>0.9906970130096739</v>
       </c>
       <c r="F8">
-        <v>0.9737403195285927</v>
+        <v>0.9977140187863576</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039888834203999</v>
+        <v>1.040882761154872</v>
       </c>
       <c r="J8">
-        <v>0.9807560563360568</v>
+        <v>0.9961469062536965</v>
       </c>
       <c r="K8">
-        <v>0.9816817910769118</v>
+        <v>0.9936194695923262</v>
       </c>
       <c r="L8">
-        <v>0.9814182012764374</v>
+        <v>1.002004491413744</v>
       </c>
       <c r="M8">
-        <v>0.9852881489888473</v>
+        <v>1.008925044438904</v>
       </c>
       <c r="N8">
-        <v>0.9892962676393106</v>
+        <v>0.9975615491202238</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9320128679942947</v>
+        <v>0.9429139764505428</v>
       </c>
       <c r="D9">
-        <v>0.9474367974630027</v>
+        <v>0.9533281840772374</v>
       </c>
       <c r="E9">
-        <v>0.9483979332147673</v>
+        <v>0.9641232729435948</v>
       </c>
       <c r="F9">
-        <v>0.9480014982506404</v>
+        <v>0.970393493892037</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033590156689019</v>
+        <v>1.036401738440483</v>
       </c>
       <c r="J9">
-        <v>0.9602180566485419</v>
+        <v>0.9706571621734899</v>
       </c>
       <c r="K9">
-        <v>0.9614444171455974</v>
+        <v>0.9672267634427517</v>
       </c>
       <c r="L9">
-        <v>0.9623876431387212</v>
+        <v>0.977826541279092</v>
       </c>
       <c r="M9">
-        <v>0.9619985895838347</v>
+        <v>0.9839859027032589</v>
       </c>
       <c r="N9">
-        <v>0.9753430062695816</v>
+        <v>0.9720356066797089</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9125492544400899</v>
+        <v>0.9193699939881453</v>
       </c>
       <c r="D10">
-        <v>0.9304391330862825</v>
+        <v>0.9313605852255671</v>
       </c>
       <c r="E10">
-        <v>0.9323480212900065</v>
+        <v>0.9439197213655575</v>
       </c>
       <c r="F10">
-        <v>0.9285920092473672</v>
+        <v>0.9496318157406178</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028684334913651</v>
+        <v>1.032897070171958</v>
       </c>
       <c r="J10">
-        <v>0.9447202186703293</v>
+        <v>0.9511929319656409</v>
       </c>
       <c r="K10">
-        <v>0.9461891767193786</v>
+        <v>0.9470905468477925</v>
       </c>
       <c r="L10">
-        <v>0.948056521350399</v>
+        <v>0.9593811401875446</v>
       </c>
       <c r="M10">
-        <v>0.9443824684099499</v>
+        <v>0.9649741992069695</v>
       </c>
       <c r="N10">
-        <v>0.9648106084900505</v>
+        <v>0.9525437350323863</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9034337900366393</v>
+        <v>0.9082166378291902</v>
       </c>
       <c r="D11">
-        <v>0.9224979619047861</v>
+        <v>0.9209774932172524</v>
       </c>
       <c r="E11">
-        <v>0.9248567000879165</v>
+        <v>0.9343785190116</v>
       </c>
       <c r="F11">
-        <v>0.9195016285225194</v>
+        <v>0.9398309740186994</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026353941809288</v>
+        <v>1.031221759135376</v>
       </c>
       <c r="J11">
-        <v>0.9374593107337205</v>
+        <v>0.9419775461387114</v>
       </c>
       <c r="K11">
-        <v>0.9390460571393765</v>
+        <v>0.9375611606782075</v>
       </c>
       <c r="L11">
-        <v>0.9413499208718125</v>
+        <v>0.9506539758584569</v>
       </c>
       <c r="M11">
-        <v>0.9361199754424161</v>
+        <v>0.955984377280311</v>
       </c>
       <c r="N11">
-        <v>0.9598756687792687</v>
+        <v>0.9433152623005631</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8999270194039363</v>
+        <v>0.9039000903482819</v>
       </c>
       <c r="D12">
-        <v>0.9194464156515991</v>
+        <v>0.9169633048875839</v>
       </c>
       <c r="E12">
-        <v>0.9219791860539851</v>
+        <v>0.9306913985796783</v>
       </c>
       <c r="F12">
-        <v>0.9160049706580092</v>
+        <v>0.9360442942544258</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025453081502906</v>
+        <v>1.030571646114077</v>
       </c>
       <c r="J12">
-        <v>0.9346659753117995</v>
+        <v>0.9384124792150289</v>
       </c>
       <c r="K12">
-        <v>0.9362986971862727</v>
+        <v>0.9338752388989253</v>
       </c>
       <c r="L12">
-        <v>0.9387710660429497</v>
+        <v>0.9472788660930368</v>
       </c>
       <c r="M12">
-        <v>0.9329400432485879</v>
+        <v>0.952508687122019</v>
       </c>
       <c r="N12">
-        <v>0.9579771379561882</v>
+        <v>0.9397451325729302</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9006850359949603</v>
+        <v>0.9048344450308012</v>
       </c>
       <c r="D13">
-        <v>0.9201058655818473</v>
+        <v>0.9178320062553653</v>
       </c>
       <c r="E13">
-        <v>0.9226009724326297</v>
+        <v>0.9314892415339685</v>
       </c>
       <c r="F13">
-        <v>0.9167607710740817</v>
+        <v>0.9368636421094226</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02564799453421</v>
+        <v>1.030712437189352</v>
       </c>
       <c r="J13">
-        <v>0.9352697709432828</v>
+        <v>0.9391840914893653</v>
       </c>
       <c r="K13">
-        <v>0.9368925244345645</v>
+        <v>0.9346729808751207</v>
       </c>
       <c r="L13">
-        <v>0.9393284434829973</v>
+        <v>0.9480093119889661</v>
       </c>
       <c r="M13">
-        <v>0.9336274597313354</v>
+        <v>0.9532608519916572</v>
       </c>
       <c r="N13">
-        <v>0.9583875163134444</v>
+        <v>0.9405178406252013</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9031465031632049</v>
+        <v>0.9078635794227773</v>
       </c>
       <c r="D14">
-        <v>0.9222478950796263</v>
+        <v>0.9206490748938896</v>
       </c>
       <c r="E14">
-        <v>0.924620870511935</v>
+        <v>0.9340768251300554</v>
       </c>
       <c r="F14">
-        <v>0.9192151574746534</v>
+        <v>0.9395211169695087</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026280224017144</v>
+        <v>1.031168616716826</v>
       </c>
       <c r="J14">
-        <v>0.9372304688621909</v>
+        <v>0.9416859190892959</v>
       </c>
       <c r="K14">
-        <v>0.9388209681716934</v>
+        <v>0.9372596351147627</v>
       </c>
       <c r="L14">
-        <v>0.941138624772895</v>
+        <v>0.9503778643679534</v>
       </c>
       <c r="M14">
-        <v>0.9358594870610101</v>
+        <v>0.9557000160311259</v>
       </c>
       <c r="N14">
-        <v>0.959720133131528</v>
+        <v>0.9430232211072872</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.904646473715994</v>
+        <v>0.9097058662090427</v>
       </c>
       <c r="D15">
-        <v>0.9235536773499992</v>
+        <v>0.9223629637645567</v>
       </c>
       <c r="E15">
-        <v>0.9258523575508772</v>
+        <v>0.9356513157565794</v>
       </c>
       <c r="F15">
-        <v>0.9207108904406417</v>
+        <v>0.9411382423002188</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026664944771621</v>
+        <v>1.031445851531175</v>
       </c>
       <c r="J15">
-        <v>0.9384252903550303</v>
+        <v>0.9432077149618833</v>
       </c>
       <c r="K15">
-        <v>0.9399962220841027</v>
+        <v>0.938833109257015</v>
       </c>
       <c r="L15">
-        <v>0.9422418871666539</v>
+        <v>0.951818740464317</v>
       </c>
       <c r="M15">
-        <v>0.9372194892896998</v>
+        <v>0.9571839847080544</v>
       </c>
       <c r="N15">
-        <v>0.9605322102683624</v>
+        <v>0.9445471781045662</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9131383288595497</v>
+        <v>0.9200876770224697</v>
       </c>
       <c r="D16">
-        <v>0.9309527589994581</v>
+        <v>0.9320292359057589</v>
       </c>
       <c r="E16">
-        <v>0.9328327040386436</v>
+        <v>0.9445343486893457</v>
       </c>
       <c r="F16">
-        <v>0.929179496266167</v>
+        <v>0.9502632627231086</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028834310091179</v>
+        <v>1.033004606308888</v>
       </c>
       <c r="J16">
-        <v>0.9451894191379292</v>
+        <v>0.9517860701489153</v>
       </c>
       <c r="K16">
-        <v>0.9466508530550729</v>
+        <v>0.9477039792298871</v>
       </c>
       <c r="L16">
-        <v>0.948490065293367</v>
+        <v>0.9599429888675971</v>
       </c>
       <c r="M16">
-        <v>0.94491621233517</v>
+        <v>0.9655530805556588</v>
       </c>
       <c r="N16">
-        <v>0.9651295000438185</v>
+        <v>0.9531377155399149</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9182698564533616</v>
+        <v>0.9263249730369215</v>
       </c>
       <c r="D17">
-        <v>0.9354292418985297</v>
+        <v>0.9378430448413355</v>
       </c>
       <c r="E17">
-        <v>0.9370577278276496</v>
+        <v>0.9498793579740018</v>
       </c>
       <c r="F17">
-        <v>0.9342972130276108</v>
+        <v>0.9557549919451391</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030137192136789</v>
+        <v>1.033937582615128</v>
       </c>
       <c r="J17">
-        <v>0.9492764362416876</v>
+        <v>0.9569416014456711</v>
       </c>
       <c r="K17">
-        <v>0.9506727913105549</v>
+        <v>0.9530363633282918</v>
       </c>
       <c r="L17">
-        <v>0.9522673511379306</v>
+        <v>0.964827215076358</v>
       </c>
       <c r="M17">
-        <v>0.9495644380386595</v>
+        <v>0.9705859737908137</v>
       </c>
       <c r="N17">
-        <v>0.9679071969188132</v>
+        <v>0.9583005682824599</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9211980343624155</v>
+        <v>0.9298729816353138</v>
       </c>
       <c r="D18">
-        <v>0.9379853797158558</v>
+        <v>0.941152249691194</v>
       </c>
       <c r="E18">
-        <v>0.9394709220701503</v>
+        <v>0.9529224369729494</v>
       </c>
       <c r="F18">
-        <v>0.9372174491061769</v>
+        <v>0.9588819498842808</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030877587699012</v>
+        <v>1.034466881713666</v>
       </c>
       <c r="J18">
-        <v>0.9516083090642444</v>
+        <v>0.9598746963913137</v>
       </c>
       <c r="K18">
-        <v>0.9529679096852051</v>
+        <v>0.9560704533923661</v>
       </c>
       <c r="L18">
-        <v>0.9544232061646504</v>
+        <v>0.9676064782664807</v>
       </c>
       <c r="M18">
-        <v>0.952215663838175</v>
+        <v>0.9734503002431814</v>
       </c>
       <c r="N18">
-        <v>0.9694919895426597</v>
+        <v>0.9612378285593559</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9221859151096392</v>
+        <v>0.9310682396546699</v>
       </c>
       <c r="D19">
-        <v>0.9388480270575621</v>
+        <v>0.9422673962200376</v>
       </c>
       <c r="E19">
-        <v>0.9402854350780887</v>
+        <v>0.9539480155660058</v>
       </c>
       <c r="F19">
-        <v>0.9382026274397095</v>
+        <v>0.9599358515925579</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031126840725388</v>
+        <v>1.034644939734746</v>
       </c>
       <c r="J19">
-        <v>0.952394956477302</v>
+        <v>0.9608628591353413</v>
       </c>
       <c r="K19">
-        <v>0.9537422209991109</v>
+        <v>0.9570927060148041</v>
       </c>
       <c r="L19">
-        <v>0.9551505916746329</v>
+        <v>0.9685428980848897</v>
       </c>
       <c r="M19">
-        <v>0.9531098973509612</v>
+        <v>0.9744154546889779</v>
       </c>
       <c r="N19">
-        <v>0.9700266048020049</v>
+        <v>0.9622273946078239</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.917726123948628</v>
+        <v>0.9256652758156996</v>
       </c>
       <c r="D20">
-        <v>0.9349547319636458</v>
+        <v>0.9372279155750495</v>
       </c>
       <c r="E20">
-        <v>0.9366098049577343</v>
+        <v>0.9493137532469837</v>
       </c>
       <c r="F20">
-        <v>0.9337549471497195</v>
+        <v>0.9551738241009927</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029999455418454</v>
+        <v>1.033839049221818</v>
       </c>
       <c r="J20">
-        <v>0.9488434061350077</v>
+        <v>0.9563962693627321</v>
       </c>
       <c r="K20">
-        <v>0.9502466169287639</v>
+        <v>0.9524722848231889</v>
       </c>
       <c r="L20">
-        <v>0.9518670642207233</v>
+        <v>0.9643105250934549</v>
       </c>
       <c r="M20">
-        <v>0.9490720342875546</v>
+        <v>0.970053506621597</v>
       </c>
       <c r="N20">
-        <v>0.9676128965427437</v>
+        <v>0.9577544617654126</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9024251633430195</v>
+        <v>0.9069766553311499</v>
       </c>
       <c r="D21">
-        <v>0.9216200675455941</v>
+        <v>0.919824120370983</v>
       </c>
       <c r="E21">
-        <v>0.92402880669271</v>
+        <v>0.933319026578081</v>
       </c>
       <c r="F21">
-        <v>0.9184958754212039</v>
+        <v>0.9387428271918378</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026095060912388</v>
+        <v>1.031035090956782</v>
       </c>
       <c r="J21">
-        <v>0.9366558779279166</v>
+        <v>0.9409533435271131</v>
       </c>
       <c r="K21">
-        <v>0.9382558110127887</v>
+        <v>0.9365022040820422</v>
       </c>
       <c r="L21">
-        <v>0.9406081089441315</v>
+        <v>0.9496842824550933</v>
       </c>
       <c r="M21">
-        <v>0.9352054159343969</v>
+        <v>0.954985727784889</v>
       </c>
       <c r="N21">
-        <v>0.9593296041017062</v>
+        <v>0.9422896052037787</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8920930753217864</v>
+        <v>0.8941989079062191</v>
       </c>
       <c r="D22">
-        <v>0.912636604880895</v>
+        <v>0.907950601217674</v>
       </c>
       <c r="E22">
-        <v>0.9155600575222664</v>
+        <v>0.922416506819638</v>
       </c>
       <c r="F22">
-        <v>0.9081951602607383</v>
+        <v>0.9275476659914342</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02343330076012</v>
+        <v>1.029108024717616</v>
       </c>
       <c r="J22">
-        <v>0.9284262923933911</v>
+        <v>0.9304038355857058</v>
       </c>
       <c r="K22">
-        <v>0.9301629972229518</v>
+        <v>0.9255962520821395</v>
       </c>
       <c r="L22">
-        <v>0.9330128822851315</v>
+        <v>0.9396992535096169</v>
       </c>
       <c r="M22">
-        <v>0.9258345459432948</v>
+        <v>0.9447053415009312</v>
       </c>
       <c r="N22">
-        <v>0.953736274887</v>
+        <v>0.9317251157510492</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8976449309632851</v>
+        <v>0.9010826472698646</v>
       </c>
       <c r="D23">
-        <v>0.9174616311217222</v>
+        <v>0.9143445241816245</v>
       </c>
       <c r="E23">
-        <v>0.9201079406962223</v>
+        <v>0.9282864947072466</v>
       </c>
       <c r="F23">
-        <v>0.91372966830039</v>
+        <v>0.9335747001288345</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024865690626341</v>
+        <v>1.030146899252861</v>
       </c>
       <c r="J23">
-        <v>0.9328482175457566</v>
+        <v>0.9360860429565286</v>
       </c>
       <c r="K23">
-        <v>0.934511050445464</v>
+        <v>0.9314701111181982</v>
       </c>
       <c r="L23">
-        <v>0.9370932406354848</v>
+        <v>0.9450767260683497</v>
       </c>
       <c r="M23">
-        <v>0.9308703620826638</v>
+        <v>0.9502412345304437</v>
       </c>
       <c r="N23">
-        <v>0.9567416743858113</v>
+        <v>0.9374153925080965</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9179720127120939</v>
+        <v>0.9259636408960908</v>
       </c>
       <c r="D24">
-        <v>0.935169311232926</v>
+        <v>0.9375061171669424</v>
       </c>
       <c r="E24">
-        <v>0.9368123592288772</v>
+        <v>0.949569554408131</v>
       </c>
       <c r="F24">
-        <v>0.9340001728952151</v>
+        <v>0.9554366627890239</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03006175282598</v>
+        <v>1.033883617938615</v>
       </c>
       <c r="J24">
-        <v>0.9490392335472426</v>
+        <v>0.9566429085475296</v>
       </c>
       <c r="K24">
-        <v>0.9504393428329544</v>
+        <v>0.9527274013298723</v>
       </c>
       <c r="L24">
-        <v>0.9520480821342834</v>
+        <v>0.9645442086102454</v>
       </c>
       <c r="M24">
-        <v>0.9492947146488235</v>
+        <v>0.9702943242452476</v>
       </c>
       <c r="N24">
-        <v>0.9677459869094545</v>
+        <v>0.9580014512061426</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9390427225217342</v>
+        <v>0.9513436034169144</v>
       </c>
       <c r="D25">
-        <v>0.9535891115832286</v>
+        <v>0.9612089452135155</v>
       </c>
       <c r="E25">
-        <v>0.9542124638720398</v>
+        <v>0.9713759960686451</v>
       </c>
       <c r="F25">
-        <v>0.9550090691820265</v>
+        <v>0.9778488703624723</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035332105672876</v>
+        <v>1.037641717543071</v>
       </c>
       <c r="J25">
-        <v>0.9658113448565931</v>
+        <v>0.9776272294991145</v>
       </c>
       <c r="K25">
-        <v>0.9669533231524999</v>
+        <v>0.974440850812953</v>
       </c>
       <c r="L25">
-        <v>0.9675657491331507</v>
+        <v>0.984435533413644</v>
       </c>
       <c r="M25">
-        <v>0.9683484181936242</v>
+        <v>0.9908010710528027</v>
       </c>
       <c r="N25">
-        <v>0.9791436826333003</v>
+        <v>0.9790155723004137</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9695233342813475</v>
+        <v>0.9703879261594415</v>
       </c>
       <c r="D2">
-        <v>0.9782313069519828</v>
+        <v>0.9834203820070228</v>
       </c>
       <c r="E2">
-        <v>0.987048585343496</v>
+        <v>0.9805972625657203</v>
       </c>
       <c r="F2">
-        <v>0.9939624632540802</v>
+        <v>0.9845390042495893</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040278652864915</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>0.9926554429770692</v>
+        <v>0.9934919008188733</v>
       </c>
       <c r="K2">
-        <v>0.99000248240181</v>
+        <v>0.9951156339500001</v>
       </c>
       <c r="L2">
-        <v>0.9986913522948908</v>
+        <v>0.992333694253804</v>
       </c>
       <c r="M2">
-        <v>1.00550655636379</v>
+        <v>0.9962180221006658</v>
       </c>
       <c r="N2">
-        <v>0.9940651275652675</v>
+        <v>1.001142583449285</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9817839650717294</v>
+        <v>0.9763490833094171</v>
       </c>
       <c r="D3">
-        <v>0.9897308908583947</v>
+        <v>0.9889411636448437</v>
       </c>
       <c r="E3">
-        <v>0.9976403843674496</v>
+        <v>0.9854568658910312</v>
       </c>
       <c r="F3">
-        <v>1.004853986917221</v>
+        <v>0.9907010294037458</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042020657666349</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.002783843594276</v>
+        <v>0.997505940059613</v>
       </c>
       <c r="K3">
-        <v>1.00049687528458</v>
+        <v>0.999717527650728</v>
       </c>
       <c r="L3">
-        <v>1.008303546215153</v>
+        <v>0.9962792741240816</v>
       </c>
       <c r="M3">
-        <v>1.015425134545314</v>
+        <v>1.001454291443157</v>
       </c>
       <c r="N3">
-        <v>1.004207911673094</v>
+        <v>1.002570513200314</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9893468012219443</v>
+        <v>0.9801118835607732</v>
       </c>
       <c r="D4">
-        <v>0.9968318203682665</v>
+        <v>0.9924325428984854</v>
       </c>
       <c r="E4">
-        <v>1.004181904889299</v>
+        <v>0.9885312375131455</v>
       </c>
       <c r="F4">
-        <v>1.011580994534719</v>
+        <v>0.9945984641690946</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043077116684305</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.009026999235822</v>
+        <v>1.000038384051627</v>
       </c>
       <c r="K4">
-        <v>1.006968633524546</v>
+        <v>1.002623166753064</v>
       </c>
       <c r="L4">
-        <v>1.014230118678799</v>
+        <v>0.9987700800216901</v>
       </c>
       <c r="M4">
-        <v>1.021541627999003</v>
+        <v>1.004762521128083</v>
       </c>
       <c r="N4">
-        <v>1.010459933311751</v>
+        <v>1.003469934716258</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9924454693704948</v>
+        <v>0.9816722392291289</v>
       </c>
       <c r="D5">
-        <v>0.9997428597645358</v>
+        <v>0.993881863390994</v>
       </c>
       <c r="E5">
-        <v>1.006863795804058</v>
+        <v>0.9898076891709764</v>
       </c>
       <c r="F5">
-        <v>1.014338970133764</v>
+        <v>0.9962164985299152</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043505461650609</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.011583735151497</v>
+        <v>1.001088174229123</v>
       </c>
       <c r="K5">
-        <v>1.009619711093245</v>
+        <v>1.003828224396491</v>
       </c>
       <c r="L5">
-        <v>1.016657540724682</v>
+        <v>0.9998029706818776</v>
       </c>
       <c r="M5">
-        <v>1.024047022860326</v>
+        <v>1.006135049999642</v>
       </c>
       <c r="N5">
-        <v>1.013020300085689</v>
+        <v>1.00384240859526</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.992961224748735</v>
+        <v>0.981932997866944</v>
       </c>
       <c r="D6">
-        <v>1.000227476190783</v>
+        <v>0.9941241540920506</v>
       </c>
       <c r="E6">
-        <v>1.007310272927967</v>
+        <v>0.9900210934507814</v>
       </c>
       <c r="F6">
-        <v>1.014798114610863</v>
+        <v>0.9964870038958451</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043576486940076</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.012009212347296</v>
+        <v>1.001263587055335</v>
       </c>
       <c r="K6">
-        <v>1.010060930694769</v>
+        <v>1.004029614786235</v>
       </c>
       <c r="L6">
-        <v>1.0170615166501</v>
+        <v>0.9999755806160665</v>
       </c>
       <c r="M6">
-        <v>1.024463984428859</v>
+        <v>1.006364458400134</v>
       </c>
       <c r="N6">
-        <v>1.013446381507908</v>
+        <v>1.003904624183513</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.989388513383042</v>
+        <v>0.9801328163028635</v>
       </c>
       <c r="D7">
-        <v>0.9968710005702258</v>
+        <v>0.9924519801333974</v>
       </c>
       <c r="E7">
-        <v>1.004218000329837</v>
+        <v>0.9885483554631603</v>
       </c>
       <c r="F7">
-        <v>1.011618113905538</v>
+        <v>0.9946201634259344</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043082900905032</v>
+        <v>1.045357539874439</v>
       </c>
       <c r="J7">
-        <v>1.0090614213559</v>
+        <v>1.00005246886794</v>
       </c>
       <c r="K7">
-        <v>1.007004322920885</v>
+        <v>1.002639332518064</v>
       </c>
       <c r="L7">
-        <v>1.014262798536645</v>
+        <v>0.9987839366880387</v>
       </c>
       <c r="M7">
-        <v>1.021575356928545</v>
+        <v>1.00478093149542</v>
       </c>
       <c r="N7">
-        <v>1.010494404315188</v>
+        <v>1.003474933606174</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9737488055970267</v>
+        <v>0.9724227674963146</v>
       </c>
       <c r="D8">
-        <v>0.9821927601235428</v>
+        <v>0.9853034885037801</v>
       </c>
       <c r="E8">
-        <v>0.9906970130096739</v>
+        <v>0.9822545875483918</v>
       </c>
       <c r="F8">
-        <v>0.9977140187863576</v>
+        <v>0.9866407415430793</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040882761154872</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>0.9961469062536965</v>
+        <v>0.9948623340110129</v>
       </c>
       <c r="K8">
-        <v>0.9936194695923262</v>
+        <v>0.9966862834495684</v>
       </c>
       <c r="L8">
-        <v>1.002004491413744</v>
+        <v>0.9936804207666454</v>
       </c>
       <c r="M8">
-        <v>1.008925044438904</v>
+        <v>0.9980047658054194</v>
       </c>
       <c r="N8">
-        <v>0.9975615491202238</v>
+        <v>1.001630386487763</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9429139764505428</v>
+        <v>0.9580600010048922</v>
       </c>
       <c r="D9">
-        <v>0.9533281840772374</v>
+        <v>0.9720422419965702</v>
       </c>
       <c r="E9">
-        <v>0.9641232729435948</v>
+        <v>0.9705896241751724</v>
       </c>
       <c r="F9">
-        <v>0.970393493892037</v>
+        <v>0.9718408744294633</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036401738440483</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>0.9706571621734899</v>
+        <v>0.9851859468154534</v>
       </c>
       <c r="K9">
-        <v>0.9672267634427517</v>
+        <v>0.9856058079598989</v>
       </c>
       <c r="L9">
-        <v>0.977826541279092</v>
+        <v>0.9841785952718969</v>
       </c>
       <c r="M9">
-        <v>0.9839859027032589</v>
+        <v>0.9854079562792672</v>
       </c>
       <c r="N9">
-        <v>0.9720356066797089</v>
+        <v>0.9981807260147217</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9193699939881453</v>
+        <v>0.9478809748393705</v>
       </c>
       <c r="D10">
-        <v>0.9313605852255671</v>
+        <v>0.9626858489950448</v>
       </c>
       <c r="E10">
-        <v>0.9439197213655575</v>
+        <v>0.9623692787768385</v>
       </c>
       <c r="F10">
-        <v>0.9496318157406178</v>
+        <v>0.9613987236109649</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032897070171958</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>0.9511929319656409</v>
+        <v>0.978326726560633</v>
       </c>
       <c r="K10">
-        <v>0.9470905468477925</v>
+        <v>0.9777631688320686</v>
       </c>
       <c r="L10">
-        <v>0.9593811401875446</v>
+        <v>0.9774529147323702</v>
       </c>
       <c r="M10">
-        <v>0.9649741992069695</v>
+        <v>0.976501757909698</v>
       </c>
       <c r="N10">
-        <v>0.9525437350323863</v>
+        <v>0.9957295369560452</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9082166378291902</v>
+        <v>0.9433094364352839</v>
       </c>
       <c r="D11">
-        <v>0.9209774932172524</v>
+        <v>0.9584948100232449</v>
       </c>
       <c r="E11">
-        <v>0.9343785190116</v>
+        <v>0.9586900712138915</v>
       </c>
       <c r="F11">
-        <v>0.9398309740186994</v>
+        <v>0.9567207615304993</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031221759135376</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>0.9419775461387114</v>
+        <v>0.9752467652338251</v>
       </c>
       <c r="K11">
-        <v>0.9375611606782075</v>
+        <v>0.9742443266524116</v>
       </c>
       <c r="L11">
-        <v>0.9506539758584569</v>
+        <v>0.9744354723468929</v>
       </c>
       <c r="M11">
-        <v>0.955984377280311</v>
+        <v>0.9725077714698402</v>
       </c>
       <c r="N11">
-        <v>0.9433152623005631</v>
+        <v>0.9946278391905975</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9039000903482819</v>
+        <v>0.9415847511046151</v>
       </c>
       <c r="D12">
-        <v>0.9169633048875839</v>
+        <v>0.9569154343587628</v>
       </c>
       <c r="E12">
-        <v>0.9306913985796783</v>
+        <v>0.9573040804065861</v>
       </c>
       <c r="F12">
-        <v>0.9360442942544258</v>
+        <v>0.9549577545359776</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030571646114077</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>0.9384124792150289</v>
+        <v>0.9740849814364462</v>
       </c>
       <c r="K12">
-        <v>0.9338752388989253</v>
+        <v>0.9729173883251587</v>
       </c>
       <c r="L12">
-        <v>0.9472788660930368</v>
+        <v>0.9732976767556916</v>
       </c>
       <c r="M12">
-        <v>0.952508687122019</v>
+        <v>0.9710019446003558</v>
       </c>
       <c r="N12">
-        <v>0.9397451325729302</v>
+        <v>0.9942121430653502</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9048344450308012</v>
+        <v>0.9419559403173022</v>
       </c>
       <c r="D13">
-        <v>0.9178320062553653</v>
+        <v>0.9572552686236536</v>
       </c>
       <c r="E13">
-        <v>0.9314892415339685</v>
+        <v>0.957602280323286</v>
       </c>
       <c r="F13">
-        <v>0.9368636421094226</v>
+        <v>0.9553371077606727</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030712437189352</v>
+        <v>1.044363121405789</v>
       </c>
       <c r="J13">
-        <v>0.9391840914893653</v>
+        <v>0.9743350125285738</v>
       </c>
       <c r="K13">
-        <v>0.9346729808751207</v>
+        <v>0.9732029452024709</v>
       </c>
       <c r="L13">
-        <v>0.9480093119889661</v>
+        <v>0.9735425265903049</v>
       </c>
       <c r="M13">
-        <v>0.9532608519916572</v>
+        <v>0.9713259857218958</v>
       </c>
       <c r="N13">
-        <v>0.9405178406252013</v>
+        <v>0.9943016115779204</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9078635794227773</v>
+        <v>0.9431674284862114</v>
       </c>
       <c r="D14">
-        <v>0.9206490748938896</v>
+        <v>0.9583647303053719</v>
       </c>
       <c r="E14">
-        <v>0.9340768251300554</v>
+        <v>0.9585759083820133</v>
       </c>
       <c r="F14">
-        <v>0.9395211169695087</v>
+        <v>0.9565755607363681</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031168616716826</v>
+        <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>0.9416859190892959</v>
+        <v>0.9751511015328264</v>
       </c>
       <c r="K14">
-        <v>0.9372596351147627</v>
+        <v>0.9741350558388855</v>
       </c>
       <c r="L14">
-        <v>0.9503778643679534</v>
+        <v>0.974341775519992</v>
       </c>
       <c r="M14">
-        <v>0.9557000160311259</v>
+        <v>0.9723837638582197</v>
       </c>
       <c r="N14">
-        <v>0.9430232211072872</v>
+        <v>0.9945936123163641</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9097058662090427</v>
+        <v>0.9439102771563269</v>
       </c>
       <c r="D15">
-        <v>0.9223629637645567</v>
+        <v>0.9590452542272403</v>
       </c>
       <c r="E15">
-        <v>0.9356513157565794</v>
+        <v>0.9591731825161893</v>
       </c>
       <c r="F15">
-        <v>0.9411382423002188</v>
+        <v>0.9573351860892867</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031445851531175</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>0.9432077149618833</v>
+        <v>0.9756515296727785</v>
       </c>
       <c r="K15">
-        <v>0.938833109257015</v>
+        <v>0.974706680384507</v>
       </c>
       <c r="L15">
-        <v>0.951818740464317</v>
+        <v>0.9748319313494219</v>
       </c>
       <c r="M15">
-        <v>0.9571839847080544</v>
+        <v>0.9730324919995783</v>
       </c>
       <c r="N15">
-        <v>0.9445471781045662</v>
+        <v>0.9947726521326504</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9200876770224697</v>
+        <v>0.9481807541067178</v>
       </c>
       <c r="D16">
-        <v>0.9320292359057589</v>
+        <v>0.9629609145311776</v>
       </c>
       <c r="E16">
-        <v>0.9445343486893457</v>
+        <v>0.9626108182090498</v>
       </c>
       <c r="F16">
-        <v>0.9502632627231086</v>
+        <v>0.9617057307284823</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033004606308888</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>0.9517860701489153</v>
+        <v>0.9785287154038687</v>
       </c>
       <c r="K16">
-        <v>0.9477039792298871</v>
+        <v>0.9779939953157266</v>
       </c>
       <c r="L16">
-        <v>0.9599429888675971</v>
+        <v>0.9776508583295884</v>
       </c>
       <c r="M16">
-        <v>0.9655530805556588</v>
+        <v>0.9767637933684429</v>
       </c>
       <c r="N16">
-        <v>0.9531377155399149</v>
+        <v>0.995801768744349</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9263249730369215</v>
+        <v>0.9508142818763794</v>
       </c>
       <c r="D17">
-        <v>0.9378430448413355</v>
+        <v>0.9653785974608012</v>
       </c>
       <c r="E17">
-        <v>0.9498793579740018</v>
+        <v>0.96473416636287</v>
       </c>
       <c r="F17">
-        <v>0.9557549919451391</v>
+        <v>0.9644040926050907</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033937582615128</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>0.9569416014456711</v>
+        <v>0.9803032439333663</v>
       </c>
       <c r="K17">
-        <v>0.9530363633282918</v>
+        <v>0.9800221751314756</v>
       </c>
       <c r="L17">
-        <v>0.964827215076358</v>
+        <v>0.9793901403225999</v>
       </c>
       <c r="M17">
-        <v>0.9705859737908137</v>
+        <v>0.9790664242734894</v>
       </c>
       <c r="N17">
-        <v>0.9583005682824599</v>
+        <v>0.996436229470677</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9298729816353138</v>
+        <v>0.9523346992121366</v>
       </c>
       <c r="D18">
-        <v>0.941152249691194</v>
+        <v>0.9667754362692608</v>
       </c>
       <c r="E18">
-        <v>0.9529224369729494</v>
+        <v>0.9659612260658464</v>
       </c>
       <c r="F18">
-        <v>0.9588819498842808</v>
+        <v>0.965963045297821</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034466881713666</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>0.9598746963913137</v>
+        <v>0.9813277854817513</v>
       </c>
       <c r="K18">
-        <v>0.9560704533923661</v>
+        <v>0.9811934202735968</v>
       </c>
       <c r="L18">
-        <v>0.9676064782664807</v>
+        <v>0.9803945717616465</v>
       </c>
       <c r="M18">
-        <v>0.9734503002431814</v>
+        <v>0.980396356632476</v>
       </c>
       <c r="N18">
-        <v>0.9612378285593559</v>
+        <v>0.9968024401878204</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9310682396546699</v>
+        <v>0.9528505203331806</v>
       </c>
       <c r="D19">
-        <v>0.9422673962200376</v>
+        <v>0.9672495045625001</v>
       </c>
       <c r="E19">
-        <v>0.9539480155660058</v>
+        <v>0.966377718683987</v>
       </c>
       <c r="F19">
-        <v>0.9599358515925579</v>
+        <v>0.9664921256222319</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034644939734746</v>
+        <v>1.044760460044815</v>
       </c>
       <c r="J19">
-        <v>0.9608628591353413</v>
+        <v>0.9816753805148078</v>
       </c>
       <c r="K19">
-        <v>0.9570927060148041</v>
+        <v>0.9815908309259295</v>
       </c>
       <c r="L19">
-        <v>0.9685428980848897</v>
+        <v>0.9807353841323695</v>
       </c>
       <c r="M19">
-        <v>0.9744154546889779</v>
+        <v>0.9808476446519035</v>
       </c>
       <c r="N19">
-        <v>0.9622273946078239</v>
+        <v>0.9969266659942169</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9256652758156996</v>
+        <v>0.950533364249597</v>
       </c>
       <c r="D20">
-        <v>0.9372279155750495</v>
+        <v>0.9651205957310411</v>
       </c>
       <c r="E20">
-        <v>0.9493137532469837</v>
+        <v>0.964507545401294</v>
       </c>
       <c r="F20">
-        <v>0.9551738241009927</v>
+        <v>0.9641161440059047</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033839049221818</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>0.9563962693627321</v>
+        <v>0.980113949581193</v>
       </c>
       <c r="K20">
-        <v>0.9524722848231889</v>
+        <v>0.9798057965676008</v>
       </c>
       <c r="L20">
-        <v>0.9643105250934549</v>
+        <v>0.9792045807746582</v>
       </c>
       <c r="M20">
-        <v>0.970053506621597</v>
+        <v>0.978820745442915</v>
       </c>
       <c r="N20">
-        <v>0.9577544617654126</v>
+        <v>0.9963685599399654</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9069766553311499</v>
+        <v>0.9428114270012873</v>
       </c>
       <c r="D21">
-        <v>0.919824120370983</v>
+        <v>0.9580386605370202</v>
       </c>
       <c r="E21">
-        <v>0.933319026578081</v>
+        <v>0.9582897456530831</v>
       </c>
       <c r="F21">
-        <v>0.9387428271918378</v>
+        <v>0.9562115847167353</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031035090956782</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>0.9409533435271131</v>
+        <v>0.9749112842371386</v>
       </c>
       <c r="K21">
-        <v>0.9365022040820422</v>
+        <v>0.9738611334734594</v>
       </c>
       <c r="L21">
-        <v>0.9496842824550933</v>
+        <v>0.9741068955434343</v>
       </c>
       <c r="M21">
-        <v>0.954985727784889</v>
+        <v>0.9720729035024969</v>
       </c>
       <c r="N21">
-        <v>0.9422896052037787</v>
+        <v>0.9945078077448867</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8941989079062191</v>
+        <v>0.9378012282766537</v>
       </c>
       <c r="D22">
-        <v>0.907950601217674</v>
+        <v>0.953454046240493</v>
       </c>
       <c r="E22">
-        <v>0.922416506819638</v>
+        <v>0.954267514198292</v>
       </c>
       <c r="F22">
-        <v>0.9275476659914342</v>
+        <v>0.9510936065227206</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029108024717616</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>0.9304038355857058</v>
+        <v>0.9715367596442255</v>
       </c>
       <c r="K22">
-        <v>0.9255962520821395</v>
+        <v>0.9700076356223029</v>
       </c>
       <c r="L22">
-        <v>0.9396992535096169</v>
+        <v>0.9708028425928359</v>
       </c>
       <c r="M22">
-        <v>0.9447053415009312</v>
+        <v>0.9677004196832322</v>
       </c>
       <c r="N22">
-        <v>0.9317251157510492</v>
+        <v>0.9933001675110107</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9010826472698646</v>
+        <v>0.9404726496076208</v>
       </c>
       <c r="D23">
-        <v>0.9143445241816245</v>
+        <v>0.955897540113594</v>
       </c>
       <c r="E23">
-        <v>0.9282864947072466</v>
+        <v>0.9564109707088588</v>
       </c>
       <c r="F23">
-        <v>0.9335747001288345</v>
+        <v>0.953821466395487</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030146899252861</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>0.9360860429565286</v>
+        <v>0.9733359094695082</v>
       </c>
       <c r="K23">
-        <v>0.9314701111181982</v>
+        <v>0.9720619410656399</v>
       </c>
       <c r="L23">
-        <v>0.9450767260683497</v>
+        <v>0.9725641886089966</v>
       </c>
       <c r="M23">
-        <v>0.9502412345304437</v>
+        <v>0.9700312495692948</v>
       </c>
       <c r="N23">
-        <v>0.9374153925080965</v>
+        <v>0.993944086697456</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9259636408960908</v>
+        <v>0.9506603471266289</v>
       </c>
       <c r="D24">
-        <v>0.9375061171669424</v>
+        <v>0.9652372167550805</v>
       </c>
       <c r="E24">
-        <v>0.949569554408131</v>
+        <v>0.9646099809515873</v>
       </c>
       <c r="F24">
-        <v>0.9554366627890239</v>
+        <v>0.9642463016618219</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033883617938615</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>0.9566429085475296</v>
+        <v>0.9801995159409744</v>
       </c>
       <c r="K24">
-        <v>0.9527274013298723</v>
+        <v>0.979903604957346</v>
       </c>
       <c r="L24">
-        <v>0.9645442086102454</v>
+        <v>0.9792884581553929</v>
       </c>
       <c r="M24">
-        <v>0.9702943242452476</v>
+        <v>0.9789317976593549</v>
       </c>
       <c r="N24">
-        <v>0.9580014512061426</v>
+        <v>0.9963991487841176</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9513436034169144</v>
+        <v>0.9618731056379989</v>
       </c>
       <c r="D25">
-        <v>0.9612089452135155</v>
+        <v>0.9755560511182382</v>
       </c>
       <c r="E25">
-        <v>0.9713759960686451</v>
+        <v>0.9736789809132785</v>
       </c>
       <c r="F25">
-        <v>0.9778488703624723</v>
+        <v>0.975762240797179</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037641717543071</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>0.9776272294991145</v>
+        <v>0.987755430974228</v>
       </c>
       <c r="K25">
-        <v>0.974440850812953</v>
+        <v>0.9885460628824713</v>
       </c>
       <c r="L25">
-        <v>0.984435533413644</v>
+        <v>0.9867001183168412</v>
       </c>
       <c r="M25">
-        <v>0.9908010710528027</v>
+        <v>0.9887488429120582</v>
       </c>
       <c r="N25">
-        <v>0.9790155723004137</v>
+        <v>0.9990978625977335</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9703879261594415</v>
+        <v>1.022350787414186</v>
       </c>
       <c r="D2">
-        <v>0.9834203820070228</v>
+        <v>1.031528190178009</v>
       </c>
       <c r="E2">
-        <v>0.9805972625657203</v>
+        <v>1.023070562848129</v>
       </c>
       <c r="F2">
-        <v>0.9845390042495893</v>
+        <v>1.038231974351167</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.023594999628091</v>
       </c>
       <c r="J2">
-        <v>0.9934919008188733</v>
+        <v>1.027537115733058</v>
       </c>
       <c r="K2">
-        <v>0.9951156339500001</v>
+        <v>1.034336047918498</v>
       </c>
       <c r="L2">
-        <v>0.992333694253804</v>
+        <v>1.025903081956963</v>
       </c>
       <c r="M2">
-        <v>0.9962180221006658</v>
+        <v>1.041020594774783</v>
       </c>
       <c r="N2">
-        <v>1.001142583449285</v>
+        <v>1.013110380410271</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9763490833094171</v>
+        <v>1.023593510720765</v>
       </c>
       <c r="D3">
-        <v>0.9889411636448437</v>
+        <v>1.0327422910951</v>
       </c>
       <c r="E3">
-        <v>0.9854568658910312</v>
+        <v>1.024135802793349</v>
       </c>
       <c r="F3">
-        <v>0.9907010294037458</v>
+        <v>1.039598811691194</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208683</v>
       </c>
       <c r="J3">
-        <v>0.997505940059613</v>
+        <v>1.028416327729058</v>
       </c>
       <c r="K3">
-        <v>0.999717527650728</v>
+        <v>1.03535764479218</v>
       </c>
       <c r="L3">
-        <v>0.9962792741240816</v>
+        <v>1.026774417607138</v>
       </c>
       <c r="M3">
-        <v>1.001454291443157</v>
+        <v>1.042195931920883</v>
       </c>
       <c r="N3">
-        <v>1.002570513200314</v>
+        <v>1.013413320091271</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9801118835607732</v>
+        <v>1.024397749068384</v>
       </c>
       <c r="D4">
-        <v>0.9924325428984854</v>
+        <v>1.033528378173576</v>
       </c>
       <c r="E4">
-        <v>0.9885312375131455</v>
+        <v>1.024825458674122</v>
       </c>
       <c r="F4">
-        <v>0.9945984641690946</v>
+        <v>1.040483999279208</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>1.000038384051627</v>
+        <v>1.028984897215537</v>
       </c>
       <c r="K4">
-        <v>1.002623166753064</v>
+        <v>1.036018609460988</v>
       </c>
       <c r="L4">
-        <v>0.9987700800216901</v>
+        <v>1.027338015034045</v>
       </c>
       <c r="M4">
-        <v>1.004762521128083</v>
+        <v>1.042956677041178</v>
       </c>
       <c r="N4">
-        <v>1.003469934716258</v>
+        <v>1.01360892233744</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9816722392291289</v>
+        <v>1.024735880523187</v>
       </c>
       <c r="D5">
-        <v>0.993881863390994</v>
+        <v>1.033858966674272</v>
       </c>
       <c r="E5">
-        <v>0.9898076891709764</v>
+        <v>1.025115480973066</v>
       </c>
       <c r="F5">
-        <v>0.9962164985299152</v>
+        <v>1.040856314753914</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628374</v>
       </c>
       <c r="J5">
-        <v>1.001088174229123</v>
+        <v>1.029223844021569</v>
       </c>
       <c r="K5">
-        <v>1.003828224396491</v>
+        <v>1.036296462350705</v>
       </c>
       <c r="L5">
-        <v>0.9998029706818776</v>
+        <v>1.027574901192634</v>
       </c>
       <c r="M5">
-        <v>1.006135049999642</v>
+        <v>1.043276549872753</v>
       </c>
       <c r="N5">
-        <v>1.00384240859526</v>
+        <v>1.013691053268918</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.981932997866944</v>
+        <v>1.024792656095008</v>
       </c>
       <c r="D6">
-        <v>0.9941241540920506</v>
+        <v>1.033914480884999</v>
       </c>
       <c r="E6">
-        <v>0.9900210934507814</v>
+        <v>1.025164182366333</v>
       </c>
       <c r="F6">
-        <v>0.9964870038958451</v>
+        <v>1.040918838941032</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>1.001263587055335</v>
+        <v>1.029263959604413</v>
       </c>
       <c r="K6">
-        <v>1.004029614786235</v>
+        <v>1.03634311414718</v>
       </c>
       <c r="L6">
-        <v>0.9999755806160665</v>
+        <v>1.027614672514299</v>
       </c>
       <c r="M6">
-        <v>1.006364458400134</v>
+        <v>1.043330261249269</v>
       </c>
       <c r="N6">
-        <v>1.003904624183513</v>
+        <v>1.013704837543325</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9801328163028635</v>
+        <v>1.024402267077738</v>
       </c>
       <c r="D7">
-        <v>0.9924519801333974</v>
+        <v>1.033532795049187</v>
       </c>
       <c r="E7">
-        <v>0.9885483554631603</v>
+        <v>1.024829333607175</v>
       </c>
       <c r="F7">
-        <v>0.9946201634259344</v>
+        <v>1.040488973456156</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.023442985510381</v>
       </c>
       <c r="J7">
-        <v>1.00005246886794</v>
+        <v>1.028988090346213</v>
       </c>
       <c r="K7">
-        <v>1.002639332518064</v>
+        <v>1.036022322208185</v>
       </c>
       <c r="L7">
-        <v>0.9987839366880387</v>
+        <v>1.027341180514155</v>
       </c>
       <c r="M7">
-        <v>1.00478093149542</v>
+        <v>1.042960950976578</v>
       </c>
       <c r="N7">
-        <v>1.003474933606174</v>
+        <v>1.013610020168529</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9724227674963146</v>
+        <v>1.022770749646191</v>
       </c>
       <c r="D8">
-        <v>0.9853034885037801</v>
+        <v>1.031938402518974</v>
       </c>
       <c r="E8">
-        <v>0.9822545875483918</v>
+        <v>1.023430488954062</v>
       </c>
       <c r="F8">
-        <v>0.9866407415430793</v>
+        <v>1.038693749124722</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>0.9948623340110129</v>
+        <v>1.027834320712148</v>
       </c>
       <c r="K8">
-        <v>0.9966862834495684</v>
+        <v>1.034681318314148</v>
       </c>
       <c r="L8">
-        <v>0.9936804207666454</v>
+        <v>1.026197599202938</v>
       </c>
       <c r="M8">
-        <v>0.9980047658054194</v>
+        <v>1.041417760474974</v>
       </c>
       <c r="N8">
-        <v>1.001630386487763</v>
+        <v>1.01321284743053</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9580600010048922</v>
+        <v>1.019896561574956</v>
       </c>
       <c r="D9">
-        <v>0.9720422419965702</v>
+        <v>1.029132487648932</v>
       </c>
       <c r="E9">
-        <v>0.9705896241751724</v>
+        <v>1.020968353559982</v>
       </c>
       <c r="F9">
-        <v>0.9718408744294633</v>
+        <v>1.035535986312456</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.9851859468154534</v>
+        <v>1.025798565733093</v>
       </c>
       <c r="K9">
-        <v>0.9856058079598989</v>
+        <v>1.032317632095827</v>
       </c>
       <c r="L9">
-        <v>0.9841785952718969</v>
+        <v>1.02418075904107</v>
       </c>
       <c r="M9">
-        <v>0.9854079562792672</v>
+        <v>1.038700078505806</v>
       </c>
       <c r="N9">
-        <v>0.9981807260147217</v>
+        <v>1.012509748483676</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9478809748393705</v>
+        <v>1.017980783264893</v>
       </c>
       <c r="D10">
-        <v>0.9626858489950448</v>
+        <v>1.027264179551022</v>
       </c>
       <c r="E10">
-        <v>0.9623692787768385</v>
+        <v>1.01932873190335</v>
       </c>
       <c r="F10">
-        <v>0.9613987236109649</v>
+        <v>1.033434454454586</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.978326726560633</v>
+        <v>1.0244395104461</v>
       </c>
       <c r="K10">
-        <v>0.9777631688320686</v>
+        <v>1.030741283319736</v>
       </c>
       <c r="L10">
-        <v>0.9774529147323702</v>
+        <v>1.022834971900182</v>
       </c>
       <c r="M10">
-        <v>0.976501757909698</v>
+        <v>1.036889244533729</v>
       </c>
       <c r="N10">
-        <v>0.9957295369560452</v>
+        <v>1.012038824820527</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9433094364352839</v>
+        <v>1.017151276390657</v>
       </c>
       <c r="D11">
-        <v>0.9584948100232449</v>
+        <v>1.026455699255192</v>
       </c>
       <c r="E11">
-        <v>0.9586900712138915</v>
+        <v>1.018619165307329</v>
       </c>
       <c r="F11">
-        <v>0.9567207615304993</v>
+        <v>1.032525296757998</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.9752467652338251</v>
+        <v>1.023850556107359</v>
       </c>
       <c r="K11">
-        <v>0.9742443266524116</v>
+        <v>1.030058549531311</v>
       </c>
       <c r="L11">
-        <v>0.9744354723468929</v>
+        <v>1.022251921506253</v>
       </c>
       <c r="M11">
-        <v>0.9725077714698402</v>
+        <v>1.036105329595163</v>
       </c>
       <c r="N11">
-        <v>0.9946278391905975</v>
+        <v>1.011834385359114</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9415847511046151</v>
+        <v>1.016843163104841</v>
       </c>
       <c r="D12">
-        <v>0.9569154343587628</v>
+        <v>1.02615546770797</v>
       </c>
       <c r="E12">
-        <v>0.9573040804065861</v>
+        <v>1.018355659059484</v>
       </c>
       <c r="F12">
-        <v>0.9549577545359776</v>
+        <v>1.032187715109719</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268129</v>
       </c>
       <c r="J12">
-        <v>0.9740849814364462</v>
+        <v>1.02363171906525</v>
       </c>
       <c r="K12">
-        <v>0.9729173883251587</v>
+        <v>1.029804924881122</v>
       </c>
       <c r="L12">
-        <v>0.9732976767556916</v>
+        <v>1.022035301521377</v>
       </c>
       <c r="M12">
-        <v>0.9710019446003558</v>
+        <v>1.035814174280222</v>
       </c>
       <c r="N12">
-        <v>0.9942121430653502</v>
+        <v>1.011758367914563</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9419559403173022</v>
+        <v>1.016909254388389</v>
       </c>
       <c r="D13">
-        <v>0.9572552686236536</v>
+        <v>1.02621986508416</v>
       </c>
       <c r="E13">
-        <v>0.957602280323286</v>
+        <v>1.018412179430913</v>
       </c>
       <c r="F13">
-        <v>0.9553371077606727</v>
+        <v>1.032260122139005</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.9743350125285738</v>
+        <v>1.023678663695606</v>
       </c>
       <c r="K13">
-        <v>0.9732029452024709</v>
+        <v>1.029859329483643</v>
       </c>
       <c r="L13">
-        <v>0.9735425265903049</v>
+        <v>1.022081769492735</v>
       </c>
       <c r="M13">
-        <v>0.9713259857218958</v>
+        <v>1.035876626968145</v>
       </c>
       <c r="N13">
-        <v>0.9943016115779204</v>
+        <v>1.011774677520252</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9431674284862114</v>
+        <v>1.017125807617683</v>
       </c>
       <c r="D14">
-        <v>0.9583647303053719</v>
+        <v>1.026430880526107</v>
       </c>
       <c r="E14">
-        <v>0.9585759083820133</v>
+        <v>1.018597382618046</v>
       </c>
       <c r="F14">
-        <v>0.9565755607363681</v>
+        <v>1.032497389723697</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353276</v>
       </c>
       <c r="J14">
-        <v>0.9751511015328264</v>
+        <v>1.023832468472985</v>
       </c>
       <c r="K14">
-        <v>0.9741350558388855</v>
+        <v>1.030037585400714</v>
       </c>
       <c r="L14">
-        <v>0.974341775519992</v>
+        <v>1.022234016642251</v>
       </c>
       <c r="M14">
-        <v>0.9723837638582197</v>
+        <v>1.036081262099261</v>
       </c>
       <c r="N14">
-        <v>0.9945936123163641</v>
+        <v>1.011828103358284</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9439102771563269</v>
+        <v>1.017259233445825</v>
       </c>
       <c r="D15">
-        <v>0.9590452542272403</v>
+        <v>1.026560903839274</v>
       </c>
       <c r="E15">
-        <v>0.9591731825161893</v>
+        <v>1.018711500096753</v>
       </c>
       <c r="F15">
-        <v>0.9573351860892867</v>
+        <v>1.032643593921437</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.9756515296727785</v>
+        <v>1.023927222918935</v>
       </c>
       <c r="K15">
-        <v>0.974706680384507</v>
+        <v>1.030147411120228</v>
       </c>
       <c r="L15">
-        <v>0.9748319313494219</v>
+        <v>1.022327814578219</v>
       </c>
       <c r="M15">
-        <v>0.9730324919995783</v>
+        <v>1.036207347869417</v>
       </c>
       <c r="N15">
-        <v>0.9947726521326504</v>
+        <v>1.011861010229249</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9481807541067178</v>
+        <v>1.018035835429233</v>
       </c>
       <c r="D16">
-        <v>0.9629609145311776</v>
+        <v>1.027317846245128</v>
       </c>
       <c r="E16">
-        <v>0.9626108182090498</v>
+        <v>1.019375831785874</v>
       </c>
       <c r="F16">
-        <v>0.9617057307284823</v>
+        <v>1.033494809256067</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.9785287154038687</v>
+        <v>1.024478587248081</v>
       </c>
       <c r="K16">
-        <v>0.9779939953157266</v>
+        <v>1.030786590459598</v>
       </c>
       <c r="L16">
-        <v>0.9776508583295884</v>
+        <v>1.022873660240158</v>
       </c>
       <c r="M16">
-        <v>0.9767637933684429</v>
+        <v>1.036941274122436</v>
       </c>
       <c r="N16">
-        <v>0.995801768744349</v>
+        <v>1.012052381666033</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9508142818763794</v>
+        <v>1.018522985208828</v>
       </c>
       <c r="D17">
-        <v>0.9653785974608012</v>
+        <v>1.027792790841299</v>
       </c>
       <c r="E17">
-        <v>0.96473416636287</v>
+        <v>1.019792655448252</v>
       </c>
       <c r="F17">
-        <v>0.9644040926050907</v>
+        <v>1.034028971342202</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.9803032439333663</v>
+        <v>1.024824315165395</v>
       </c>
       <c r="K17">
-        <v>0.9800221751314756</v>
+        <v>1.031187485193935</v>
       </c>
       <c r="L17">
-        <v>0.9793901403225999</v>
+        <v>1.023215969099819</v>
       </c>
       <c r="M17">
-        <v>0.9790664242734894</v>
+        <v>1.037401695154321</v>
       </c>
       <c r="N17">
-        <v>0.996436229470677</v>
+        <v>1.012172282668454</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9523346992121366</v>
+        <v>1.01880713529372</v>
       </c>
       <c r="D18">
-        <v>0.9667754362692608</v>
+        <v>1.028069867312774</v>
       </c>
       <c r="E18">
-        <v>0.9659612260658464</v>
+        <v>1.020035820392532</v>
       </c>
       <c r="F18">
-        <v>0.965963045297821</v>
+        <v>1.034340618327947</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601784</v>
       </c>
       <c r="J18">
-        <v>0.9813277854817513</v>
+        <v>1.025025926763863</v>
       </c>
       <c r="K18">
-        <v>0.9811934202735968</v>
+        <v>1.031421304602491</v>
       </c>
       <c r="L18">
-        <v>0.9803945717616465</v>
+        <v>1.023415601722137</v>
       </c>
       <c r="M18">
-        <v>0.980396356632476</v>
+        <v>1.037670269284659</v>
       </c>
       <c r="N18">
-        <v>0.9968024401878204</v>
+        <v>1.012242168134054</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9528505203331806</v>
+        <v>1.018904023879935</v>
       </c>
       <c r="D19">
-        <v>0.9672495045625001</v>
+        <v>1.028164351670755</v>
       </c>
       <c r="E19">
-        <v>0.966377718683987</v>
+        <v>1.020118739981219</v>
       </c>
       <c r="F19">
-        <v>0.9664921256222319</v>
+        <v>1.0344468954371</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044815</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.9816753805148078</v>
+        <v>1.025094663423481</v>
       </c>
       <c r="K19">
-        <v>0.9815908309259295</v>
+        <v>1.031501028381117</v>
       </c>
       <c r="L19">
-        <v>0.9807353841323695</v>
+        <v>1.023483666190937</v>
       </c>
       <c r="M19">
-        <v>0.9808476446519035</v>
+        <v>1.037761849312174</v>
       </c>
       <c r="N19">
-        <v>0.9969266659942169</v>
+        <v>1.012265988675049</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.950533364249597</v>
+        <v>1.018470718272737</v>
       </c>
       <c r="D20">
-        <v>0.9651205957310411</v>
+        <v>1.027741828698423</v>
       </c>
       <c r="E20">
-        <v>0.964507545401294</v>
+        <v>1.01974793021937</v>
       </c>
       <c r="F20">
-        <v>0.9641161440059047</v>
+        <v>1.033971652629332</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030192</v>
       </c>
       <c r="J20">
-        <v>0.980113949581193</v>
+        <v>1.024787226567877</v>
       </c>
       <c r="K20">
-        <v>0.9798057965676008</v>
+        <v>1.031144474624801</v>
       </c>
       <c r="L20">
-        <v>0.9792045807746582</v>
+        <v>1.023179245750419</v>
       </c>
       <c r="M20">
-        <v>0.978820745442915</v>
+        <v>1.037352294459243</v>
       </c>
       <c r="N20">
-        <v>0.9963685599399654</v>
+        <v>1.012159423679525</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9428114270012873</v>
+        <v>1.017062038045568</v>
       </c>
       <c r="D21">
-        <v>0.9580386605370202</v>
+        <v>1.026368739714358</v>
       </c>
       <c r="E21">
-        <v>0.9582897456530831</v>
+        <v>1.018542843298229</v>
       </c>
       <c r="F21">
-        <v>0.9562115847167353</v>
+        <v>1.032427517046176</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.9749112842371386</v>
+        <v>1.023787178834854</v>
       </c>
       <c r="K21">
-        <v>0.9738611334734594</v>
+        <v>1.029985094237147</v>
       </c>
       <c r="L21">
-        <v>0.9741068955434343</v>
+        <v>1.022189185020517</v>
       </c>
       <c r="M21">
-        <v>0.9720729035024969</v>
+        <v>1.036021001468363</v>
       </c>
       <c r="N21">
-        <v>0.9945078077448867</v>
+        <v>1.011812372979427</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9378012282766537</v>
+        <v>1.016176357773045</v>
       </c>
       <c r="D22">
-        <v>0.953454046240493</v>
+        <v>1.025505851257195</v>
       </c>
       <c r="E22">
-        <v>0.954267514198292</v>
+        <v>1.017785494204068</v>
       </c>
       <c r="F22">
-        <v>0.9510936065227206</v>
+        <v>1.031457350459448</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.9715367596442255</v>
+        <v>1.023157984808569</v>
       </c>
       <c r="K22">
-        <v>0.9700076356223029</v>
+        <v>1.029255988901635</v>
       </c>
       <c r="L22">
-        <v>0.9708028425928359</v>
+        <v>1.021566409584932</v>
       </c>
       <c r="M22">
-        <v>0.9677004196832322</v>
+        <v>1.035184111500782</v>
       </c>
       <c r="N22">
-        <v>0.9933001675110107</v>
+        <v>1.011593708098701</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9404726496076208</v>
+        <v>1.016645873480442</v>
       </c>
       <c r="D23">
-        <v>0.955897540113594</v>
+        <v>1.025963245108554</v>
       </c>
       <c r="E23">
-        <v>0.9564109707088588</v>
+        <v>1.018186947949124</v>
       </c>
       <c r="F23">
-        <v>0.953821466395487</v>
+        <v>1.03197158949945</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288664</v>
       </c>
       <c r="J23">
-        <v>0.9733359094695082</v>
+        <v>1.023491573321971</v>
       </c>
       <c r="K23">
-        <v>0.9720619410656399</v>
+        <v>1.029642517048552</v>
       </c>
       <c r="L23">
-        <v>0.9725641886089966</v>
+        <v>1.02189658219874</v>
       </c>
       <c r="M23">
-        <v>0.9700312495692948</v>
+        <v>1.035627749684603</v>
       </c>
       <c r="N23">
-        <v>0.993944086697456</v>
+        <v>1.011709670270188</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9506603471266289</v>
+        <v>1.018494335439358</v>
       </c>
       <c r="D24">
-        <v>0.9652372167550805</v>
+        <v>1.027764856144745</v>
       </c>
       <c r="E24">
-        <v>0.9646099809515873</v>
+        <v>1.019768139505434</v>
       </c>
       <c r="F24">
-        <v>0.9642463016618219</v>
+        <v>1.033997552243425</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.9801995159409744</v>
+        <v>1.024803985449675</v>
       </c>
       <c r="K24">
-        <v>0.979903604957346</v>
+        <v>1.031163909298149</v>
       </c>
       <c r="L24">
-        <v>0.9792884581553929</v>
+        <v>1.023195839545055</v>
       </c>
       <c r="M24">
-        <v>0.9789317976593549</v>
+        <v>1.03737461645025</v>
       </c>
       <c r="N24">
-        <v>0.9963991487841176</v>
+        <v>1.012165234259987</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9618731056379989</v>
+        <v>1.020639535189353</v>
       </c>
       <c r="D25">
-        <v>0.9755560511182382</v>
+        <v>1.02985746907419</v>
       </c>
       <c r="E25">
-        <v>0.9736789809132785</v>
+        <v>1.02160455068109</v>
       </c>
       <c r="F25">
-        <v>0.975762240797179</v>
+        <v>1.036351690044639</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.987755430974228</v>
+        <v>1.026325182656157</v>
       </c>
       <c r="K25">
-        <v>0.9885460628824713</v>
+        <v>1.032928791908624</v>
       </c>
       <c r="L25">
-        <v>0.9867001183168412</v>
+        <v>1.024702370860776</v>
       </c>
       <c r="M25">
-        <v>0.9887488429120582</v>
+        <v>1.039402486532032</v>
       </c>
       <c r="N25">
-        <v>0.9990978625977335</v>
+        <v>1.01269190116642</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022350787414186</v>
+        <v>0.970387926159442</v>
       </c>
       <c r="D2">
-        <v>1.031528190178009</v>
+        <v>0.9834203820070234</v>
       </c>
       <c r="E2">
-        <v>1.023070562848129</v>
+        <v>0.9805972625657208</v>
       </c>
       <c r="F2">
-        <v>1.038231974351167</v>
+        <v>0.98453900424959</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.023594999628091</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.027537115733058</v>
+        <v>0.9934919008188738</v>
       </c>
       <c r="K2">
-        <v>1.034336047918498</v>
+        <v>0.9951156339500006</v>
       </c>
       <c r="L2">
-        <v>1.025903081956963</v>
+        <v>0.9923336942538044</v>
       </c>
       <c r="M2">
-        <v>1.041020594774783</v>
+        <v>0.9962180221006663</v>
       </c>
       <c r="N2">
-        <v>1.013110380410271</v>
+        <v>1.001142583449286</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023593510720765</v>
+        <v>0.9763490833094181</v>
       </c>
       <c r="D3">
-        <v>1.0327422910951</v>
+        <v>0.9889411636448449</v>
       </c>
       <c r="E3">
-        <v>1.024135802793349</v>
+        <v>0.9854568658910321</v>
       </c>
       <c r="F3">
-        <v>1.039598811691194</v>
+        <v>0.9907010294037469</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208683</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.028416327729058</v>
+        <v>0.997505940059614</v>
       </c>
       <c r="K3">
-        <v>1.03535764479218</v>
+        <v>0.9997175276507292</v>
       </c>
       <c r="L3">
-        <v>1.026774417607138</v>
+        <v>0.9962792741240823</v>
       </c>
       <c r="M3">
-        <v>1.042195931920883</v>
+        <v>1.001454291443158</v>
       </c>
       <c r="N3">
-        <v>1.013413320091271</v>
+        <v>1.002570513200314</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024397749068384</v>
+        <v>0.9801118835607739</v>
       </c>
       <c r="D4">
-        <v>1.033528378173576</v>
+        <v>0.9924325428984863</v>
       </c>
       <c r="E4">
-        <v>1.024825458674122</v>
+        <v>0.9885312375131459</v>
       </c>
       <c r="F4">
-        <v>1.040483999279208</v>
+        <v>0.9945984641690955</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.028984897215537</v>
+        <v>1.000038384051627</v>
       </c>
       <c r="K4">
-        <v>1.036018609460988</v>
+        <v>1.002623166753065</v>
       </c>
       <c r="L4">
-        <v>1.027338015034045</v>
+        <v>0.9987700800216907</v>
       </c>
       <c r="M4">
-        <v>1.042956677041178</v>
+        <v>1.004762521128084</v>
       </c>
       <c r="N4">
-        <v>1.01360892233744</v>
+        <v>1.003469934716258</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024735880523187</v>
+        <v>0.9816722392291294</v>
       </c>
       <c r="D5">
-        <v>1.033858966674272</v>
+        <v>0.9938818633909946</v>
       </c>
       <c r="E5">
-        <v>1.025115480973066</v>
+        <v>0.9898076891709767</v>
       </c>
       <c r="F5">
-        <v>1.040856314753914</v>
+        <v>0.9962164985299159</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628374</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.029223844021569</v>
+        <v>1.001088174229124</v>
       </c>
       <c r="K5">
-        <v>1.036296462350705</v>
+        <v>1.003828224396492</v>
       </c>
       <c r="L5">
-        <v>1.027574901192634</v>
+        <v>0.9998029706818777</v>
       </c>
       <c r="M5">
-        <v>1.043276549872753</v>
+        <v>1.006135049999643</v>
       </c>
       <c r="N5">
-        <v>1.013691053268918</v>
+        <v>1.00384240859526</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024792656095008</v>
+        <v>0.9819329978669431</v>
       </c>
       <c r="D6">
-        <v>1.033914480884999</v>
+        <v>0.9941241540920496</v>
       </c>
       <c r="E6">
-        <v>1.025164182366333</v>
+        <v>0.9900210934507802</v>
       </c>
       <c r="F6">
-        <v>1.040918838941032</v>
+        <v>0.9964870038958441</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.029263959604413</v>
+        <v>1.001263587055334</v>
       </c>
       <c r="K6">
-        <v>1.03634311414718</v>
+        <v>1.004029614786234</v>
       </c>
       <c r="L6">
-        <v>1.027614672514299</v>
+        <v>0.9999755806160654</v>
       </c>
       <c r="M6">
-        <v>1.043330261249269</v>
+        <v>1.006364458400133</v>
       </c>
       <c r="N6">
-        <v>1.013704837543325</v>
+        <v>1.003904624183512</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024402267077738</v>
+        <v>0.980132816302864</v>
       </c>
       <c r="D7">
-        <v>1.033532795049187</v>
+        <v>0.9924519801333977</v>
       </c>
       <c r="E7">
-        <v>1.024829333607175</v>
+        <v>0.9885483554631607</v>
       </c>
       <c r="F7">
-        <v>1.040488973456156</v>
+        <v>0.9946201634259348</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023442985510381</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.028988090346213</v>
+        <v>1.000052468867941</v>
       </c>
       <c r="K7">
-        <v>1.036022322208185</v>
+        <v>1.002639332518064</v>
       </c>
       <c r="L7">
-        <v>1.027341180514155</v>
+        <v>0.998783936688039</v>
       </c>
       <c r="M7">
-        <v>1.042960950976578</v>
+        <v>1.004780931495421</v>
       </c>
       <c r="N7">
-        <v>1.013610020168529</v>
+        <v>1.003474933606174</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022770749646191</v>
+        <v>0.9724227674963144</v>
       </c>
       <c r="D8">
-        <v>1.031938402518974</v>
+        <v>0.98530348850378</v>
       </c>
       <c r="E8">
-        <v>1.023430488954062</v>
+        <v>0.9822545875483917</v>
       </c>
       <c r="F8">
-        <v>1.038693749124722</v>
+        <v>0.9866407415430793</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.027834320712148</v>
+        <v>0.9948623340110129</v>
       </c>
       <c r="K8">
-        <v>1.034681318314148</v>
+        <v>0.9966862834495684</v>
       </c>
       <c r="L8">
-        <v>1.026197599202938</v>
+        <v>0.9936804207666453</v>
       </c>
       <c r="M8">
-        <v>1.041417760474974</v>
+        <v>0.9980047658054193</v>
       </c>
       <c r="N8">
-        <v>1.01321284743053</v>
+        <v>1.001630386487763</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019896561574956</v>
+        <v>0.958060001004893</v>
       </c>
       <c r="D9">
-        <v>1.029132487648932</v>
+        <v>0.9720422419965713</v>
       </c>
       <c r="E9">
-        <v>1.020968353559982</v>
+        <v>0.9705896241751731</v>
       </c>
       <c r="F9">
-        <v>1.035535986312456</v>
+        <v>0.9718408744294644</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.025798565733093</v>
+        <v>0.9851859468154541</v>
       </c>
       <c r="K9">
-        <v>1.032317632095827</v>
+        <v>0.9856058079599</v>
       </c>
       <c r="L9">
-        <v>1.02418075904107</v>
+        <v>0.9841785952718977</v>
       </c>
       <c r="M9">
-        <v>1.038700078505806</v>
+        <v>0.9854079562792682</v>
       </c>
       <c r="N9">
-        <v>1.012509748483676</v>
+        <v>0.9981807260147221</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017980783264893</v>
+        <v>0.9478809748393704</v>
       </c>
       <c r="D10">
-        <v>1.027264179551022</v>
+        <v>0.9626858489950448</v>
       </c>
       <c r="E10">
-        <v>1.01932873190335</v>
+        <v>0.9623692787768384</v>
       </c>
       <c r="F10">
-        <v>1.033434454454586</v>
+        <v>0.961398723610965</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.0244395104461</v>
+        <v>0.9783267265606329</v>
       </c>
       <c r="K10">
-        <v>1.030741283319736</v>
+        <v>0.9777631688320687</v>
       </c>
       <c r="L10">
-        <v>1.022834971900182</v>
+        <v>0.9774529147323701</v>
       </c>
       <c r="M10">
-        <v>1.036889244533729</v>
+        <v>0.9765017579096978</v>
       </c>
       <c r="N10">
-        <v>1.012038824820527</v>
+        <v>0.9957295369560452</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.017151276390657</v>
+        <v>0.9433094364352841</v>
       </c>
       <c r="D11">
-        <v>1.026455699255192</v>
+        <v>0.9584948100232452</v>
       </c>
       <c r="E11">
-        <v>1.018619165307329</v>
+        <v>0.9586900712138913</v>
       </c>
       <c r="F11">
-        <v>1.032525296757998</v>
+        <v>0.9567207615304999</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.023850556107359</v>
+        <v>0.9752467652338254</v>
       </c>
       <c r="K11">
-        <v>1.030058549531311</v>
+        <v>0.9742443266524119</v>
       </c>
       <c r="L11">
-        <v>1.022251921506253</v>
+        <v>0.9744354723468927</v>
       </c>
       <c r="M11">
-        <v>1.036105329595163</v>
+        <v>0.9725077714698407</v>
       </c>
       <c r="N11">
-        <v>1.011834385359114</v>
+        <v>0.9946278391905975</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016843163104841</v>
+        <v>0.941584751104615</v>
       </c>
       <c r="D12">
-        <v>1.02615546770797</v>
+        <v>0.9569154343587629</v>
       </c>
       <c r="E12">
-        <v>1.018355659059484</v>
+        <v>0.957304080406586</v>
       </c>
       <c r="F12">
-        <v>1.032187715109719</v>
+        <v>0.9549577545359776</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268129</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.02363171906525</v>
+        <v>0.9740849814364464</v>
       </c>
       <c r="K12">
-        <v>1.029804924881122</v>
+        <v>0.9729173883251587</v>
       </c>
       <c r="L12">
-        <v>1.022035301521377</v>
+        <v>0.9732976767556913</v>
       </c>
       <c r="M12">
-        <v>1.035814174280222</v>
+        <v>0.9710019446003557</v>
       </c>
       <c r="N12">
-        <v>1.011758367914563</v>
+        <v>0.9942121430653502</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016909254388389</v>
+        <v>0.9419559403173018</v>
       </c>
       <c r="D13">
-        <v>1.02621986508416</v>
+        <v>0.9572552686236531</v>
       </c>
       <c r="E13">
-        <v>1.018412179430913</v>
+        <v>0.957602280323285</v>
       </c>
       <c r="F13">
-        <v>1.032260122139005</v>
+        <v>0.9553371077606719</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405789</v>
       </c>
       <c r="J13">
-        <v>1.023678663695606</v>
+        <v>0.9743350125285731</v>
       </c>
       <c r="K13">
-        <v>1.029859329483643</v>
+        <v>0.9732029452024702</v>
       </c>
       <c r="L13">
-        <v>1.022081769492735</v>
+        <v>0.9735425265903042</v>
       </c>
       <c r="M13">
-        <v>1.035876626968145</v>
+        <v>0.971325985721895</v>
       </c>
       <c r="N13">
-        <v>1.011774677520252</v>
+        <v>0.9943016115779203</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017125807617683</v>
+        <v>0.9431674284862115</v>
       </c>
       <c r="D14">
-        <v>1.026430880526107</v>
+        <v>0.9583647303053722</v>
       </c>
       <c r="E14">
-        <v>1.018597382618046</v>
+        <v>0.9585759083820137</v>
       </c>
       <c r="F14">
-        <v>1.032497389723697</v>
+        <v>0.9565755607363684</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353276</v>
+        <v>1.044410650012189</v>
       </c>
       <c r="J14">
-        <v>1.023832468472985</v>
+        <v>0.9751511015328265</v>
       </c>
       <c r="K14">
-        <v>1.030037585400714</v>
+        <v>0.9741350558388857</v>
       </c>
       <c r="L14">
-        <v>1.022234016642251</v>
+        <v>0.9743417755199921</v>
       </c>
       <c r="M14">
-        <v>1.036081262099261</v>
+        <v>0.9723837638582198</v>
       </c>
       <c r="N14">
-        <v>1.011828103358284</v>
+        <v>0.994593612316364</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017259233445825</v>
+        <v>0.9439102771563269</v>
       </c>
       <c r="D15">
-        <v>1.026560903839274</v>
+        <v>0.9590452542272407</v>
       </c>
       <c r="E15">
-        <v>1.018711500096753</v>
+        <v>0.9591731825161894</v>
       </c>
       <c r="F15">
-        <v>1.032643593921437</v>
+        <v>0.9573351860892871</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.023927222918935</v>
+        <v>0.9756515296727786</v>
       </c>
       <c r="K15">
-        <v>1.030147411120228</v>
+        <v>0.9747066803845075</v>
       </c>
       <c r="L15">
-        <v>1.022327814578219</v>
+        <v>0.974831931349422</v>
       </c>
       <c r="M15">
-        <v>1.036207347869417</v>
+        <v>0.9730324919995788</v>
       </c>
       <c r="N15">
-        <v>1.011861010229249</v>
+        <v>0.9947726521326503</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018035835429233</v>
+        <v>0.9481807541067178</v>
       </c>
       <c r="D16">
-        <v>1.027317846245128</v>
+        <v>0.9629609145311778</v>
       </c>
       <c r="E16">
-        <v>1.019375831785874</v>
+        <v>0.9626108182090501</v>
       </c>
       <c r="F16">
-        <v>1.033494809256067</v>
+        <v>0.9617057307284828</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.024478587248081</v>
+        <v>0.9785287154038689</v>
       </c>
       <c r="K16">
-        <v>1.030786590459598</v>
+        <v>0.9779939953157271</v>
       </c>
       <c r="L16">
-        <v>1.022873660240158</v>
+        <v>0.9776508583295885</v>
       </c>
       <c r="M16">
-        <v>1.036941274122436</v>
+        <v>0.9767637933684434</v>
       </c>
       <c r="N16">
-        <v>1.012052381666033</v>
+        <v>0.9958017687443489</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018522985208828</v>
+        <v>0.9508142818763785</v>
       </c>
       <c r="D17">
-        <v>1.027792790841299</v>
+        <v>0.9653785974608002</v>
       </c>
       <c r="E17">
-        <v>1.019792655448252</v>
+        <v>0.9647341663628699</v>
       </c>
       <c r="F17">
-        <v>1.034028971342202</v>
+        <v>0.9644040926050899</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.024824315165395</v>
+        <v>0.9803032439333655</v>
       </c>
       <c r="K17">
-        <v>1.031187485193935</v>
+        <v>0.9800221751314747</v>
       </c>
       <c r="L17">
-        <v>1.023215969099819</v>
+        <v>0.9793901403225996</v>
       </c>
       <c r="M17">
-        <v>1.037401695154321</v>
+        <v>0.9790664242734886</v>
       </c>
       <c r="N17">
-        <v>1.012172282668454</v>
+        <v>0.9964362294706767</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01880713529372</v>
+        <v>0.9523346992121373</v>
       </c>
       <c r="D18">
-        <v>1.028069867312774</v>
+        <v>0.9667754362692617</v>
       </c>
       <c r="E18">
-        <v>1.020035820392532</v>
+        <v>0.9659612260658469</v>
       </c>
       <c r="F18">
-        <v>1.034340618327947</v>
+        <v>0.9659630452978218</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601784</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.025025926763863</v>
+        <v>0.9813277854817518</v>
       </c>
       <c r="K18">
-        <v>1.031421304602491</v>
+        <v>0.9811934202735976</v>
       </c>
       <c r="L18">
-        <v>1.023415601722137</v>
+        <v>0.980394571761647</v>
       </c>
       <c r="M18">
-        <v>1.037670269284659</v>
+        <v>0.9803963566324772</v>
       </c>
       <c r="N18">
-        <v>1.012242168134054</v>
+        <v>0.9968024401878207</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018904023879935</v>
+        <v>0.9528505203331804</v>
       </c>
       <c r="D19">
-        <v>1.028164351670755</v>
+        <v>0.9672495045624999</v>
       </c>
       <c r="E19">
-        <v>1.020118739981219</v>
+        <v>0.9663777186839867</v>
       </c>
       <c r="F19">
-        <v>1.0344468954371</v>
+        <v>0.9664921256222316</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044815</v>
       </c>
       <c r="J19">
-        <v>1.025094663423481</v>
+        <v>0.9816753805148076</v>
       </c>
       <c r="K19">
-        <v>1.031501028381117</v>
+        <v>0.9815908309259294</v>
       </c>
       <c r="L19">
-        <v>1.023483666190937</v>
+        <v>0.9807353841323692</v>
       </c>
       <c r="M19">
-        <v>1.037761849312174</v>
+        <v>0.9808476446519034</v>
       </c>
       <c r="N19">
-        <v>1.012265988675049</v>
+        <v>0.9969266659942168</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018470718272737</v>
+        <v>0.9505333642495964</v>
       </c>
       <c r="D20">
-        <v>1.027741828698423</v>
+        <v>0.9651205957310406</v>
       </c>
       <c r="E20">
-        <v>1.01974793021937</v>
+        <v>0.9645075454012936</v>
       </c>
       <c r="F20">
-        <v>1.033971652629332</v>
+        <v>0.9641161440059047</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030192</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.024787226567877</v>
+        <v>0.9801139495811928</v>
       </c>
       <c r="K20">
-        <v>1.031144474624801</v>
+        <v>0.9798057965676005</v>
       </c>
       <c r="L20">
-        <v>1.023179245750419</v>
+        <v>0.9792045807746577</v>
       </c>
       <c r="M20">
-        <v>1.037352294459243</v>
+        <v>0.9788207454429148</v>
       </c>
       <c r="N20">
-        <v>1.012159423679525</v>
+        <v>0.9963685599399653</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017062038045568</v>
+        <v>0.9428114270012875</v>
       </c>
       <c r="D21">
-        <v>1.026368739714358</v>
+        <v>0.9580386605370204</v>
       </c>
       <c r="E21">
-        <v>1.018542843298229</v>
+        <v>0.9582897456530833</v>
       </c>
       <c r="F21">
-        <v>1.032427517046176</v>
+        <v>0.9562115847167353</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.023787178834854</v>
+        <v>0.9749112842371389</v>
       </c>
       <c r="K21">
-        <v>1.029985094237147</v>
+        <v>0.9738611334734594</v>
       </c>
       <c r="L21">
-        <v>1.022189185020517</v>
+        <v>0.9741068955434348</v>
       </c>
       <c r="M21">
-        <v>1.036021001468363</v>
+        <v>0.9720729035024968</v>
       </c>
       <c r="N21">
-        <v>1.011812372979427</v>
+        <v>0.994507807744887</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.016176357773045</v>
+        <v>0.9378012282766527</v>
       </c>
       <c r="D22">
-        <v>1.025505851257195</v>
+        <v>0.9534540462404917</v>
       </c>
       <c r="E22">
-        <v>1.017785494204068</v>
+        <v>0.954267514198291</v>
       </c>
       <c r="F22">
-        <v>1.031457350459448</v>
+        <v>0.9510936065227193</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.023157984808569</v>
+        <v>0.9715367596442244</v>
       </c>
       <c r="K22">
-        <v>1.029255988901635</v>
+        <v>0.9700076356223019</v>
       </c>
       <c r="L22">
-        <v>1.021566409584932</v>
+        <v>0.9708028425928348</v>
       </c>
       <c r="M22">
-        <v>1.035184111500782</v>
+        <v>0.9677004196832312</v>
       </c>
       <c r="N22">
-        <v>1.011593708098701</v>
+        <v>0.9933001675110105</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016645873480442</v>
+        <v>0.9404726496076201</v>
       </c>
       <c r="D23">
-        <v>1.025963245108554</v>
+        <v>0.9558975401135937</v>
       </c>
       <c r="E23">
-        <v>1.018186947949124</v>
+        <v>0.9564109707088581</v>
       </c>
       <c r="F23">
-        <v>1.03197158949945</v>
+        <v>0.9538214663954863</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288664</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.023491573321971</v>
+        <v>0.9733359094695078</v>
       </c>
       <c r="K23">
-        <v>1.029642517048552</v>
+        <v>0.9720619410656395</v>
       </c>
       <c r="L23">
-        <v>1.02189658219874</v>
+        <v>0.972564188608996</v>
       </c>
       <c r="M23">
-        <v>1.035627749684603</v>
+        <v>0.9700312495692941</v>
       </c>
       <c r="N23">
-        <v>1.011709670270188</v>
+        <v>0.9939440866974558</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018494335439358</v>
+        <v>0.9506603471266285</v>
       </c>
       <c r="D24">
-        <v>1.027764856144745</v>
+        <v>0.96523721675508</v>
       </c>
       <c r="E24">
-        <v>1.019768139505434</v>
+        <v>0.9646099809515871</v>
       </c>
       <c r="F24">
-        <v>1.033997552243425</v>
+        <v>0.9642463016618216</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.024803985449675</v>
+        <v>0.9801995159409742</v>
       </c>
       <c r="K24">
-        <v>1.031163909298149</v>
+        <v>0.9799036049573456</v>
       </c>
       <c r="L24">
-        <v>1.023195839545055</v>
+        <v>0.9792884581553927</v>
       </c>
       <c r="M24">
-        <v>1.03737461645025</v>
+        <v>0.9789317976593542</v>
       </c>
       <c r="N24">
-        <v>1.012165234259987</v>
+        <v>0.9963991487841175</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020639535189353</v>
+        <v>0.9618731056379994</v>
       </c>
       <c r="D25">
-        <v>1.02985746907419</v>
+        <v>0.9755560511182385</v>
       </c>
       <c r="E25">
-        <v>1.02160455068109</v>
+        <v>0.9736789809132788</v>
       </c>
       <c r="F25">
-        <v>1.036351690044639</v>
+        <v>0.9757622407971794</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.026325182656157</v>
+        <v>0.9877554309742285</v>
       </c>
       <c r="K25">
-        <v>1.032928791908624</v>
+        <v>0.9885460628824716</v>
       </c>
       <c r="L25">
-        <v>1.024702370860776</v>
+        <v>0.9867001183168416</v>
       </c>
       <c r="M25">
-        <v>1.039402486532032</v>
+        <v>0.9887488429120588</v>
       </c>
       <c r="N25">
-        <v>1.01269190116642</v>
+        <v>0.9990978625977338</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.970387926159442</v>
+        <v>1.005953867799728</v>
       </c>
       <c r="D2">
-        <v>0.9834203820070234</v>
+        <v>1.017645907619849</v>
       </c>
       <c r="E2">
-        <v>0.9805972625657208</v>
+        <v>1.021280732676972</v>
       </c>
       <c r="F2">
-        <v>0.98453900424959</v>
+        <v>1.031566546601742</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.046435055522113</v>
       </c>
       <c r="J2">
-        <v>0.9934919008188738</v>
+        <v>1.027957946402276</v>
       </c>
       <c r="K2">
-        <v>0.9951156339500006</v>
+        <v>1.028864761142164</v>
       </c>
       <c r="L2">
-        <v>0.9923336942538044</v>
+        <v>1.032451345251971</v>
       </c>
       <c r="M2">
-        <v>0.9962180221006663</v>
+        <v>1.042602951835564</v>
       </c>
       <c r="N2">
-        <v>1.001142583449286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013178627016059</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.042289767037741</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.031480042402813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9763490833094181</v>
+        <v>1.009331697773001</v>
       </c>
       <c r="D3">
-        <v>0.9889411636448449</v>
+        <v>1.020071250930459</v>
       </c>
       <c r="E3">
-        <v>0.9854568658910321</v>
+        <v>1.023890086096255</v>
       </c>
       <c r="F3">
-        <v>0.9907010294037469</v>
+        <v>1.034122899759098</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.046931608525998</v>
       </c>
       <c r="J3">
-        <v>0.997505940059614</v>
+        <v>1.029571163976074</v>
       </c>
       <c r="K3">
-        <v>0.9997175276507292</v>
+        <v>1.030453599266141</v>
       </c>
       <c r="L3">
-        <v>0.9962792741240823</v>
+        <v>1.034226148356409</v>
       </c>
       <c r="M3">
-        <v>1.001454291443158</v>
+        <v>1.044337022529744</v>
       </c>
       <c r="N3">
-        <v>1.002570513200314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01372771900706</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.04366216303361</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.03260082040595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9801118835607739</v>
+        <v>1.011482652032629</v>
       </c>
       <c r="D4">
-        <v>0.9924325428984863</v>
+        <v>1.021622316554625</v>
       </c>
       <c r="E4">
-        <v>0.9885312375131459</v>
+        <v>1.025557494220032</v>
       </c>
       <c r="F4">
-        <v>0.9945984641690955</v>
+        <v>1.03575702704028</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.0472374274253</v>
       </c>
       <c r="J4">
-        <v>1.000038384051627</v>
+        <v>1.030597122395783</v>
       </c>
       <c r="K4">
-        <v>1.002623166753065</v>
+        <v>1.031466599542273</v>
       </c>
       <c r="L4">
-        <v>0.9987700800216907</v>
+        <v>1.035356945917788</v>
       </c>
       <c r="M4">
-        <v>1.004762521128084</v>
+        <v>1.045442231368302</v>
       </c>
       <c r="N4">
-        <v>1.003469934716258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014076835543183</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.044536857387818</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.033318015952183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9816722392291294</v>
+        <v>1.012382214988646</v>
       </c>
       <c r="D5">
-        <v>0.9938818633909946</v>
+        <v>1.022275451642655</v>
       </c>
       <c r="E5">
-        <v>0.9898076891709767</v>
+        <v>1.026256365423491</v>
       </c>
       <c r="F5">
-        <v>0.9962164985299159</v>
+        <v>1.036441539819216</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.047363595892978</v>
       </c>
       <c r="J5">
-        <v>1.001088174229124</v>
+        <v>1.031027550589898</v>
       </c>
       <c r="K5">
-        <v>1.003828224396492</v>
+        <v>1.031894212148539</v>
       </c>
       <c r="L5">
-        <v>0.9998029706818777</v>
+        <v>1.035830976646273</v>
       </c>
       <c r="M5">
-        <v>1.006135049999643</v>
+        <v>1.045905088167652</v>
       </c>
       <c r="N5">
-        <v>1.00384240859526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014223511442097</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044903175382586</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.03362761207735</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9819329978669431</v>
+        <v>1.012536925292598</v>
       </c>
       <c r="D6">
-        <v>0.9941241540920496</v>
+        <v>1.022391368176977</v>
       </c>
       <c r="E6">
-        <v>0.9900210934507802</v>
+        <v>1.026376842737371</v>
       </c>
       <c r="F6">
-        <v>0.9964870038958441</v>
+        <v>1.036558886861223</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.047386122726011</v>
       </c>
       <c r="J6">
-        <v>1.001263587055334</v>
+        <v>1.031103617123752</v>
       </c>
       <c r="K6">
-        <v>1.004029614786234</v>
+        <v>1.031972233238681</v>
       </c>
       <c r="L6">
-        <v>0.9999755806160654</v>
+        <v>1.035913709771947</v>
       </c>
       <c r="M6">
-        <v>1.006364458400133</v>
+        <v>1.045985231187258</v>
       </c>
       <c r="N6">
-        <v>1.003904624183512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014249712537307</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044966602822049</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.033691600161146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.980132816302864</v>
+        <v>1.011505868127151</v>
       </c>
       <c r="D7">
-        <v>0.9924519801333977</v>
+        <v>1.021648527605192</v>
       </c>
       <c r="E7">
-        <v>0.9885483554631607</v>
+        <v>1.025576077215359</v>
       </c>
       <c r="F7">
-        <v>0.9946201634259348</v>
+        <v>1.03577344175872</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874438</v>
+        <v>1.047243331470737</v>
       </c>
       <c r="J7">
-        <v>1.000052468867941</v>
+        <v>1.03061377791563</v>
       </c>
       <c r="K7">
-        <v>1.002639332518064</v>
+        <v>1.031489594395726</v>
       </c>
       <c r="L7">
-        <v>0.998783936688039</v>
+        <v>1.035372416978454</v>
       </c>
       <c r="M7">
-        <v>1.004780931495421</v>
+        <v>1.045455601293951</v>
       </c>
       <c r="N7">
-        <v>1.003474933606174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014083278135707</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.044547438728637</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.033354562446426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9724227674963144</v>
+        <v>1.007116850472351</v>
       </c>
       <c r="D8">
-        <v>0.98530348850378</v>
+        <v>1.01849118801313</v>
       </c>
       <c r="E8">
-        <v>0.9822545875483917</v>
+        <v>1.022178665263551</v>
       </c>
       <c r="F8">
-        <v>0.9866407415430793</v>
+        <v>1.032443866111215</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.046611413253163</v>
       </c>
       <c r="J8">
-        <v>0.9948623340110129</v>
+        <v>1.028520603135465</v>
       </c>
       <c r="K8">
-        <v>0.9966862834495684</v>
+        <v>1.029426377004454</v>
       </c>
       <c r="L8">
-        <v>0.9936804207666453</v>
+        <v>1.03306636457423</v>
       </c>
       <c r="M8">
-        <v>0.9980047658054193</v>
+        <v>1.04320159124542</v>
       </c>
       <c r="N8">
-        <v>1.001630386487763</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013371163405365</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.042763548665825</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.031900279745755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.958060001004893</v>
+        <v>0.9990884997605779</v>
       </c>
       <c r="D9">
-        <v>0.9720422419965713</v>
+        <v>1.012754454269284</v>
       </c>
       <c r="E9">
-        <v>0.9705896241751731</v>
+        <v>1.016010484422335</v>
       </c>
       <c r="F9">
-        <v>0.9718408744294644</v>
+        <v>1.026406568526626</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.045370981086467</v>
       </c>
       <c r="J9">
-        <v>0.9851859468154541</v>
+        <v>1.024673486561037</v>
       </c>
       <c r="K9">
-        <v>0.9856058079599</v>
+        <v>1.025643933980273</v>
       </c>
       <c r="L9">
-        <v>0.9841785952718977</v>
+        <v>1.028849035603578</v>
       </c>
       <c r="M9">
-        <v>0.9854079562792682</v>
+        <v>1.039085268177401</v>
       </c>
       <c r="N9">
-        <v>0.9981807260147221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012060408401023</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.039505757806809</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.029222583797706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9478809748393704</v>
+        <v>0.9935884740919271</v>
       </c>
       <c r="D10">
-        <v>0.9626858489950448</v>
+        <v>1.008871544608948</v>
       </c>
       <c r="E10">
-        <v>0.9623692787768384</v>
+        <v>1.011852060350488</v>
       </c>
       <c r="F10">
-        <v>0.961398723610965</v>
+        <v>1.022388754679967</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.044486708358096</v>
       </c>
       <c r="J10">
-        <v>0.9783267265606329</v>
+        <v>1.022058802385968</v>
       </c>
       <c r="K10">
-        <v>0.9777631688320687</v>
+        <v>1.023082446966372</v>
       </c>
       <c r="L10">
-        <v>0.9774529147323701</v>
+        <v>1.026010569483842</v>
       </c>
       <c r="M10">
-        <v>0.9765017579096978</v>
+        <v>1.036365206585412</v>
       </c>
       <c r="N10">
-        <v>0.9957295369560452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011172862993956</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.037404510714487</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.027428403824911</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9433094364352841</v>
+        <v>0.9915676085665575</v>
       </c>
       <c r="D11">
-        <v>0.9584948100232452</v>
+        <v>1.0075166222451</v>
       </c>
       <c r="E11">
-        <v>0.9586900712138913</v>
+        <v>1.010598543729096</v>
       </c>
       <c r="F11">
-        <v>0.9567207615304999</v>
+        <v>1.021573225155465</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.044284526284506</v>
       </c>
       <c r="J11">
-        <v>0.9752467652338254</v>
+        <v>1.021295441658081</v>
       </c>
       <c r="K11">
-        <v>0.9742443266524119</v>
+        <v>1.022298164720425</v>
       </c>
       <c r="L11">
-        <v>0.9744354723468927</v>
+        <v>1.025323317097801</v>
       </c>
       <c r="M11">
-        <v>0.9725077714698407</v>
+        <v>1.036099455708309</v>
       </c>
       <c r="N11">
-        <v>0.9946278391905975</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.01094342427217</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037630833746888</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.026907072781908</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.941584751104615</v>
+        <v>0.9909544718945348</v>
       </c>
       <c r="D12">
-        <v>0.9569154343587629</v>
+        <v>1.007125475155821</v>
       </c>
       <c r="E12">
-        <v>0.957304080406586</v>
+        <v>1.010333419554573</v>
       </c>
       <c r="F12">
-        <v>0.9549577545359776</v>
+        <v>1.021609345538862</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.044279001861537</v>
       </c>
       <c r="J12">
-        <v>0.9740849814364464</v>
+        <v>1.021146650377281</v>
       </c>
       <c r="K12">
-        <v>0.9729173883251587</v>
+        <v>1.022117423795441</v>
       </c>
       <c r="L12">
-        <v>0.9732976767556913</v>
+        <v>1.025265289622803</v>
       </c>
       <c r="M12">
-        <v>0.9710019446003557</v>
+        <v>1.036333933203171</v>
       </c>
       <c r="N12">
-        <v>0.9942121430653502</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010916804116671</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.038142907352011</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.026779280463247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9419559403173018</v>
+        <v>0.9913982493110207</v>
       </c>
       <c r="D13">
-        <v>0.9572552686236531</v>
+        <v>1.007469513219607</v>
       </c>
       <c r="E13">
-        <v>0.957602280323285</v>
+        <v>1.010824770377515</v>
       </c>
       <c r="F13">
-        <v>0.9553371077606719</v>
+        <v>1.022324613459577</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.044434867306065</v>
       </c>
       <c r="J13">
-        <v>0.9743350125285731</v>
+        <v>1.021477194563188</v>
       </c>
       <c r="K13">
-        <v>0.9732029452024702</v>
+        <v>1.022411436679525</v>
       </c>
       <c r="L13">
-        <v>0.9735425265903042</v>
+        <v>1.02570413465278</v>
       </c>
       <c r="M13">
-        <v>0.971325985721895</v>
+        <v>1.036993611391057</v>
       </c>
       <c r="N13">
-        <v>0.9943016115779203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011051045857109</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.038941283224909</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.026984641510793</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9431674284862115</v>
+        <v>0.9921890481426932</v>
       </c>
       <c r="D14">
-        <v>0.9583647303053722</v>
+        <v>1.0080463425373</v>
       </c>
       <c r="E14">
-        <v>0.9585759083820137</v>
+        <v>1.011511154178374</v>
       </c>
       <c r="F14">
-        <v>0.9565755607363684</v>
+        <v>1.023132065254574</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012189</v>
+        <v>1.04461698214687</v>
       </c>
       <c r="J14">
-        <v>0.9751511015328265</v>
+        <v>1.021926545378767</v>
       </c>
       <c r="K14">
-        <v>0.9741350558388857</v>
+        <v>1.02283486730556</v>
       </c>
       <c r="L14">
-        <v>0.9743417755199921</v>
+        <v>1.026235892243401</v>
       </c>
       <c r="M14">
-        <v>0.9723837638582198</v>
+        <v>1.037646958008701</v>
       </c>
       <c r="N14">
-        <v>0.994593612316364</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.0112182957383</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.039631092521592</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.027285467120645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9439102771563269</v>
+        <v>0.992617104423646</v>
       </c>
       <c r="D15">
-        <v>0.9590452542272407</v>
+        <v>1.00835453361637</v>
       </c>
       <c r="E15">
-        <v>0.9591731825161894</v>
+        <v>1.011852225990291</v>
       </c>
       <c r="F15">
-        <v>0.9573351860892871</v>
+        <v>1.0234924975141</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.044699550108433</v>
       </c>
       <c r="J15">
-        <v>0.9756515296727786</v>
+        <v>1.022147309229005</v>
       </c>
       <c r="K15">
-        <v>0.9747066803845075</v>
+        <v>1.023049535051168</v>
       </c>
       <c r="L15">
-        <v>0.974831931349422</v>
+        <v>1.026483329673096</v>
       </c>
       <c r="M15">
-        <v>0.9730324919995788</v>
+        <v>1.037915028822607</v>
       </c>
       <c r="N15">
-        <v>0.9947726521326503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011296653330734</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.039880514249331</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.027443181477895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9481807541067178</v>
+        <v>0.9948574628486029</v>
       </c>
       <c r="D16">
-        <v>0.9629609145311778</v>
+        <v>1.009929227695789</v>
       </c>
       <c r="E16">
-        <v>0.9626108182090501</v>
+        <v>1.013520954681012</v>
       </c>
       <c r="F16">
-        <v>0.9617057307284828</v>
+        <v>1.025086343633447</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.045059237869131</v>
       </c>
       <c r="J16">
-        <v>0.9785287154038689</v>
+        <v>1.023199165938418</v>
       </c>
       <c r="K16">
-        <v>0.9779939953157271</v>
+        <v>1.024085333531843</v>
       </c>
       <c r="L16">
-        <v>0.9776508583295885</v>
+        <v>1.027614327587012</v>
       </c>
       <c r="M16">
-        <v>0.9767637933684434</v>
+        <v>1.038981569461906</v>
       </c>
       <c r="N16">
-        <v>0.9958017687443489</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01164966055829</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.040684786974314</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.028178742805236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9508142818763785</v>
+        <v>0.9961646353374445</v>
       </c>
       <c r="D17">
-        <v>0.9653785974608002</v>
+        <v>1.010838815249685</v>
       </c>
       <c r="E17">
-        <v>0.9647341663628699</v>
+        <v>1.014443554848016</v>
       </c>
       <c r="F17">
-        <v>0.9644040926050899</v>
+        <v>1.025882389808851</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.045237246790527</v>
       </c>
       <c r="J17">
-        <v>0.9803032439333655</v>
+        <v>1.023771003016822</v>
       </c>
       <c r="K17">
-        <v>0.9800221751314747</v>
+        <v>1.024659432751559</v>
       </c>
       <c r="L17">
-        <v>0.9793901403225996</v>
+        <v>1.02820298854411</v>
       </c>
       <c r="M17">
-        <v>0.9790664242734886</v>
+        <v>1.039451331760033</v>
       </c>
       <c r="N17">
-        <v>0.9964362294706767</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011832860002186</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040927057530348</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.028587275181408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9523346992121373</v>
+        <v>0.9967784741583839</v>
       </c>
       <c r="D18">
-        <v>0.9667754362692617</v>
+        <v>1.011240724613706</v>
       </c>
       <c r="E18">
-        <v>0.9659612260658469</v>
+        <v>1.014781691294335</v>
       </c>
       <c r="F18">
-        <v>0.9659630452978218</v>
+        <v>1.026015539654616</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.045268526167544</v>
       </c>
       <c r="J18">
-        <v>0.9813277854817518</v>
+        <v>1.023963741753751</v>
       </c>
       <c r="K18">
-        <v>0.9811934202735976</v>
+        <v>1.024868208949446</v>
       </c>
       <c r="L18">
-        <v>0.980394571761647</v>
+        <v>1.028350059950719</v>
       </c>
       <c r="M18">
-        <v>0.9803963566324772</v>
+        <v>1.039399828500797</v>
       </c>
       <c r="N18">
-        <v>0.9968024401878207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011879550792927</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040648628456593</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.028723132883929</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9528505203331804</v>
+        <v>0.996779746414361</v>
       </c>
       <c r="D19">
-        <v>0.9672495045624999</v>
+        <v>1.01120814958672</v>
       </c>
       <c r="E19">
-        <v>0.9663777186839867</v>
+        <v>1.014597811830918</v>
       </c>
       <c r="F19">
-        <v>0.9664921256222316</v>
+        <v>1.02554957790961</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044815</v>
+        <v>1.04517516634052</v>
       </c>
       <c r="J19">
-        <v>0.9816753805148076</v>
+        <v>1.02382962322407</v>
       </c>
       <c r="K19">
-        <v>0.9815908309259294</v>
+        <v>1.024772659080724</v>
       </c>
       <c r="L19">
-        <v>0.9807353841323692</v>
+        <v>1.028106018868123</v>
       </c>
       <c r="M19">
-        <v>0.9808476446519034</v>
+        <v>1.038879139529104</v>
       </c>
       <c r="N19">
-        <v>0.9969266659942168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01181137337585</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.039911329420274</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.028662035610572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9505333642495964</v>
+        <v>0.995042709548613</v>
       </c>
       <c r="D20">
-        <v>0.9651205957310406</v>
+        <v>1.009919251086026</v>
       </c>
       <c r="E20">
-        <v>0.9645075454012936</v>
+        <v>1.012952689863994</v>
       </c>
       <c r="F20">
-        <v>0.9641161440059047</v>
+        <v>1.023450030434874</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.044731441713746</v>
       </c>
       <c r="J20">
-        <v>0.9801139495811928</v>
+        <v>1.022766073033604</v>
       </c>
       <c r="K20">
-        <v>0.9798057965676005</v>
+        <v>1.02378989638017</v>
       </c>
       <c r="L20">
-        <v>0.9792045807746577</v>
+        <v>1.026771542353217</v>
       </c>
       <c r="M20">
-        <v>0.9788207454429148</v>
+        <v>1.037092702179287</v>
       </c>
       <c r="N20">
-        <v>0.9963685599399653</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011415414076662</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.037969684774414</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.027971131981449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9428114270012875</v>
+        <v>0.9908424964110147</v>
       </c>
       <c r="D21">
-        <v>0.9580386605370204</v>
+        <v>1.006951625239246</v>
       </c>
       <c r="E21">
-        <v>0.9582897456530833</v>
+        <v>1.009737552848386</v>
       </c>
       <c r="F21">
-        <v>0.9562115847167353</v>
+        <v>1.020268564605595</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.044012430700262</v>
       </c>
       <c r="J21">
-        <v>0.9749112842371389</v>
+        <v>1.020728142094314</v>
       </c>
       <c r="K21">
-        <v>0.9738611334734594</v>
+        <v>1.021802483034498</v>
       </c>
       <c r="L21">
-        <v>0.9741068955434348</v>
+        <v>1.024536763198356</v>
       </c>
       <c r="M21">
-        <v>0.9720729035024968</v>
+        <v>1.034875855034014</v>
       </c>
       <c r="N21">
-        <v>0.994507807744887</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010718007808439</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.036174277174837</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.026569190909929</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9378012282766527</v>
+        <v>0.9881671721790093</v>
       </c>
       <c r="D22">
-        <v>0.9534540462404917</v>
+        <v>1.005063944602021</v>
       </c>
       <c r="E22">
-        <v>0.954267514198291</v>
+        <v>1.007713362061998</v>
       </c>
       <c r="F22">
-        <v>0.9510936065227193</v>
+        <v>1.018293015573175</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.04354980899016</v>
       </c>
       <c r="J22">
-        <v>0.9715367596442244</v>
+        <v>1.01943565104977</v>
       </c>
       <c r="K22">
-        <v>0.9700076356223019</v>
+        <v>1.020535746852652</v>
       </c>
       <c r="L22">
-        <v>0.9708028425928348</v>
+        <v>1.0231335489077</v>
       </c>
       <c r="M22">
-        <v>0.9677004196832312</v>
+        <v>1.033510590797208</v>
       </c>
       <c r="N22">
-        <v>0.9933001675110105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010276339100019</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.035093754709869</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.025659877080632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9404726496076201</v>
+        <v>0.9895789622217858</v>
       </c>
       <c r="D23">
-        <v>0.9558975401135937</v>
+        <v>1.006050862942742</v>
       </c>
       <c r="E23">
-        <v>0.9564109707088581</v>
+        <v>1.008780010054319</v>
       </c>
       <c r="F23">
-        <v>0.9538214663954863</v>
+        <v>1.01933563700592</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.043792618361672</v>
       </c>
       <c r="J23">
-        <v>0.9733359094695078</v>
+        <v>1.020112536410613</v>
       </c>
       <c r="K23">
-        <v>0.9720619410656395</v>
+        <v>1.021193340011225</v>
       </c>
       <c r="L23">
-        <v>0.972564188608996</v>
+        <v>1.023870687233318</v>
       </c>
       <c r="M23">
-        <v>0.9700312495692941</v>
+        <v>1.034229367729507</v>
       </c>
       <c r="N23">
-        <v>0.9939440866974558</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010506797069312</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.035662622539481</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.026115088707916</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9506603471266285</v>
+        <v>0.9950559324617845</v>
       </c>
       <c r="D24">
-        <v>0.96523721675508</v>
+        <v>1.009910053171895</v>
       </c>
       <c r="E24">
-        <v>0.9646099809515871</v>
+        <v>1.012935421088348</v>
       </c>
       <c r="F24">
-        <v>0.9642463016618216</v>
+        <v>1.023396577841524</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.044717361849361</v>
       </c>
       <c r="J24">
-        <v>0.9801995159409742</v>
+        <v>1.022745637552215</v>
       </c>
       <c r="K24">
-        <v>0.9799036049573456</v>
+        <v>1.023765343877648</v>
       </c>
       <c r="L24">
-        <v>0.9792884581553927</v>
+        <v>1.026739121431228</v>
       </c>
       <c r="M24">
-        <v>0.9789317976593542</v>
+        <v>1.037024914268532</v>
       </c>
       <c r="N24">
-        <v>0.9963991487841175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011404594955504</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.037875121722515</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.027926073145739</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9618731056379994</v>
+        <v>1.001216574957491</v>
       </c>
       <c r="D25">
-        <v>0.9755560511182385</v>
+        <v>1.014283258004483</v>
       </c>
       <c r="E25">
-        <v>0.9736789809132788</v>
+        <v>1.017640814445243</v>
       </c>
       <c r="F25">
-        <v>0.9757622407971794</v>
+        <v>1.027998826397123</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.045713033961154</v>
       </c>
       <c r="J25">
-        <v>0.9877554309742285</v>
+        <v>1.025703065752816</v>
       </c>
       <c r="K25">
-        <v>0.9885460628824716</v>
+        <v>1.026663818477823</v>
       </c>
       <c r="L25">
-        <v>0.9867001183168416</v>
+        <v>1.029971315395203</v>
       </c>
       <c r="M25">
-        <v>0.9887488429120588</v>
+        <v>1.040177506403594</v>
       </c>
       <c r="N25">
-        <v>0.9990978625977338</v>
+        <v>1.012412608651281</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.040370191805238</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.02997259221383</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005953867799728</v>
+        <v>1.006209103277041</v>
       </c>
       <c r="D2">
-        <v>1.017645907619849</v>
+        <v>1.017698702172777</v>
       </c>
       <c r="E2">
-        <v>1.021280732676972</v>
+        <v>1.021492588237898</v>
       </c>
       <c r="F2">
-        <v>1.031566546601742</v>
+        <v>1.031733525405922</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046435055522113</v>
+        <v>1.046532480077879</v>
       </c>
       <c r="J2">
-        <v>1.027957946402276</v>
+        <v>1.02820567398831</v>
       </c>
       <c r="K2">
-        <v>1.028864761142164</v>
+        <v>1.028916851915882</v>
       </c>
       <c r="L2">
-        <v>1.032451345251971</v>
+        <v>1.032660402373079</v>
       </c>
       <c r="M2">
-        <v>1.042602951835564</v>
+        <v>1.042767779541959</v>
       </c>
       <c r="N2">
-        <v>1.013178627016059</v>
+        <v>1.014650666001605</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.042289767037741</v>
+        <v>1.042420216781397</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.031480042402813</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.031525732382975</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019745979907926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009331697773001</v>
+        <v>1.009448637162054</v>
       </c>
       <c r="D3">
-        <v>1.020071250930459</v>
+        <v>1.019910718221407</v>
       </c>
       <c r="E3">
-        <v>1.023890086096255</v>
+        <v>1.0239906192788</v>
       </c>
       <c r="F3">
-        <v>1.034122899759098</v>
+        <v>1.034202821244221</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046931608525998</v>
+        <v>1.046981443700505</v>
       </c>
       <c r="J3">
-        <v>1.029571163976074</v>
+        <v>1.029684995491503</v>
       </c>
       <c r="K3">
-        <v>1.030453599266141</v>
+        <v>1.030295021723333</v>
       </c>
       <c r="L3">
-        <v>1.034226148356409</v>
+        <v>1.034325468819686</v>
       </c>
       <c r="M3">
-        <v>1.044337022529744</v>
+        <v>1.044416003387651</v>
       </c>
       <c r="N3">
-        <v>1.01372771900706</v>
+        <v>1.015050152701563</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04366216303361</v>
+        <v>1.0437246708118</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.03260082040595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.032497268276311</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020022543712565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011482652032629</v>
+        <v>1.011512424420898</v>
       </c>
       <c r="D4">
-        <v>1.021622316554625</v>
+        <v>1.021326360552696</v>
       </c>
       <c r="E4">
-        <v>1.025557494220032</v>
+        <v>1.025587782682326</v>
       </c>
       <c r="F4">
-        <v>1.03575702704028</v>
+        <v>1.035782073131542</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.0472374274253</v>
+        <v>1.047257181653238</v>
       </c>
       <c r="J4">
-        <v>1.030597122395783</v>
+        <v>1.030626156350538</v>
       </c>
       <c r="K4">
-        <v>1.031466599542273</v>
+        <v>1.031174032440899</v>
       </c>
       <c r="L4">
-        <v>1.035356945917788</v>
+        <v>1.035386890965344</v>
       </c>
       <c r="M4">
-        <v>1.045442231368302</v>
+        <v>1.045467000317676</v>
       </c>
       <c r="N4">
-        <v>1.014076835543183</v>
+        <v>1.015304293871688</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044536857387818</v>
+        <v>1.044556460241291</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.033318015952183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.033119800919527</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02019675956759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012382214988646</v>
+        <v>1.01237564986532</v>
       </c>
       <c r="D5">
-        <v>1.022275451642655</v>
+        <v>1.021922889108948</v>
       </c>
       <c r="E5">
-        <v>1.026256365423491</v>
+        <v>1.026257350712324</v>
       </c>
       <c r="F5">
-        <v>1.036441539819216</v>
+        <v>1.036443708163933</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047363595892978</v>
+        <v>1.047370786647323</v>
       </c>
       <c r="J5">
-        <v>1.031027550589898</v>
+        <v>1.031021143496488</v>
       </c>
       <c r="K5">
-        <v>1.031894212148539</v>
+        <v>1.03154558001856</v>
       </c>
       <c r="L5">
-        <v>1.035830976646273</v>
+        <v>1.035831951060131</v>
       </c>
       <c r="M5">
-        <v>1.045905088167652</v>
+        <v>1.045907233152862</v>
       </c>
       <c r="N5">
-        <v>1.014223511442097</v>
+        <v>1.015411125709569</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044903175382586</v>
+        <v>1.044904872984273</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.03362761207735</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.033390464716622</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020270442009709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012536925292598</v>
+        <v>1.012524013597605</v>
       </c>
       <c r="D6">
-        <v>1.022391368176977</v>
+        <v>1.022028993591029</v>
       </c>
       <c r="E6">
-        <v>1.026376842737371</v>
+        <v>1.026372704355163</v>
       </c>
       <c r="F6">
-        <v>1.036558886861223</v>
+        <v>1.036557056552488</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047386122726011</v>
+        <v>1.047391112025451</v>
       </c>
       <c r="J6">
-        <v>1.031103617123752</v>
+        <v>1.031091014649564</v>
       </c>
       <c r="K6">
-        <v>1.031972233238681</v>
+        <v>1.031613880051152</v>
       </c>
       <c r="L6">
-        <v>1.035913709771947</v>
+        <v>1.035909616858086</v>
       </c>
       <c r="M6">
-        <v>1.045985231187258</v>
+        <v>1.045983420506826</v>
       </c>
       <c r="N6">
-        <v>1.014249712537307</v>
+        <v>1.01543024032173</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044966602822049</v>
+        <v>1.044965169798697</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.033691600161146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.033448448538729</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020284649519023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011505868127151</v>
+        <v>1.011540861174891</v>
       </c>
       <c r="D7">
-        <v>1.021648527605192</v>
+        <v>1.021356001509933</v>
       </c>
       <c r="E7">
-        <v>1.025576077215359</v>
+        <v>1.025610687609999</v>
       </c>
       <c r="F7">
-        <v>1.03577344175872</v>
+        <v>1.035801893966482</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047243331470737</v>
+        <v>1.047265070100388</v>
       </c>
       <c r="J7">
-        <v>1.03061377791563</v>
+        <v>1.030647903420201</v>
       </c>
       <c r="K7">
-        <v>1.031489594395726</v>
+        <v>1.031200416580832</v>
       </c>
       <c r="L7">
-        <v>1.035372416978454</v>
+        <v>1.035406635106259</v>
       </c>
       <c r="M7">
-        <v>1.045455601293951</v>
+        <v>1.045483738788559</v>
       </c>
       <c r="N7">
-        <v>1.014083278135707</v>
+        <v>1.015336542295427</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044547438728637</v>
+        <v>1.044569707544588</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.033354562446426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.033160744159992</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02020445430272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007116850472351</v>
+        <v>1.007343755254919</v>
       </c>
       <c r="D8">
-        <v>1.01849118801313</v>
+        <v>1.018485895939437</v>
       </c>
       <c r="E8">
-        <v>1.022178665263551</v>
+        <v>1.022368157347439</v>
       </c>
       <c r="F8">
-        <v>1.032443866111215</v>
+        <v>1.03259343902117</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046611413253163</v>
+        <v>1.046699754968005</v>
       </c>
       <c r="J8">
-        <v>1.028520603135465</v>
+        <v>1.028741054496812</v>
       </c>
       <c r="K8">
-        <v>1.029426377004454</v>
+        <v>1.02942115339466</v>
       </c>
       <c r="L8">
-        <v>1.03306636457423</v>
+        <v>1.033253427826554</v>
       </c>
       <c r="M8">
-        <v>1.04320159124542</v>
+        <v>1.043349294130196</v>
       </c>
       <c r="N8">
-        <v>1.013371163405365</v>
+        <v>1.014874374606532</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042763548665825</v>
+        <v>1.042880445220949</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.031900279745755</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.031907708965617</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019851785074112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9990884997605779</v>
+        <v>0.9996530081186594</v>
       </c>
       <c r="D9">
-        <v>1.012754454269284</v>
+        <v>1.013261473566422</v>
       </c>
       <c r="E9">
-        <v>1.016010484422335</v>
+        <v>1.016471260625975</v>
       </c>
       <c r="F9">
-        <v>1.026406568526626</v>
+        <v>1.026768710005152</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045370981086467</v>
+        <v>1.045575074199229</v>
       </c>
       <c r="J9">
-        <v>1.024673486561037</v>
+        <v>1.025218025516665</v>
       </c>
       <c r="K9">
-        <v>1.025643933980273</v>
+        <v>1.026142995315699</v>
       </c>
       <c r="L9">
-        <v>1.028849035603578</v>
+        <v>1.029302638352055</v>
       </c>
       <c r="M9">
-        <v>1.039085268177401</v>
+        <v>1.039441915672278</v>
       </c>
       <c r="N9">
-        <v>1.012060408401023</v>
+        <v>1.013931727236665</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.039505757806809</v>
+        <v>1.039788020721083</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.029222583797706</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.029586310717998</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019180002628097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9935884740919271</v>
+        <v>0.9944169023070949</v>
       </c>
       <c r="D10">
-        <v>1.008871544608948</v>
+        <v>1.009752861972439</v>
       </c>
       <c r="E10">
-        <v>1.011852060350488</v>
+        <v>1.01252475081161</v>
       </c>
       <c r="F10">
-        <v>1.022388754679967</v>
+        <v>1.022917468146043</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044486708358096</v>
+        <v>1.044781494208659</v>
       </c>
       <c r="J10">
-        <v>1.022058802385968</v>
+        <v>1.022853797114707</v>
       </c>
       <c r="K10">
-        <v>1.023082446966372</v>
+        <v>1.023948230274123</v>
       </c>
       <c r="L10">
-        <v>1.026010569483842</v>
+        <v>1.026671490266307</v>
       </c>
       <c r="M10">
-        <v>1.036365206585412</v>
+        <v>1.036884912342628</v>
       </c>
       <c r="N10">
-        <v>1.011172862993956</v>
+        <v>1.013412077487669</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.037404510714487</v>
+        <v>1.037815798938458</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.027428403824911</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.028053112949003</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018726194966814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9915676085665575</v>
+        <v>0.9925237216250427</v>
       </c>
       <c r="D11">
-        <v>1.0075166222451</v>
+        <v>1.008553450331155</v>
       </c>
       <c r="E11">
-        <v>1.010598543729096</v>
+        <v>1.011373016134991</v>
       </c>
       <c r="F11">
-        <v>1.021573225155465</v>
+        <v>1.02218187360073</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044284526284506</v>
+        <v>1.044622556209225</v>
       </c>
       <c r="J11">
-        <v>1.021295441658081</v>
+        <v>1.02221086427365</v>
       </c>
       <c r="K11">
-        <v>1.022298164720425</v>
+        <v>1.023315843924284</v>
       </c>
       <c r="L11">
-        <v>1.025323317097801</v>
+        <v>1.026083594525781</v>
       </c>
       <c r="M11">
-        <v>1.036099455708309</v>
+        <v>1.036697255068027</v>
       </c>
       <c r="N11">
-        <v>1.01094342427217</v>
+        <v>1.01348808297333</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037630833746888</v>
+        <v>1.038103685888118</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.026907072781908</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.027642390158305</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018630136181648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9909544718945348</v>
+        <v>0.9919486342897714</v>
       </c>
       <c r="D12">
-        <v>1.007125475155821</v>
+        <v>1.008206237807377</v>
       </c>
       <c r="E12">
-        <v>1.010333419554573</v>
+        <v>1.011137330207578</v>
       </c>
       <c r="F12">
-        <v>1.021609345538862</v>
+        <v>1.022240985776141</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044279001861537</v>
+        <v>1.044628799343001</v>
       </c>
       <c r="J12">
-        <v>1.021146650377281</v>
+        <v>1.02209769480736</v>
       </c>
       <c r="K12">
-        <v>1.022117423795441</v>
+        <v>1.023177890098872</v>
       </c>
       <c r="L12">
-        <v>1.025265289622803</v>
+        <v>1.026054222520886</v>
       </c>
       <c r="M12">
-        <v>1.036333933203171</v>
+        <v>1.036954138039252</v>
       </c>
       <c r="N12">
-        <v>1.010916804116671</v>
+        <v>1.013575875881841</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.038142907352011</v>
+        <v>1.038633315753866</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.026779280463247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.027544852597183</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018626126463847</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9913982493110207</v>
+        <v>0.9923534468305683</v>
       </c>
       <c r="D13">
-        <v>1.007469513219607</v>
+        <v>1.008502463782061</v>
       </c>
       <c r="E13">
-        <v>1.010824770377515</v>
+        <v>1.011595883409297</v>
       </c>
       <c r="F13">
-        <v>1.022324613459577</v>
+        <v>1.022930203445511</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044434867306065</v>
+        <v>1.044769223894005</v>
       </c>
       <c r="J13">
-        <v>1.021477194563188</v>
+        <v>1.022391166359441</v>
       </c>
       <c r="K13">
-        <v>1.022411436679525</v>
+        <v>1.023425069869538</v>
       </c>
       <c r="L13">
-        <v>1.02570413465278</v>
+        <v>1.026460946657249</v>
       </c>
       <c r="M13">
-        <v>1.036993611391057</v>
+        <v>1.037588293708079</v>
       </c>
       <c r="N13">
-        <v>1.011051045857109</v>
+        <v>1.013647641839468</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038941283224909</v>
+        <v>1.039411392241769</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.026984641510793</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.027716854625131</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018697915154243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9921890481426932</v>
+        <v>0.9930824655335857</v>
       </c>
       <c r="D14">
-        <v>1.0080463425373</v>
+        <v>1.009004568800843</v>
       </c>
       <c r="E14">
-        <v>1.011511154178374</v>
+        <v>1.012231539332205</v>
       </c>
       <c r="F14">
-        <v>1.023132065254574</v>
+        <v>1.023697571701931</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04461698214687</v>
+        <v>1.044928491876959</v>
       </c>
       <c r="J14">
-        <v>1.021926545378767</v>
+        <v>1.022781950582738</v>
       </c>
       <c r="K14">
-        <v>1.02283486730556</v>
+        <v>1.023775395641797</v>
       </c>
       <c r="L14">
-        <v>1.026235892243401</v>
+        <v>1.026943086601582</v>
       </c>
       <c r="M14">
-        <v>1.037646958008701</v>
+        <v>1.038202410536532</v>
       </c>
       <c r="N14">
-        <v>1.0112182957383</v>
+        <v>1.013692085029801</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039631092521592</v>
+        <v>1.040070130280597</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.027285467120645</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027966124111387</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018783448047817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.992617104423646</v>
+        <v>0.9934790806649805</v>
       </c>
       <c r="D15">
-        <v>1.00835453361637</v>
+        <v>1.009274612364032</v>
       </c>
       <c r="E15">
-        <v>1.011852225990291</v>
+        <v>1.012547063878975</v>
       </c>
       <c r="F15">
-        <v>1.0234924975141</v>
+        <v>1.024037858944128</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044699550108433</v>
+        <v>1.044999794042375</v>
       </c>
       <c r="J15">
-        <v>1.022147309229005</v>
+        <v>1.022972928617174</v>
       </c>
       <c r="K15">
-        <v>1.023049535051168</v>
+        <v>1.023952749400329</v>
       </c>
       <c r="L15">
-        <v>1.026483329673096</v>
+        <v>1.027165542257527</v>
       </c>
       <c r="M15">
-        <v>1.037915028822607</v>
+        <v>1.038450769134672</v>
       </c>
       <c r="N15">
-        <v>1.011296653330734</v>
+        <v>1.013704277115117</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039880514249331</v>
+        <v>1.040303960041529</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.027443181477895</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.028098022464423</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018823305989925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9948574628486029</v>
+        <v>0.9955715793348678</v>
       </c>
       <c r="D16">
-        <v>1.009929227695789</v>
+        <v>1.010665675296528</v>
       </c>
       <c r="E16">
-        <v>1.013520954681012</v>
+        <v>1.014096887164443</v>
       </c>
       <c r="F16">
-        <v>1.025086343633447</v>
+        <v>1.025538136732166</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045059237869131</v>
+        <v>1.045308213332788</v>
       </c>
       <c r="J16">
-        <v>1.023199165938418</v>
+        <v>1.023884653800831</v>
       </c>
       <c r="K16">
-        <v>1.024085333531843</v>
+        <v>1.02480887129567</v>
       </c>
       <c r="L16">
-        <v>1.027614327587012</v>
+        <v>1.028180254366027</v>
       </c>
       <c r="M16">
-        <v>1.038981569461906</v>
+        <v>1.039425739098231</v>
       </c>
       <c r="N16">
-        <v>1.01164966055829</v>
+        <v>1.013740751676731</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040684786974314</v>
+        <v>1.041035865871299</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.028178742805236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.028706839395779</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018996234491542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9961646353374445</v>
+        <v>0.9968050070213254</v>
       </c>
       <c r="D17">
-        <v>1.010838815249685</v>
+        <v>1.011479160764826</v>
       </c>
       <c r="E17">
-        <v>1.014443554848016</v>
+        <v>1.014960714803075</v>
       </c>
       <c r="F17">
-        <v>1.025882389808851</v>
+        <v>1.026288057061863</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045237246790527</v>
+        <v>1.045461402211592</v>
       </c>
       <c r="J17">
-        <v>1.023771003016822</v>
+        <v>1.024386520198091</v>
       </c>
       <c r="K17">
-        <v>1.024659432751559</v>
+        <v>1.025288868449832</v>
       </c>
       <c r="L17">
-        <v>1.02820298854411</v>
+        <v>1.028711416649494</v>
       </c>
       <c r="M17">
-        <v>1.039451331760033</v>
+        <v>1.039850343658921</v>
       </c>
       <c r="N17">
-        <v>1.011832860002186</v>
+        <v>1.01377425491883</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040927057530348</v>
+        <v>1.04124247441739</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028587275181408</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.029049082345732</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019085468757054</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9967784741583839</v>
+        <v>0.9973934372846753</v>
       </c>
       <c r="D18">
-        <v>1.011240724613706</v>
+        <v>1.011845430963496</v>
       </c>
       <c r="E18">
-        <v>1.014781691294335</v>
+        <v>1.015279329330774</v>
       </c>
       <c r="F18">
-        <v>1.026015539654616</v>
+        <v>1.026405994901086</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045268526167544</v>
+        <v>1.045485109918341</v>
       </c>
       <c r="J18">
-        <v>1.023963741753751</v>
+        <v>1.024555280378184</v>
       </c>
       <c r="K18">
-        <v>1.024868208949446</v>
+        <v>1.025462782098058</v>
       </c>
       <c r="L18">
-        <v>1.028350059950719</v>
+        <v>1.028839432578821</v>
       </c>
       <c r="M18">
-        <v>1.039399828500797</v>
+        <v>1.039783978680676</v>
       </c>
       <c r="N18">
-        <v>1.011879550792927</v>
+        <v>1.013765472681651</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040648628456593</v>
+        <v>1.040952360519408</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.028723132883929</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.029159156767288</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019102931646323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.996779746414361</v>
+        <v>0.9974058746753101</v>
       </c>
       <c r="D19">
-        <v>1.01120814958672</v>
+        <v>1.01182586745335</v>
       </c>
       <c r="E19">
-        <v>1.014597811830918</v>
+        <v>1.015105540367657</v>
       </c>
       <c r="F19">
-        <v>1.02554957790961</v>
+        <v>1.025948143826581</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04517516634052</v>
+        <v>1.045397075656089</v>
       </c>
       <c r="J19">
-        <v>1.02382962322407</v>
+        <v>1.024432041745557</v>
       </c>
       <c r="K19">
-        <v>1.024772659080724</v>
+        <v>1.025380080417065</v>
       </c>
       <c r="L19">
-        <v>1.028106018868123</v>
+        <v>1.028605355676543</v>
       </c>
       <c r="M19">
-        <v>1.038879139529104</v>
+        <v>1.039271296304429</v>
       </c>
       <c r="N19">
-        <v>1.01181137337585</v>
+        <v>1.0137046012652</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039911329420274</v>
+        <v>1.040221493327781</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.028662035610572</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.029107767188441</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019063337784247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.995042709548613</v>
+        <v>0.9957817575962961</v>
       </c>
       <c r="D20">
-        <v>1.009919251086026</v>
+        <v>1.010686040582284</v>
       </c>
       <c r="E20">
-        <v>1.012952689863994</v>
+        <v>1.013553116009982</v>
       </c>
       <c r="F20">
-        <v>1.023450030434874</v>
+        <v>1.023921843883304</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044731441713746</v>
+        <v>1.044994794078038</v>
       </c>
       <c r="J20">
-        <v>1.022766073033604</v>
+        <v>1.023476259444981</v>
       </c>
       <c r="K20">
-        <v>1.02378989638017</v>
+        <v>1.024543555808789</v>
       </c>
       <c r="L20">
-        <v>1.026771542353217</v>
+        <v>1.027361764298244</v>
       </c>
       <c r="M20">
-        <v>1.037092702179287</v>
+        <v>1.037556706195628</v>
       </c>
       <c r="N20">
-        <v>1.011415414076662</v>
+        <v>1.013483407688078</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.037969684774414</v>
+        <v>1.03833689581424</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.027971131981449</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.028520652462996</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018853306193726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9908424964110147</v>
+        <v>0.9918763301528571</v>
       </c>
       <c r="D21">
-        <v>1.006951625239246</v>
+        <v>1.008078884460377</v>
       </c>
       <c r="E21">
-        <v>1.009737552848386</v>
+        <v>1.010577277882304</v>
       </c>
       <c r="F21">
-        <v>1.020268564605595</v>
+        <v>1.020929216239827</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044012430700262</v>
+        <v>1.044380868610593</v>
       </c>
       <c r="J21">
-        <v>1.020728142094314</v>
+        <v>1.021717669455773</v>
       </c>
       <c r="K21">
-        <v>1.021802483034498</v>
+        <v>1.022908799505515</v>
       </c>
       <c r="L21">
-        <v>1.024536763198356</v>
+        <v>1.025360993613462</v>
       </c>
       <c r="M21">
-        <v>1.034875855034014</v>
+        <v>1.035524638251845</v>
       </c>
       <c r="N21">
-        <v>1.010718007808439</v>
+        <v>1.013422240012517</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.036174277174837</v>
+        <v>1.036687748512351</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.026569190909929</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.027368390144196</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018513285277918</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9881671721790093</v>
+        <v>0.989388679673033</v>
       </c>
       <c r="D22">
-        <v>1.005063944602021</v>
+        <v>1.006420130820837</v>
       </c>
       <c r="E22">
-        <v>1.007713362061998</v>
+        <v>1.008705438903998</v>
       </c>
       <c r="F22">
-        <v>1.018293015573175</v>
+        <v>1.019074141503563</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04354980899016</v>
+        <v>1.043985310689048</v>
       </c>
       <c r="J22">
-        <v>1.01943565104977</v>
+        <v>1.020601784353122</v>
       </c>
       <c r="K22">
-        <v>1.020535746852652</v>
+        <v>1.021865467607586</v>
       </c>
       <c r="L22">
-        <v>1.0231335489077</v>
+        <v>1.024106389752004</v>
       </c>
       <c r="M22">
-        <v>1.033510590797208</v>
+        <v>1.03427697521702</v>
       </c>
       <c r="N22">
-        <v>1.010276339100019</v>
+        <v>1.013376955237074</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035093754709869</v>
+        <v>1.035700300927966</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.025659877080632</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.026615743555197</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018294406772159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9895789622217858</v>
+        <v>0.9906910293969555</v>
       </c>
       <c r="D23">
-        <v>1.006050862942742</v>
+        <v>1.007278016331547</v>
       </c>
       <c r="E23">
-        <v>1.008780010054319</v>
+        <v>1.009683002792387</v>
       </c>
       <c r="F23">
-        <v>1.01933563700592</v>
+        <v>1.020046248685694</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043792618361672</v>
+        <v>1.044188662080391</v>
       </c>
       <c r="J23">
-        <v>1.020112536410613</v>
+        <v>1.021175657522476</v>
       </c>
       <c r="K23">
-        <v>1.021193340011225</v>
+        <v>1.022397156310029</v>
       </c>
       <c r="L23">
-        <v>1.023870687233318</v>
+        <v>1.024756621505209</v>
       </c>
       <c r="M23">
-        <v>1.034229367729507</v>
+        <v>1.034926911603889</v>
       </c>
       <c r="N23">
-        <v>1.010506797069312</v>
+        <v>1.01335612714288</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035662622539481</v>
+        <v>1.036214685269923</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.026115088707916</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.026980992227148</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018403378228594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9950559324617845</v>
+        <v>0.9957958312477706</v>
       </c>
       <c r="D24">
-        <v>1.009910053171895</v>
+        <v>1.010677761809963</v>
       </c>
       <c r="E24">
-        <v>1.012935421088348</v>
+        <v>1.013536692875334</v>
       </c>
       <c r="F24">
-        <v>1.023396577841524</v>
+        <v>1.023869077661371</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044717361849361</v>
+        <v>1.044981204280965</v>
       </c>
       <c r="J24">
-        <v>1.022745637552215</v>
+        <v>1.023456683232569</v>
       </c>
       <c r="K24">
-        <v>1.023765343877648</v>
+        <v>1.02451992331537</v>
       </c>
       <c r="L24">
-        <v>1.026739121431228</v>
+        <v>1.027330187332704</v>
       </c>
       <c r="M24">
-        <v>1.037024914268532</v>
+        <v>1.037489602267278</v>
       </c>
       <c r="N24">
-        <v>1.011404594955504</v>
+        <v>1.013471344126866</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.037875121722515</v>
+        <v>1.038242892368124</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.027926073145739</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.028473577532315</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018842822007467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001216574957491</v>
+        <v>1.001682106524068</v>
       </c>
       <c r="D25">
-        <v>1.014283258004483</v>
+        <v>1.014647222899904</v>
       </c>
       <c r="E25">
-        <v>1.017640814445243</v>
+        <v>1.018021936559905</v>
       </c>
       <c r="F25">
-        <v>1.027998826397123</v>
+        <v>1.02829845922995</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045713033961154</v>
+        <v>1.045882965379585</v>
       </c>
       <c r="J25">
-        <v>1.025703065752816</v>
+        <v>1.026152993380129</v>
       </c>
       <c r="K25">
-        <v>1.026663818477823</v>
+        <v>1.027022336465509</v>
       </c>
       <c r="L25">
-        <v>1.029971315395203</v>
+        <v>1.030346781691058</v>
       </c>
       <c r="M25">
-        <v>1.040177506403594</v>
+        <v>1.040472805106617</v>
       </c>
       <c r="N25">
-        <v>1.012412608651281</v>
+        <v>1.014152627704107</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.040370191805238</v>
+        <v>1.040603900933679</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.02997259221383</v>
+        <v>1.030239742581963</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019364377640898</v>
       </c>
     </row>
   </sheetData>
